--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -709,7 +709,7 @@
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>The reference of the planning authority the application has been submitted to, e.g. local-authority:CMD</t>
+          <t>A reference of the planning authority the application has been submitted to, e.g. local-authority:CMD for London borough of Camden</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N158"/>
+  <dimension ref="A1:N157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,17 +1083,17 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>URL</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>A URL pointing to the stored file</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -1147,17 +1147,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>base64-content</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Base64</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1275,17 +1275,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>checksum</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Checksum</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1339,22 +1339,22 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -1383,37 +1383,29 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1423,7 +1415,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1457,19 +1449,19 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1513,99 +1505,83 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr"/>
+      <c r="G20" s="2" t="inlineStr"/>
+      <c r="H20" s="2" t="inlineStr"/>
+      <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A21" s="2" t="n"/>
+      <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1613,12 +1589,12 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr"/>
@@ -1629,7 +1605,7 @@
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1653,28 +1629,36 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr"/>
-      <c r="G22" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -1703,12 +1687,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr"/>
@@ -1717,7 +1701,7 @@
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1732,40 +1716,40 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="n"/>
-      <c r="B24" s="2" t="n"/>
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr"/>
+      <c r="G24" s="2" t="inlineStr"/>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1780,16 +1764,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A25" s="2" t="n"/>
+      <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1797,23 +1773,31 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr"/>
-      <c r="G25" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H25" s="2" t="inlineStr"/>
       <c r="I25" s="2" t="inlineStr"/>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1847,21 +1831,29 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr"/>
-      <c r="I26" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1871,7 +1863,7 @@
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1905,24 +1897,24 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -1932,8 +1924,16 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="n"/>
-      <c r="B28" s="2" t="n"/>
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1941,63 +1941,47 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr"/>
+      <c r="I28" s="2" t="inlineStr"/>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B29" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A29" s="2" t="n"/>
+      <c r="B29" s="2" t="n"/>
       <c r="C29" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -2015,21 +1999,29 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="inlineStr"/>
-      <c r="I29" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2039,7 +2031,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2073,19 +2065,19 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2095,7 +2087,7 @@
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2129,19 +2121,19 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2185,19 +2177,19 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2241,19 +2233,19 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2263,7 +2255,7 @@
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2287,29 +2279,21 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H34" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr"/>
+      <c r="I34" s="2" t="inlineStr"/>
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2343,12 +2327,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr"/>
@@ -2357,12 +2341,12 @@
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -2372,64 +2356,56 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="n"/>
-      <c r="B36" s="2" t="n"/>
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G36" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr"/>
+      <c r="G36" s="2" t="inlineStr"/>
       <c r="H36" s="2" t="inlineStr"/>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B37" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A37" s="2" t="n"/>
+      <c r="B37" s="2" t="n"/>
       <c r="C37" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2437,23 +2413,31 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F37" s="2" t="inlineStr"/>
-      <c r="G37" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F37" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H37" s="2" t="inlineStr"/>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2487,21 +2471,29 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H38" s="2" t="inlineStr"/>
-      <c r="I38" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2511,7 +2503,7 @@
       </c>
       <c r="N38" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2545,24 +2537,24 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -2572,72 +2564,64 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="n"/>
-      <c r="B40" s="2" t="n"/>
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I40" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr"/>
+      <c r="I40" s="2" t="inlineStr"/>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B41" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A41" s="2" t="n"/>
+      <c r="B41" s="2" t="n"/>
       <c r="C41" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2655,21 +2639,29 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H41" s="2" t="inlineStr"/>
-      <c r="I41" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2679,7 +2671,7 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2713,19 +2705,19 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2735,7 +2727,7 @@
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2769,19 +2761,19 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2825,19 +2817,19 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2881,19 +2873,19 @@
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
@@ -2903,77 +2895,61 @@
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n"/>
-      <c r="B46" s="2" t="n"/>
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>bio-geo-arch-con</t>
+        </is>
+      </c>
       <c r="C46" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>protected-species-impact</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F46" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G46" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N46" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>bio-geo-arch-con</t>
-        </is>
-      </c>
+      <c r="A47" s="2" t="n"/>
+      <c r="B47" s="2" t="n"/>
       <c r="C47" s="2" t="inlineStr">
         <is>
           <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
@@ -2981,12 +2957,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>protected-species-impact</t>
+          <t>biodiversity-features-impact</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2997,7 +2973,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -3021,12 +2997,12 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>biodiversity-features-impact</t>
+          <t>geological-features-impact</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr"/>
@@ -3037,7 +3013,7 @@
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M48" s="2" t="inlineStr">
@@ -3052,160 +3028,160 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="n"/>
-      <c r="B49" s="2" t="n"/>
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr">
-        <is>
-          <t>geological-features-impact</t>
-        </is>
-      </c>
-      <c r="E49" s="2" t="inlineStr">
-        <is>
-          <t>Geological features impact</t>
-        </is>
-      </c>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr"/>
+      <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr">
-        <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
-        </is>
-      </c>
-      <c r="M49" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N49" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L49" s="2" t="inlineStr"/>
+      <c r="M49" s="2" t="inlineStr"/>
+      <c r="N49" s="2" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>bng</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr"/>
-      <c r="E50" s="2" t="inlineStr"/>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>national-req-types</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="inlineStr"/>
-      <c r="N50" s="2" t="inlineStr"/>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>List of the document types required for the given application type</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr">
-        <is>
-          <t>national-req-types</t>
-        </is>
-      </c>
-      <c r="E51" s="2" t="inlineStr">
-        <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr"/>
+      <c r="E51" s="2" t="inlineStr"/>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr">
-        <is>
-          <t>List of the document types required for the given application type</t>
-        </is>
-      </c>
-      <c r="M51" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N51" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L51" s="2" t="inlineStr"/>
+      <c r="M51" s="2" t="inlineStr"/>
+      <c r="N51" s="2" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>conflict-of-interest</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="inlineStr"/>
-      <c r="E52" s="2" t="inlineStr"/>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
       <c r="F52" s="2" t="inlineStr"/>
       <c r="G52" s="2" t="inlineStr"/>
       <c r="H52" s="2" t="inlineStr"/>
       <c r="I52" s="2" t="inlineStr"/>
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
-      <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="inlineStr"/>
-      <c r="N52" s="2" t="inlineStr"/>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>A name of a person</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B53" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A53" s="2" t="n"/>
+      <c r="B53" s="2" t="n"/>
       <c r="C53" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3213,12 +3189,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3229,12 +3205,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3253,12 +3229,12 @@
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr"/>
@@ -3269,12 +3245,12 @@
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3284,37 +3260,53 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="n"/>
-      <c r="B55" s="2" t="n"/>
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C55" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D55" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F55" s="2" t="inlineStr"/>
-      <c r="G55" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H55" s="2" t="inlineStr"/>
       <c r="I55" s="2" t="inlineStr"/>
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N55" s="2" t="inlineStr">
@@ -3324,16 +3316,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A56" s="2" t="n"/>
+      <c r="B56" s="2" t="n"/>
       <c r="C56" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -3351,12 +3335,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3365,7 +3349,7 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3399,12 +3383,12 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3413,7 +3397,7 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3437,22 +3421,22 @@
       </c>
       <c r="D58" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3461,7 +3445,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3495,12 +3479,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3509,7 +3493,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3543,12 +3527,12 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G60" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H60" s="2" t="inlineStr"/>
@@ -3557,7 +3541,7 @@
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
@@ -3581,95 +3565,95 @@
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G61" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr"/>
+      <c r="G61" s="2" t="inlineStr"/>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="n"/>
-      <c r="B62" s="2" t="n"/>
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F62" s="2" t="inlineStr"/>
-      <c r="G62" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H62" s="2" t="inlineStr"/>
       <c r="I62" s="2" t="inlineStr"/>
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B63" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A63" s="2" t="n"/>
+      <c r="B63" s="2" t="n"/>
       <c r="C63" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -3687,12 +3671,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3701,17 +3685,17 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3735,12 +3719,12 @@
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G64" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H64" s="2" t="inlineStr"/>
@@ -3749,7 +3733,7 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
@@ -3759,7 +3743,7 @@
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3773,36 +3757,28 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F65" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G65" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F65" s="2" t="inlineStr"/>
+      <c r="G65" s="2" t="inlineStr"/>
       <c r="H65" s="2" t="inlineStr"/>
       <c r="I65" s="2" t="inlineStr"/>
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3821,12 +3797,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3837,17 +3813,17 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3861,12 +3837,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3877,12 +3853,12 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
@@ -3901,12 +3877,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3917,17 +3893,17 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N68" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3941,12 +3917,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -3957,7 +3933,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3981,12 +3957,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -3997,7 +3973,7 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
@@ -4021,12 +3997,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4037,36 +4013,44 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="n"/>
-      <c r="B72" s="2" t="n"/>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4077,31 +4061,23 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B73" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A73" s="2" t="n"/>
+      <c r="B73" s="2" t="n"/>
       <c r="C73" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4109,12 +4085,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4125,17 +4101,17 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4149,12 +4125,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4165,12 +4141,12 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
@@ -4189,12 +4165,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4205,17 +4181,17 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4229,12 +4205,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4245,7 +4221,7 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
@@ -4269,12 +4245,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4285,12 +4261,12 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4300,21 +4276,29 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n"/>
-      <c r="B78" s="2" t="n"/>
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4325,12 +4309,12 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
@@ -4340,16 +4324,8 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B79" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A79" s="2" t="n"/>
+      <c r="B79" s="2" t="n"/>
       <c r="C79" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -4357,12 +4333,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4373,17 +4349,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4397,12 +4373,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4413,17 +4389,17 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4437,12 +4413,12 @@
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4453,36 +4429,44 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>What hazardous substances may be used as part of the development</t>
         </is>
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="F82" s="2" t="inlineStr"/>
@@ -4493,31 +4477,23 @@
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N82" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>What hazardous substances may be used as part of the development</t>
@@ -4525,23 +4501,31 @@
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr"/>
-      <c r="G83" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F83" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G83" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H83" s="2" t="inlineStr"/>
       <c r="I83" s="2" t="inlineStr"/>
       <c r="J83" s="2" t="inlineStr"/>
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
@@ -4575,12 +4559,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4589,17 +4573,17 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4623,12 +4607,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4637,17 +4621,17 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4661,36 +4645,28 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="G86" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr"/>
+      <c r="G86" s="2" t="inlineStr"/>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4709,12 +4685,12 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="F87" s="2" t="inlineStr"/>
@@ -4725,99 +4701,107 @@
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="n"/>
-      <c r="B88" s="2" t="n"/>
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr">
-        <is>
-          <t>hazardous-sub-consent-details</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr"/>
+      <c r="E88" s="2" t="inlineStr"/>
       <c r="F88" s="2" t="inlineStr"/>
       <c r="G88" s="2" t="inlineStr"/>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
-      <c r="L88" s="2" t="inlineStr">
-        <is>
-          <t>Details of hazardous substance consent requirements</t>
-        </is>
-      </c>
-      <c r="M88" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N88" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L88" s="2" t="inlineStr"/>
+      <c r="M88" s="2" t="inlineStr"/>
+      <c r="N88" s="2" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>hrs-operation</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr"/>
-      <c r="E89" s="2" t="inlineStr"/>
-      <c r="F89" s="2" t="inlineStr"/>
-      <c r="G89" s="2" t="inlineStr"/>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr">
+        <is>
+          <t>building-elements</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F89" s="2" t="inlineStr">
+        <is>
+          <t>building-element-type</t>
+        </is>
+      </c>
+      <c r="G89" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="H89" s="2" t="inlineStr"/>
       <c r="I89" s="2" t="inlineStr"/>
       <c r="J89" s="2" t="inlineStr"/>
       <c r="K89" s="2" t="inlineStr"/>
-      <c r="L89" s="2" t="inlineStr"/>
-      <c r="M89" s="2" t="inlineStr"/>
-      <c r="N89" s="2" t="inlineStr"/>
+      <c r="L89" s="2" t="inlineStr">
+        <is>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+        </is>
+      </c>
+      <c r="M89" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N89" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B90" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A90" s="2" t="n"/>
+      <c r="B90" s="2" t="n"/>
       <c r="C90" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -4835,12 +4819,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -4849,17 +4833,17 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N90" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4883,12 +4867,12 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -4897,7 +4881,7 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
@@ -4931,12 +4915,12 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -4945,12 +4929,12 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
@@ -4979,12 +4963,12 @@
       </c>
       <c r="F93" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G93" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H93" s="2" t="inlineStr"/>
@@ -4993,7 +4977,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -5017,31 +5001,23 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -5051,7 +5027,7 @@
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5065,28 +5041,36 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr"/>
-      <c r="G95" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G95" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N95" s="2" t="inlineStr">
@@ -5115,12 +5099,12 @@
       </c>
       <c r="F96" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G96" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H96" s="2" t="inlineStr"/>
@@ -5129,7 +5113,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5144,67 +5128,47 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="n"/>
-      <c r="B97" s="2" t="n"/>
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G97" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr"/>
+      <c r="E97" s="2" t="inlineStr"/>
+      <c r="F97" s="2" t="inlineStr"/>
+      <c r="G97" s="2" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
-      <c r="L97" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="M97" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N97" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L97" s="2" t="inlineStr"/>
+      <c r="M97" s="2" t="inlineStr"/>
+      <c r="N97" s="2" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Non residential floorspace</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>non-res-floorspace</t>
+          <t>ownership-certs</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr"/>
@@ -5222,42 +5186,54 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Pre-application advice</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>ownership-certs</t>
+          <t>pre-app-advice</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D99" s="2" t="inlineStr"/>
-      <c r="E99" s="2" t="inlineStr"/>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="inlineStr">
+        <is>
+          <t>advice-sought</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
       <c r="F99" s="2" t="inlineStr"/>
       <c r="G99" s="2" t="inlineStr"/>
       <c r="H99" s="2" t="inlineStr"/>
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
-      <c r="L99" s="2" t="inlineStr"/>
-      <c r="M99" s="2" t="inlineStr"/>
-      <c r="N99" s="2" t="inlineStr"/>
+      <c r="L99" s="2" t="inlineStr">
+        <is>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
+        </is>
+      </c>
+      <c r="M99" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N99" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A100" s="2" t="n"/>
+      <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -5265,12 +5241,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5281,17 +5257,17 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5305,12 +5281,12 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
@@ -5321,7 +5297,7 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5345,12 +5321,12 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr"/>
@@ -5361,7 +5337,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5385,12 +5361,12 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr"/>
@@ -5401,7 +5377,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5416,21 +5392,29 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="n"/>
-      <c r="B104" s="2" t="n"/>
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C104" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr"/>
@@ -5441,7 +5425,7 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
@@ -5451,21 +5435,13 @@
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B105" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A105" s="2" t="n"/>
+      <c r="B105" s="2" t="n"/>
       <c r="C105" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -5473,12 +5449,12 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr"/>
@@ -5489,12 +5465,12 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5513,28 +5489,36 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F106" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G106" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H106" s="2" t="inlineStr"/>
       <c r="I106" s="2" t="inlineStr"/>
       <c r="J106" s="2" t="inlineStr"/>
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5563,12 +5547,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5577,17 +5561,17 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5611,12 +5595,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5625,12 +5609,12 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
@@ -5659,12 +5643,12 @@
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5673,7 +5657,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5697,22 +5681,22 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5721,7 +5705,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5755,12 +5739,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -5769,7 +5753,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5803,12 +5787,12 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
@@ -5817,7 +5801,7 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -5851,12 +5835,12 @@
       </c>
       <c r="F113" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G113" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H113" s="2" t="inlineStr"/>
@@ -5865,7 +5849,7 @@
       <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -5880,92 +5864,84 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="n"/>
-      <c r="B114" s="2" t="n"/>
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>waste-streams</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G114" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr"/>
+      <c r="E114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr"/>
+      <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
-      <c r="L114" s="2" t="inlineStr">
-        <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="M114" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N114" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L114" s="2" t="inlineStr"/>
+      <c r="M114" s="2" t="inlineStr"/>
+      <c r="N114" s="2" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>Description of the proposal</t>
+          <t>Residential units</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>proposal-details</t>
+          <t>res-units</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="D115" s="2" t="inlineStr"/>
-      <c r="E115" s="2" t="inlineStr"/>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="inlineStr">
+        <is>
+          <t>will-residential-units-change</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit change</t>
+        </is>
+      </c>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr"/>
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
-      <c r="L115" s="2" t="inlineStr"/>
-      <c r="M115" s="2" t="inlineStr"/>
-      <c r="N115" s="2" t="inlineStr"/>
+      <c r="L115" s="2" t="inlineStr">
+        <is>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
+        </is>
+      </c>
+      <c r="M115" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N115" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A116" s="2" t="n"/>
+      <c r="B116" s="2" t="n"/>
       <c r="C116" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -5973,28 +5949,36 @@
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H116" s="2" t="inlineStr"/>
       <c r="I116" s="2" t="inlineStr"/>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
@@ -6023,12 +6007,12 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr"/>
@@ -6037,7 +6021,7 @@
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6071,26 +6055,34 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H118" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I118" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J118" s="2" t="inlineStr"/>
       <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
@@ -6129,19 +6121,27 @@
       </c>
       <c r="H119" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I119" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J119" s="2" t="inlineStr"/>
-      <c r="K119" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J119" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K119" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6195,27 +6195,27 @@
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N120" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6259,17 +6259,17 @@
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K121" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6279,7 +6279,7 @@
       </c>
       <c r="N121" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6313,27 +6313,19 @@
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J122" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K122" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J122" s="2" t="inlineStr"/>
+      <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
@@ -6343,7 +6335,7 @@
       </c>
       <c r="N122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6367,39 +6359,39 @@
       </c>
       <c r="F123" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G123" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J123" s="2" t="inlineStr"/>
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6433,19 +6425,27 @@
       </c>
       <c r="H124" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I124" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J124" s="2" t="inlineStr"/>
-      <c r="K124" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
@@ -6499,27 +6499,27 @@
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6563,17 +6563,17 @@
       </c>
       <c r="J126" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K126" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="N126" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6617,27 +6617,19 @@
       </c>
       <c r="H127" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I127" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J127" s="2" t="inlineStr"/>
+      <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6647,7 +6639,7 @@
       </c>
       <c r="N127" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6661,39 +6653,23 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G128" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H128" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I128" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr"/>
+      <c r="G128" s="2" t="inlineStr"/>
+      <c r="H128" s="2" t="inlineStr"/>
+      <c r="I128" s="2" t="inlineStr"/>
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
@@ -6703,7 +6679,7 @@
       </c>
       <c r="N128" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6717,12 +6693,12 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
@@ -6733,7 +6709,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6757,12 +6733,12 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr"/>
@@ -6773,7 +6749,7 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6788,21 +6764,29 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="n"/>
-      <c r="B131" s="2" t="n"/>
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
@@ -6813,7 +6797,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6828,16 +6812,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -6845,12 +6821,12 @@
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F132" s="2" t="inlineStr"/>
@@ -6861,52 +6837,68 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N132" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="n"/>
-      <c r="B133" s="2" t="n"/>
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr"/>
-      <c r="G133" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F133" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G133" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H133" s="2" t="inlineStr"/>
       <c r="I133" s="2" t="inlineStr"/>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
@@ -6916,16 +6908,8 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A134" s="2" t="n"/>
+      <c r="B134" s="2" t="n"/>
       <c r="C134" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6943,12 +6927,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -6957,12 +6941,12 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -6991,12 +6975,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -7005,7 +6989,7 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
@@ -7039,12 +7023,12 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7053,12 +7037,12 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
@@ -7087,12 +7071,12 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7101,7 +7085,7 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7135,12 +7119,12 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7149,7 +7133,7 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7183,12 +7167,12 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7197,7 +7181,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7231,12 +7215,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7245,12 +7229,12 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N140" s="2" t="inlineStr">
@@ -7279,12 +7263,12 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr"/>
@@ -7293,7 +7277,7 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
@@ -7308,64 +7292,56 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -7373,12 +7349,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7389,12 +7365,12 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
@@ -7413,12 +7389,12 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr"/>
@@ -7429,17 +7405,17 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7453,23 +7429,31 @@
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr"/>
       <c r="J145" s="2" t="inlineStr"/>
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7479,7 +7463,7 @@
       </c>
       <c r="N145" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7503,12 +7487,12 @@
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -7517,7 +7501,7 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7551,12 +7535,12 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -7565,7 +7549,7 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
@@ -7580,45 +7564,45 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="n"/>
-      <c r="B148" s="2" t="n"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G148" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr"/>
       <c r="H148" s="2" t="inlineStr"/>
       <c r="I148" s="2" t="inlineStr"/>
       <c r="J148" s="2" t="inlineStr"/>
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
@@ -7628,16 +7612,8 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -7645,12 +7621,12 @@
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F149" s="2" t="inlineStr"/>
@@ -7661,99 +7637,107 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n"/>
-      <c r="B150" s="2" t="n"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr"/>
+      <c r="E150" s="2" t="inlineStr"/>
       <c r="F150" s="2" t="inlineStr"/>
       <c r="G150" s="2" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
-      <c r="L150" s="2" t="inlineStr">
-        <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
-        </is>
-      </c>
-      <c r="M150" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N150" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L150" s="2" t="inlineStr"/>
+      <c r="M150" s="2" t="inlineStr"/>
+      <c r="N150" s="2" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B151" s="2" t="inlineStr">
         <is>
-          <t>trees-hedges</t>
+          <t>vehicle-parking</t>
         </is>
       </c>
       <c r="C151" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr"/>
-      <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>parking-spaces</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr">
+        <is>
+          <t>parking-space-type</t>
+        </is>
+      </c>
+      <c r="G151" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="H151" s="2" t="inlineStr"/>
       <c r="I151" s="2" t="inlineStr"/>
       <c r="J151" s="2" t="inlineStr"/>
       <c r="K151" s="2" t="inlineStr"/>
-      <c r="L151" s="2" t="inlineStr"/>
-      <c r="M151" s="2" t="inlineStr"/>
-      <c r="N151" s="2" t="inlineStr"/>
+      <c r="L151" s="2" t="inlineStr">
+        <is>
+          <t>Type of parking space or vehicle type</t>
+        </is>
+      </c>
+      <c r="M151" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N151" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B152" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
       <c r="C152" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -7771,12 +7755,12 @@
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>parking-space-type</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr"/>
@@ -7785,17 +7769,17 @@
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7819,12 +7803,12 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>vehicle-type-other</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr"/>
@@ -7833,17 +7817,17 @@
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N153" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7867,12 +7851,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>total-proposed</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7881,7 +7865,7 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -7915,12 +7899,12 @@
       </c>
       <c r="F155" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>difference-in-spaces</t>
         </is>
       </c>
       <c r="G155" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="H155" s="2" t="inlineStr"/>
@@ -7929,7 +7913,7 @@
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
@@ -7944,64 +7928,56 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="n"/>
-      <c r="B156" s="2" t="n"/>
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G156" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
       <c r="H156" s="2" t="inlineStr"/>
       <c r="I156" s="2" t="inlineStr"/>
       <c r="J156" s="2" t="inlineStr"/>
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B157" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A157" s="2" t="n"/>
+      <c r="B157" s="2" t="n"/>
       <c r="C157" s="2" t="inlineStr">
         <is>
           <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
@@ -8009,12 +7985,12 @@
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="F157" s="2" t="inlineStr"/>
@@ -8025,7 +8001,7 @@
       <c r="K157" s="2" t="inlineStr"/>
       <c r="L157" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M157" s="2" t="inlineStr">
@@ -8034,46 +8010,6 @@
         </is>
       </c>
       <c r="N157" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n"/>
-      <c r="B158" s="2" t="n"/>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr"/>
-      <c r="H158" s="2" t="inlineStr"/>
-      <c r="I158" s="2" t="inlineStr"/>
-      <c r="J158" s="2" t="inlineStr"/>
-      <c r="K158" s="2" t="inlineStr"/>
-      <c r="L158" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M158" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N158" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -8081,68 +8017,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="B53:B55"/>
-    <mergeCell ref="A151"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="A157:A158"/>
-    <mergeCell ref="A56:A62"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A73:A78"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="B49"/>
+    <mergeCell ref="A62:A71"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A97"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="A133:A141"/>
+    <mergeCell ref="B156:B157"/>
+    <mergeCell ref="A55:A61"/>
+    <mergeCell ref="A78:A81"/>
     <mergeCell ref="B51"/>
-    <mergeCell ref="A52"/>
-    <mergeCell ref="B89"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="A115"/>
-    <mergeCell ref="A116:A131"/>
-    <mergeCell ref="B90:B97"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="B104:B113"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="B72:B77"/>
+    <mergeCell ref="A82:A87"/>
+    <mergeCell ref="B99:B103"/>
+    <mergeCell ref="B148:B149"/>
+    <mergeCell ref="A151:A155"/>
+    <mergeCell ref="B114"/>
+    <mergeCell ref="A115:A130"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B132:B133"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B97"/>
+    <mergeCell ref="A52:A54"/>
+    <mergeCell ref="A114"/>
+    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A49"/>
     <mergeCell ref="A51"/>
-    <mergeCell ref="B73:B78"/>
-    <mergeCell ref="A134:A142"/>
-    <mergeCell ref="B47:B49"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B2:B20"/>
+    <mergeCell ref="B82:B87"/>
     <mergeCell ref="A98"/>
-    <mergeCell ref="B115"/>
-    <mergeCell ref="A90:A97"/>
-    <mergeCell ref="B105:B114"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="B52"/>
-    <mergeCell ref="A105:A114"/>
-    <mergeCell ref="B56:B62"/>
-    <mergeCell ref="B116:B131"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B37:B40"/>
-    <mergeCell ref="B143:B148"/>
-    <mergeCell ref="A99"/>
-    <mergeCell ref="B151"/>
-    <mergeCell ref="B134:B142"/>
+    <mergeCell ref="B133:B141"/>
+    <mergeCell ref="B150"/>
+    <mergeCell ref="A88"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="B78:B81"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A150"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A156:A157"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="B115:B130"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="B28:B35"/>
     <mergeCell ref="B98"/>
-    <mergeCell ref="A89"/>
+    <mergeCell ref="B142:B147"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B45"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B83:B88"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="B99"/>
-    <mergeCell ref="A63:A72"/>
-    <mergeCell ref="B41:B46"/>
+    <mergeCell ref="B88"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A104:A113"/>
+    <mergeCell ref="A148:A149"/>
+    <mergeCell ref="A99:A103"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="B89:B96"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B151:B155"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A142:A147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N157"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,22 +1275,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>checksum</t>
+          <t>file-size</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>Checksum</t>
+          <t>File size</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Hash of the file contents used for file validation and checking files have not been tampered with</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,37 +1319,29 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>documents</t>
+          <t>fee</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Documents[]</t>
+          <t>Fee</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>file-size</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>File size</t>
-        </is>
-      </c>
+          <t>Amount</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1359,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1393,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1449,99 +1441,83 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>transactions</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Transactions[]</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="n"/>
-      <c r="B19" s="2" t="n"/>
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>The details of the application payload to be submitted</t>
+          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>application</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>Application</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>fee</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>Fee</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>transactions</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>Transactions[]</t>
-        </is>
-      </c>
+          <t>New or altered vehicle access</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr"/>
+      <c r="G19" s="2" t="inlineStr"/>
+      <c r="H19" s="2" t="inlineStr"/>
+      <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A20" s="2" t="n"/>
+      <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1549,12 +1525,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
+          <t>New or altered pedestrian access</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1565,7 +1541,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1589,28 +1565,36 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr"/>
-      <c r="G21" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -1639,12 +1623,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1653,7 +1637,7 @@
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1668,40 +1652,40 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="n"/>
-      <c r="B23" s="2" t="n"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>Agent contact details</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>agent-contact</t>
+        </is>
+      </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>Name and contact information if an agent is being used.</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>agent-reference</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Agent reference</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr"/>
+      <c r="G23" s="2" t="inlineStr"/>
       <c r="H23" s="2" t="inlineStr"/>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A reference to an agent object</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1716,16 +1700,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>Agent contact details</t>
-        </is>
-      </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>agent-contact</t>
-        </is>
-      </c>
+      <c r="A24" s="2" t="n"/>
+      <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1733,23 +1709,31 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>agent-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>Agent reference</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr"/>
-      <c r="G24" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H24" s="2" t="inlineStr"/>
       <c r="I24" s="2" t="inlineStr"/>
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>A reference to an agent object</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1783,21 +1767,29 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr"/>
-      <c r="I25" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1807,7 +1799,7 @@
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1841,24 +1833,24 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -1868,8 +1860,16 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="n"/>
-      <c r="B27" s="2" t="n"/>
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Agent details</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>agent-details</t>
+        </is>
+      </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1877,63 +1877,47 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>agent</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr"/>
+      <c r="I27" s="2" t="inlineStr"/>
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t>Agent details</t>
-        </is>
-      </c>
-      <c r="B28" s="2" t="inlineStr">
-        <is>
-          <t>agent-details</t>
-        </is>
-      </c>
+      <c r="A28" s="2" t="n"/>
+      <c r="B28" s="2" t="n"/>
       <c r="C28" s="2" t="inlineStr">
         <is>
           <t>Name and contact information if an agent is being used.</t>
@@ -1951,21 +1935,29 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="inlineStr"/>
-      <c r="I28" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -1975,7 +1967,7 @@
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2009,19 +2001,19 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr"/>
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -2031,7 +2023,7 @@
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2065,19 +2057,19 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -2121,19 +2113,19 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2177,19 +2169,19 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2199,7 +2191,7 @@
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2223,29 +2215,21 @@
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>company</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H33" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr"/>
+      <c r="I33" s="2" t="inlineStr"/>
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>The name of a company (that the agent works for)</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2279,12 +2263,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>company</t>
+          <t>user-role</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>Company</t>
+          <t>User role</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr"/>
@@ -2293,12 +2277,12 @@
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>The name of a company (that the agent works for)</t>
+          <t>The role of the named individual. Agent or proxy</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -2308,64 +2292,56 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="n"/>
-      <c r="B35" s="2" t="n"/>
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Applicant contact details</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>applicant-contact</t>
+        </is>
+      </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information if an agent is being used.</t>
+          <t>Telephone number and email address of the applicant.</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
+          <t>applicant-reference</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>agent</t>
-        </is>
-      </c>
-      <c r="F35" s="2" t="inlineStr">
-        <is>
-          <t>user-role</t>
-        </is>
-      </c>
-      <c r="G35" s="2" t="inlineStr">
-        <is>
-          <t>User role</t>
-        </is>
-      </c>
+          <t>Applicant reference</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr"/>
+      <c r="G35" s="2" t="inlineStr"/>
       <c r="H35" s="2" t="inlineStr"/>
       <c r="I35" s="2" t="inlineStr"/>
       <c r="J35" s="2" t="inlineStr"/>
       <c r="K35" s="2" t="inlineStr"/>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>The role of the named individual. Agent or proxy</t>
+          <t>Reference to match contact details to a named individual from the applicant details component</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>Applicant contact details</t>
-        </is>
-      </c>
-      <c r="B36" s="2" t="inlineStr">
-        <is>
-          <t>applicant-contact</t>
-        </is>
-      </c>
+      <c r="A36" s="2" t="n"/>
+      <c r="B36" s="2" t="n"/>
       <c r="C36" s="2" t="inlineStr">
         <is>
           <t>Telephone number and email address of the applicant.</t>
@@ -2373,23 +2349,31 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>applicant-reference</t>
+          <t>contact-details</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>Applicant reference</t>
-        </is>
-      </c>
-      <c r="F36" s="2" t="inlineStr"/>
-      <c r="G36" s="2" t="inlineStr"/>
+          <t>Contact details</t>
+        </is>
+      </c>
+      <c r="F36" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G36" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H36" s="2" t="inlineStr"/>
       <c r="I36" s="2" t="inlineStr"/>
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>Reference to match contact details to a named individual from the applicant details component</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2423,21 +2407,29 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>phone-numbers</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
-        </is>
-      </c>
-      <c r="H37" s="2" t="inlineStr"/>
-      <c r="I37" s="2" t="inlineStr"/>
+          <t>Phone number(s)[]</t>
+        </is>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2447,7 +2439,7 @@
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2481,24 +2473,24 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>contact-priority</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Contact priority</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The priority of a number</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -2508,72 +2500,64 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="n"/>
-      <c r="B39" s="2" t="n"/>
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Applicant details</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>applicant-details</t>
+        </is>
+      </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>Telephone number and email address of the applicant.</t>
+          <t>Name and contact information for the parties making the application.</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>contact-details</t>
+          <t>applicants</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>Contact details</t>
+          <t>Applicants[]</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>phone-numbers</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>Phone number(s)[]</t>
-        </is>
-      </c>
-      <c r="H39" s="2" t="inlineStr">
-        <is>
-          <t>contact-priority</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>Contact priority</t>
-        </is>
-      </c>
+          <t>Reference</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr"/>
+      <c r="I39" s="2" t="inlineStr"/>
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>The priority of a number</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="inlineStr">
-        <is>
-          <t>Applicant details</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="inlineStr">
-        <is>
-          <t>applicant-details</t>
-        </is>
-      </c>
+      <c r="A40" s="2" t="n"/>
+      <c r="B40" s="2" t="n"/>
       <c r="C40" s="2" t="inlineStr">
         <is>
           <t>Name and contact information for the parties making the application.</t>
@@ -2591,21 +2575,29 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>person</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="H40" s="2" t="inlineStr"/>
-      <c r="I40" s="2" t="inlineStr"/>
+          <t>Person</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>Title</t>
+        </is>
+      </c>
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>The title of the individual</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2615,7 +2607,7 @@
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -2649,19 +2641,19 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>first-name</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>Title</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>The title of the individual</t>
+          <t>The first name of the individual</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2671,7 +2663,7 @@
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -2705,19 +2697,19 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>first-name</t>
+          <t>last-name</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>First Name</t>
+          <t>Last Name</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>The first name of the individual</t>
+          <t>The last name of the individual</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
@@ -2761,19 +2753,19 @@
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>last-name</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>Last Name</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>The last name of the individual</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
@@ -2817,19 +2809,19 @@
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M44" s="2" t="inlineStr">
@@ -2839,77 +2831,61 @@
       </c>
       <c r="N44" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n"/>
-      <c r="B45" s="2" t="n"/>
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity, geological and archaeological conservation</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>bio-geo-arch-con</t>
+        </is>
+      </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>Name and contact information for the parties making the application.</t>
+          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>applicants</t>
+          <t>protected-species-impact</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>Applicants[]</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="inlineStr">
-        <is>
-          <t>Person</t>
-        </is>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>postcode</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="inlineStr">
-        <is>
-          <t>Postcode</t>
-        </is>
-      </c>
+          <t>Protected species impact</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr"/>
+      <c r="G45" s="2" t="inlineStr"/>
+      <c r="H45" s="2" t="inlineStr"/>
+      <c r="I45" s="2" t="inlineStr"/>
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Where is there a likelihood of protected and priority species being affected?</t>
         </is>
       </c>
       <c r="M45" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N45" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="inlineStr">
-        <is>
-          <t>Biodiversity, geological and archaeological conservation</t>
-        </is>
-      </c>
-      <c r="B46" s="2" t="inlineStr">
-        <is>
-          <t>bio-geo-arch-con</t>
-        </is>
-      </c>
+      <c r="A46" s="2" t="n"/>
+      <c r="B46" s="2" t="n"/>
       <c r="C46" s="2" t="inlineStr">
         <is>
           <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
@@ -2917,12 +2893,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>protected-species-impact</t>
+          <t>biodiversity-features-impact</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>Protected species impact</t>
+          <t>Biodiversity features impact</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr"/>
@@ -2933,7 +2909,7 @@
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of protected and priority species being affected?</t>
+          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
         </is>
       </c>
       <c r="M46" s="2" t="inlineStr">
@@ -2957,12 +2933,12 @@
       </c>
       <c r="D47" s="2" t="inlineStr">
         <is>
-          <t>biodiversity-features-impact</t>
+          <t>geological-features-impact</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity features impact</t>
+          <t>Geological features impact</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr"/>
@@ -2973,7 +2949,7 @@
       <c r="K47" s="2" t="inlineStr"/>
       <c r="L47" s="2" t="inlineStr">
         <is>
-          <t>Where is there a likelihood of important habitats or biodiversity features being affected?</t>
+          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
         </is>
       </c>
       <c r="M47" s="2" t="inlineStr">
@@ -2988,160 +2964,160 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="n"/>
-      <c r="B48" s="2" t="n"/>
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Biodiversity net gain</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>bng</t>
+        </is>
+      </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>Details of potential impacts to the biodiversity of the site, or any noteable archaeological or geological features.</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>geological-features-impact</t>
-        </is>
-      </c>
-      <c r="E48" s="2" t="inlineStr">
-        <is>
-          <t>Geological features impact</t>
-        </is>
-      </c>
+          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr"/>
+      <c r="E48" s="2" t="inlineStr"/>
       <c r="F48" s="2" t="inlineStr"/>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr"/>
       <c r="I48" s="2" t="inlineStr"/>
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
-      <c r="L48" s="2" t="inlineStr">
-        <is>
-          <t>Where is there a likelihood of features of geological conservation importance being affected?</t>
-        </is>
-      </c>
-      <c r="M48" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N48" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L48" s="2" t="inlineStr"/>
+      <c r="M48" s="2" t="inlineStr"/>
+      <c r="N48" s="2" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>Biodiversity net gain</t>
+          <t>Checklist</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>bng</t>
+          <t>checklist</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>How any natural habitats on the development site will be improved by the proposed works.</t>
-        </is>
-      </c>
-      <c r="D49" s="2" t="inlineStr"/>
-      <c r="E49" s="2" t="inlineStr"/>
+          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>national-req-types</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>National requirement types[]</t>
+        </is>
+      </c>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr"/>
       <c r="H49" s="2" t="inlineStr"/>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
-      <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="inlineStr"/>
-      <c r="N49" s="2" t="inlineStr"/>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>List of the document types required for the given application type</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>Checklist</t>
+          <t>Conflict of interest</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>checklist</t>
+          <t>conflict-of-interest</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>Checking whether all the requirements of the form have been met, such as proof of payment or supporting documentation.</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="inlineStr">
-        <is>
-          <t>national-req-types</t>
-        </is>
-      </c>
-      <c r="E50" s="2" t="inlineStr">
-        <is>
-          <t>National requirement types[]</t>
-        </is>
-      </c>
+          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr"/>
+      <c r="E50" s="2" t="inlineStr"/>
       <c r="F50" s="2" t="inlineStr"/>
       <c r="G50" s="2" t="inlineStr"/>
       <c r="H50" s="2" t="inlineStr"/>
       <c r="I50" s="2" t="inlineStr"/>
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
-      <c r="L50" s="2" t="inlineStr">
-        <is>
-          <t>List of the document types required for the given application type</t>
-        </is>
-      </c>
-      <c r="M50" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N50" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L50" s="2" t="inlineStr"/>
+      <c r="M50" s="2" t="inlineStr"/>
+      <c r="N50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>Conflict of interest</t>
+          <t>Declaration</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>conflict-of-interest</t>
+          <t>declaration</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr">
         <is>
-          <t>Details of any conflict of interest that may exist between the applicant and planning authority.</t>
-        </is>
-      </c>
-      <c r="D51" s="2" t="inlineStr"/>
-      <c r="E51" s="2" t="inlineStr"/>
+          <t>Signed and dated verification of the application's accuracy.</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
       <c r="F51" s="2" t="inlineStr"/>
       <c r="G51" s="2" t="inlineStr"/>
       <c r="H51" s="2" t="inlineStr"/>
       <c r="I51" s="2" t="inlineStr"/>
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
-      <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="inlineStr"/>
-      <c r="N51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>A name of a person</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="inlineStr">
-        <is>
-          <t>Declaration</t>
-        </is>
-      </c>
-      <c r="B52" s="2" t="inlineStr">
-        <is>
-          <t>declaration</t>
-        </is>
-      </c>
+      <c r="A52" s="2" t="n"/>
+      <c r="B52" s="2" t="n"/>
       <c r="C52" s="2" t="inlineStr">
         <is>
           <t>Signed and dated verification of the application's accuracy.</t>
@@ -3149,12 +3125,12 @@
       </c>
       <c r="D52" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>declaration-confirmed</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Declaration confirmed</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr"/>
@@ -3165,12 +3141,12 @@
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr">
         <is>
-          <t>A name of a person</t>
+          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
         </is>
       </c>
       <c r="M52" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N52" s="2" t="inlineStr">
@@ -3189,12 +3165,12 @@
       </c>
       <c r="D53" s="2" t="inlineStr">
         <is>
-          <t>declaration-confirmed</t>
+          <t>declaration-date</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>Declaration confirmed</t>
+          <t>Declaration date</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr"/>
@@ -3205,12 +3181,12 @@
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr">
         <is>
-          <t>Confirms the applicant or agent has reviewed and validated the information provided in the application</t>
+          <t>The date the declaration was made</t>
         </is>
       </c>
       <c r="M53" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N53" s="2" t="inlineStr">
@@ -3220,37 +3196,53 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="n"/>
-      <c r="B54" s="2" t="n"/>
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Employment</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>employment</t>
+        </is>
+      </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>Signed and dated verification of the application's accuracy.</t>
+          <t>How the proposed development will impact existing and proposed employee numbers</t>
         </is>
       </c>
       <c r="D54" s="2" t="inlineStr">
         <is>
-          <t>declaration-date</t>
+          <t>existing-employees</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>Declaration date</t>
-        </is>
-      </c>
-      <c r="F54" s="2" t="inlineStr"/>
-      <c r="G54" s="2" t="inlineStr"/>
+          <t>Existing employees</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>full-time</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>Full-time</t>
+        </is>
+      </c>
       <c r="H54" s="2" t="inlineStr"/>
       <c r="I54" s="2" t="inlineStr"/>
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr">
         <is>
-          <t>The date the declaration was made</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M54" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N54" s="2" t="inlineStr">
@@ -3260,16 +3252,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="inlineStr">
-        <is>
-          <t>Employment</t>
-        </is>
-      </c>
-      <c r="B55" s="2" t="inlineStr">
-        <is>
-          <t>employment</t>
-        </is>
-      </c>
+      <c r="A55" s="2" t="n"/>
+      <c r="B55" s="2" t="n"/>
       <c r="C55" s="2" t="inlineStr">
         <is>
           <t>How the proposed development will impact existing and proposed employee numbers</t>
@@ -3287,12 +3271,12 @@
       </c>
       <c r="F55" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G55" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H55" s="2" t="inlineStr"/>
@@ -3301,7 +3285,7 @@
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M55" s="2" t="inlineStr">
@@ -3335,12 +3319,12 @@
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G56" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H56" s="2" t="inlineStr"/>
@@ -3349,7 +3333,7 @@
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M56" s="2" t="inlineStr">
@@ -3373,22 +3357,22 @@
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t>existing-employees</t>
+          <t>proposed-employees</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>Existing employees</t>
+          <t>Proposed employees</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>total-fte</t>
+          <t>full-time</t>
         </is>
       </c>
       <c r="G57" s="2" t="inlineStr">
         <is>
-          <t>Total FTE</t>
+          <t>Full-time</t>
         </is>
       </c>
       <c r="H57" s="2" t="inlineStr"/>
@@ -3397,7 +3381,7 @@
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Number of full-time employees</t>
         </is>
       </c>
       <c r="M57" s="2" t="inlineStr">
@@ -3431,12 +3415,12 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>full-time</t>
+          <t>part-time</t>
         </is>
       </c>
       <c r="G58" s="2" t="inlineStr">
         <is>
-          <t>Full-time</t>
+          <t>Part-time</t>
         </is>
       </c>
       <c r="H58" s="2" t="inlineStr"/>
@@ -3445,7 +3429,7 @@
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Number of full-time employees</t>
+          <t>Number of part-time employees</t>
         </is>
       </c>
       <c r="M58" s="2" t="inlineStr">
@@ -3479,12 +3463,12 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>part-time</t>
+          <t>total-fte</t>
         </is>
       </c>
       <c r="G59" s="2" t="inlineStr">
         <is>
-          <t>Part-time</t>
+          <t>Total FTE</t>
         </is>
       </c>
       <c r="H59" s="2" t="inlineStr"/>
@@ -3493,7 +3477,7 @@
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Number of part-time employees</t>
+          <t>Total full-time equivalent (FTE)</t>
         </is>
       </c>
       <c r="M59" s="2" t="inlineStr">
@@ -3517,95 +3501,95 @@
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>proposed-employees</t>
+          <t>employment-impact</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Proposed employees</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr">
-        <is>
-          <t>total-fte</t>
-        </is>
-      </c>
-      <c r="G60" s="2" t="inlineStr">
-        <is>
-          <t>Total FTE</t>
-        </is>
-      </c>
+          <t>Employment impact</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Total full-time equivalent (FTE)</t>
+          <t>Summary of net employment change (gain/loss)</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="n"/>
-      <c r="B61" s="2" t="n"/>
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C61" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D61" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H61" s="2" t="inlineStr"/>
       <c r="I61" s="2" t="inlineStr"/>
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B62" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A62" s="2" t="n"/>
+      <c r="B62" s="2" t="n"/>
       <c r="C62" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -3623,12 +3607,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3637,17 +3621,17 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3671,12 +3655,12 @@
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G63" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H63" s="2" t="inlineStr"/>
@@ -3685,7 +3669,7 @@
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
@@ -3695,7 +3679,7 @@
       </c>
       <c r="N63" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3709,36 +3693,28 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F64" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G64" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F64" s="2" t="inlineStr"/>
+      <c r="G64" s="2" t="inlineStr"/>
       <c r="H64" s="2" t="inlineStr"/>
       <c r="I64" s="2" t="inlineStr"/>
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
@@ -3757,12 +3733,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3773,17 +3749,17 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3797,12 +3773,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3813,12 +3789,12 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
@@ -3837,12 +3813,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3853,17 +3829,17 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N67" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3877,12 +3853,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3893,7 +3869,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3917,12 +3893,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -3933,7 +3909,7 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
@@ -3957,12 +3933,12 @@
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -3973,36 +3949,44 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="n"/>
-      <c r="B71" s="2" t="n"/>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C71" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4013,31 +3997,23 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A72" s="2" t="n"/>
+      <c r="B72" s="2" t="n"/>
       <c r="C72" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -4045,12 +4021,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4061,17 +4037,17 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4085,12 +4061,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4101,12 +4077,12 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
@@ -4125,12 +4101,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4141,17 +4117,17 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N74" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4165,12 +4141,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4181,7 +4157,7 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
@@ -4205,12 +4181,12 @@
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4221,12 +4197,12 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4236,21 +4212,29 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="n"/>
-      <c r="B77" s="2" t="n"/>
+      <c r="A77" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B77" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C77" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4261,12 +4245,12 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
@@ -4276,16 +4260,8 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B78" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A78" s="2" t="n"/>
+      <c r="B78" s="2" t="n"/>
       <c r="C78" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -4293,12 +4269,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4309,17 +4285,17 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4333,12 +4309,12 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F79" s="2" t="inlineStr"/>
@@ -4349,17 +4325,17 @@
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4373,12 +4349,12 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>drainage-system-details</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
+          <t>Drainage system details</t>
         </is>
       </c>
       <c r="F80" s="2" t="inlineStr"/>
@@ -4389,36 +4365,44 @@
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>Details of the drawings/plans that show the existing drainage system</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="n"/>
-      <c r="B81" s="2" t="n"/>
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
+          <t>What hazardous substances may be used as part of the development</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>involves-hazardous-substances</t>
         </is>
       </c>
       <c r="E81" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
+          <t>Involves hazardous substances</t>
         </is>
       </c>
       <c r="F81" s="2" t="inlineStr"/>
@@ -4429,31 +4413,23 @@
       <c r="K81" s="2" t="inlineStr"/>
       <c r="L81" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>Indicates if hazardous substances are involved in the proposal</t>
         </is>
       </c>
       <c r="M81" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N81" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substances</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>haz-substances</t>
-        </is>
-      </c>
+      <c r="A82" s="2" t="n"/>
+      <c r="B82" s="2" t="n"/>
       <c r="C82" s="2" t="inlineStr">
         <is>
           <t>What hazardous substances may be used as part of the development</t>
@@ -4461,23 +4437,31 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>involves-hazardous-substances</t>
+          <t>substance-types</t>
         </is>
       </c>
       <c r="E82" s="2" t="inlineStr">
         <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
+          <t>Substance types[]</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>hazardous-substance-type</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substance type</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
       <c r="L82" s="2" t="inlineStr">
         <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
+          <t>Reference of hazardous substance type from predefined list</t>
         </is>
       </c>
       <c r="M82" s="2" t="inlineStr">
@@ -4511,12 +4495,12 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-type</t>
+          <t>hazardous-substance-other</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance type</t>
+          <t>Hazardous substance other</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -4525,17 +4509,17 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>Reference of hazardous substance type from predefined list</t>
+          <t>The specific name of the hazardous substance if other is selected</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4559,12 +4543,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4573,17 +4557,17 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4597,36 +4581,28 @@
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>hazardous-sub-consent-req</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="G85" s="2" t="inlineStr">
-        <is>
-          <t>Amount</t>
-        </is>
-      </c>
+          <t>Hazardous substance consent required</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr"/>
+      <c r="G85" s="2" t="inlineStr"/>
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4645,12 +4621,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>hazardous-sub-consent-details</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
+          <t>Hazardous substance consent details</t>
         </is>
       </c>
       <c r="F86" s="2" t="inlineStr"/>
@@ -4661,99 +4637,107 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Details of hazardous substance consent requirements</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="n"/>
-      <c r="B87" s="2" t="n"/>
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr">
-        <is>
-          <t>hazardous-sub-consent-details</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr"/>
+      <c r="E87" s="2" t="inlineStr"/>
       <c r="F87" s="2" t="inlineStr"/>
       <c r="G87" s="2" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
-      <c r="L87" s="2" t="inlineStr">
-        <is>
-          <t>Details of hazardous substance consent requirements</t>
-        </is>
-      </c>
-      <c r="M87" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N87" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L87" s="2" t="inlineStr"/>
+      <c r="M87" s="2" t="inlineStr"/>
+      <c r="N87" s="2" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>hrs-operation</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="D88" s="2" t="inlineStr"/>
-      <c r="E88" s="2" t="inlineStr"/>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>building-elements</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>building-element-type</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
-      <c r="L88" s="2" t="inlineStr"/>
-      <c r="M88" s="2" t="inlineStr"/>
-      <c r="N88" s="2" t="inlineStr"/>
+      <c r="L88" s="2" t="inlineStr">
+        <is>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+        </is>
+      </c>
+      <c r="M88" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N88" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B89" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A89" s="2" t="n"/>
+      <c r="B89" s="2" t="n"/>
       <c r="C89" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -4771,12 +4755,12 @@
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -4785,17 +4769,17 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4819,12 +4803,12 @@
       </c>
       <c r="F90" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G90" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H90" s="2" t="inlineStr"/>
@@ -4833,7 +4817,7 @@
       <c r="K90" s="2" t="inlineStr"/>
       <c r="L90" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M90" s="2" t="inlineStr">
@@ -4867,12 +4851,12 @@
       </c>
       <c r="F91" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G91" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H91" s="2" t="inlineStr"/>
@@ -4881,12 +4865,12 @@
       <c r="K91" s="2" t="inlineStr"/>
       <c r="L91" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M91" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N91" s="2" t="inlineStr">
@@ -4915,12 +4899,12 @@
       </c>
       <c r="F92" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G92" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H92" s="2" t="inlineStr"/>
@@ -4929,7 +4913,7 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -4953,31 +4937,23 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G93" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F93" s="2" t="inlineStr"/>
+      <c r="G93" s="2" t="inlineStr"/>
       <c r="H93" s="2" t="inlineStr"/>
       <c r="I93" s="2" t="inlineStr"/>
       <c r="J93" s="2" t="inlineStr"/>
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -4987,7 +4963,7 @@
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5001,28 +4977,36 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr"/>
-      <c r="G94" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N94" s="2" t="inlineStr">
@@ -5051,12 +5035,12 @@
       </c>
       <c r="F95" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>name</t>
         </is>
       </c>
       <c r="G95" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="H95" s="2" t="inlineStr"/>
@@ -5065,7 +5049,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>A name for the document. For example, The Site Plan</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5080,67 +5064,47 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G96" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr"/>
+      <c r="E96" s="2" t="inlineStr"/>
+      <c r="F96" s="2" t="inlineStr"/>
+      <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
-      <c r="L96" s="2" t="inlineStr">
-        <is>
-          <t>A name for the document. For example, The Site Plan</t>
-        </is>
-      </c>
-      <c r="M96" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N96" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L96" s="2" t="inlineStr"/>
+      <c r="M96" s="2" t="inlineStr"/>
+      <c r="N96" s="2" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Non residential floorspace</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>non-res-floorspace</t>
+          <t>ownership-certs</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr"/>
@@ -5158,42 +5122,54 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Pre-application advice</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>ownership-certs</t>
+          <t>pre-app-advice</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr"/>
-      <c r="E98" s="2" t="inlineStr"/>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>advice-sought</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
-      <c r="L98" s="2" t="inlineStr"/>
-      <c r="M98" s="2" t="inlineStr"/>
-      <c r="N98" s="2" t="inlineStr"/>
+      <c r="L98" s="2" t="inlineStr">
+        <is>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
+        </is>
+      </c>
+      <c r="M98" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N98" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B99" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A99" s="2" t="n"/>
+      <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -5201,12 +5177,12 @@
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F99" s="2" t="inlineStr"/>
@@ -5217,17 +5193,17 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5241,12 +5217,12 @@
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F100" s="2" t="inlineStr"/>
@@ -5257,7 +5233,7 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
@@ -5281,12 +5257,12 @@
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F101" s="2" t="inlineStr"/>
@@ -5297,7 +5273,7 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
@@ -5321,12 +5297,12 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F102" s="2" t="inlineStr"/>
@@ -5337,7 +5313,7 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
@@ -5352,21 +5328,29 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="n"/>
-      <c r="B103" s="2" t="n"/>
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C103" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr"/>
@@ -5377,7 +5361,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5387,21 +5371,13 @@
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B104" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A104" s="2" t="n"/>
+      <c r="B104" s="2" t="n"/>
       <c r="C104" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -5409,12 +5385,12 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr"/>
@@ -5425,12 +5401,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5449,28 +5425,36 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr"/>
-      <c r="G105" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F105" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H105" s="2" t="inlineStr"/>
       <c r="I105" s="2" t="inlineStr"/>
       <c r="J105" s="2" t="inlineStr"/>
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
@@ -5499,12 +5483,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5513,17 +5497,17 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5547,12 +5531,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5561,12 +5545,12 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N107" s="2" t="inlineStr">
@@ -5595,12 +5579,12 @@
       </c>
       <c r="F108" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G108" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H108" s="2" t="inlineStr"/>
@@ -5609,7 +5593,7 @@
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
@@ -5633,22 +5617,22 @@
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5657,7 +5641,7 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
@@ -5691,12 +5675,12 @@
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5705,7 +5689,7 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
@@ -5739,12 +5723,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -5753,7 +5737,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5787,12 +5771,12 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H112" s="2" t="inlineStr"/>
@@ -5801,7 +5785,7 @@
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
@@ -5816,92 +5800,84 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="n"/>
-      <c r="B113" s="2" t="n"/>
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr">
-        <is>
-          <t>waste-streams</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G113" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr"/>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
       <c r="H113" s="2" t="inlineStr"/>
       <c r="I113" s="2" t="inlineStr"/>
       <c r="J113" s="2" t="inlineStr"/>
       <c r="K113" s="2" t="inlineStr"/>
-      <c r="L113" s="2" t="inlineStr">
-        <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="M113" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N113" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L113" s="2" t="inlineStr"/>
+      <c r="M113" s="2" t="inlineStr"/>
+      <c r="N113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>Description of the proposal</t>
+          <t>Residential units</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>proposal-details</t>
+          <t>res-units</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr"/>
-      <c r="E114" s="2" t="inlineStr"/>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>will-residential-units-change</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit change</t>
+        </is>
+      </c>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
-      <c r="L114" s="2" t="inlineStr"/>
-      <c r="M114" s="2" t="inlineStr"/>
-      <c r="N114" s="2" t="inlineStr"/>
+      <c r="L114" s="2" t="inlineStr">
+        <is>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
+        </is>
+      </c>
+      <c r="M114" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N114" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B115" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A115" s="2" t="n"/>
+      <c r="B115" s="2" t="n"/>
       <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -5909,28 +5885,36 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr"/>
-      <c r="G115" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F115" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G115" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
@@ -5959,12 +5943,12 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr"/>
@@ -5973,7 +5957,7 @@
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6007,26 +5991,34 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H117" s="2" t="inlineStr"/>
-      <c r="I117" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H117" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I117" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
@@ -6065,19 +6057,27 @@
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6131,27 +6131,27 @@
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6195,17 +6195,17 @@
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6215,7 +6215,7 @@
       </c>
       <c r="N120" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6249,27 +6249,19 @@
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr"/>
+      <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6279,7 +6271,7 @@
       </c>
       <c r="N121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6303,39 +6295,39 @@
       </c>
       <c r="F122" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G122" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6369,19 +6361,27 @@
       </c>
       <c r="H123" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I123" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J123" s="2" t="inlineStr"/>
-      <c r="K123" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J123" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K123" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
@@ -6435,27 +6435,27 @@
       </c>
       <c r="J124" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K124" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N124" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6499,17 +6499,17 @@
       </c>
       <c r="J125" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K125" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
@@ -6519,7 +6519,7 @@
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6553,27 +6553,19 @@
       </c>
       <c r="H126" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I126" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J126" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K126" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J126" s="2" t="inlineStr"/>
+      <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
@@ -6583,7 +6575,7 @@
       </c>
       <c r="N126" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6597,39 +6589,23 @@
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
@@ -6639,7 +6615,7 @@
       </c>
       <c r="N127" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6653,12 +6629,12 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F128" s="2" t="inlineStr"/>
@@ -6669,7 +6645,7 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
@@ -6693,12 +6669,12 @@
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F129" s="2" t="inlineStr"/>
@@ -6709,7 +6685,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6724,21 +6700,29 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="n"/>
-      <c r="B130" s="2" t="n"/>
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F130" s="2" t="inlineStr"/>
@@ -6749,7 +6733,7 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6764,16 +6748,8 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B131" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A131" s="2" t="n"/>
+      <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -6781,12 +6757,12 @@
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F131" s="2" t="inlineStr"/>
@@ -6797,52 +6773,68 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N131" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="n"/>
-      <c r="B132" s="2" t="n"/>
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F132" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G132" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H132" s="2" t="inlineStr"/>
       <c r="I132" s="2" t="inlineStr"/>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N132" s="2" t="inlineStr">
@@ -6852,16 +6844,8 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B133" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A133" s="2" t="n"/>
+      <c r="B133" s="2" t="n"/>
       <c r="C133" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6879,12 +6863,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -6893,12 +6877,12 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
@@ -6927,12 +6911,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -6941,7 +6925,7 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
@@ -6975,12 +6959,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -6989,12 +6973,12 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
@@ -7023,12 +7007,12 @@
       </c>
       <c r="F136" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G136" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H136" s="2" t="inlineStr"/>
@@ -7037,7 +7021,7 @@
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
@@ -7071,12 +7055,12 @@
       </c>
       <c r="F137" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G137" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H137" s="2" t="inlineStr"/>
@@ -7085,7 +7069,7 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
@@ -7119,12 +7103,12 @@
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7133,7 +7117,7 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
@@ -7167,12 +7151,12 @@
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7181,12 +7165,12 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N139" s="2" t="inlineStr">
@@ -7215,12 +7199,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7229,7 +7213,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7244,64 +7228,56 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="n"/>
-      <c r="B141" s="2" t="n"/>
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G141" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr"/>
+      <c r="G141" s="2" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr"/>
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B142" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A142" s="2" t="n"/>
+      <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -7309,12 +7285,12 @@
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7325,12 +7301,12 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
@@ -7349,12 +7325,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7365,17 +7341,17 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7389,23 +7365,31 @@
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr"/>
-      <c r="G144" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G144" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H144" s="2" t="inlineStr"/>
       <c r="I144" s="2" t="inlineStr"/>
       <c r="J144" s="2" t="inlineStr"/>
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
@@ -7415,7 +7399,7 @@
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7439,12 +7423,12 @@
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -7453,7 +7437,7 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7487,12 +7471,12 @@
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -7501,7 +7485,7 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
@@ -7516,45 +7500,45 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="n"/>
-      <c r="B147" s="2" t="n"/>
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G147" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr"/>
+      <c r="G147" s="2" t="inlineStr"/>
       <c r="H147" s="2" t="inlineStr"/>
       <c r="I147" s="2" t="inlineStr"/>
       <c r="J147" s="2" t="inlineStr"/>
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
@@ -7564,16 +7548,8 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B148" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A148" s="2" t="n"/>
+      <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -7581,12 +7557,12 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F148" s="2" t="inlineStr"/>
@@ -7597,99 +7573,107 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="n"/>
-      <c r="B149" s="2" t="n"/>
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr"/>
+      <c r="E149" s="2" t="inlineStr"/>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
-      <c r="L149" s="2" t="inlineStr">
-        <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
-        </is>
-      </c>
-      <c r="M149" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N149" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L149" s="2" t="inlineStr"/>
+      <c r="M149" s="2" t="inlineStr"/>
+      <c r="N149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>trees-hedges</t>
+          <t>vehicle-parking</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr"/>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>parking-spaces</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="inlineStr">
+        <is>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>parking-space-type</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
-      <c r="L150" s="2" t="inlineStr"/>
-      <c r="M150" s="2" t="inlineStr"/>
-      <c r="N150" s="2" t="inlineStr"/>
+      <c r="L150" s="2" t="inlineStr">
+        <is>
+          <t>Type of parking space or vehicle type</t>
+        </is>
+      </c>
+      <c r="M150" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N150" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -7707,12 +7691,12 @@
       </c>
       <c r="F151" s="2" t="inlineStr">
         <is>
-          <t>parking-space-type</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G151" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H151" s="2" t="inlineStr"/>
@@ -7721,17 +7705,17 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7755,12 +7739,12 @@
       </c>
       <c r="F152" s="2" t="inlineStr">
         <is>
-          <t>vehicle-type-other</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G152" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H152" s="2" t="inlineStr"/>
@@ -7769,17 +7753,17 @@
       <c r="K152" s="2" t="inlineStr"/>
       <c r="L152" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M152" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N152" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7803,12 +7787,12 @@
       </c>
       <c r="F153" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>total-proposed</t>
         </is>
       </c>
       <c r="G153" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="H153" s="2" t="inlineStr"/>
@@ -7817,7 +7801,7 @@
       <c r="K153" s="2" t="inlineStr"/>
       <c r="L153" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M153" s="2" t="inlineStr">
@@ -7851,12 +7835,12 @@
       </c>
       <c r="F154" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>difference-in-spaces</t>
         </is>
       </c>
       <c r="G154" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="H154" s="2" t="inlineStr"/>
@@ -7865,7 +7849,7 @@
       <c r="K154" s="2" t="inlineStr"/>
       <c r="L154" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M154" s="2" t="inlineStr">
@@ -7880,64 +7864,56 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="n"/>
-      <c r="B155" s="2" t="n"/>
+      <c r="A155" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G155" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="F155" s="2" t="inlineStr"/>
+      <c r="G155" s="2" t="inlineStr"/>
       <c r="H155" s="2" t="inlineStr"/>
       <c r="I155" s="2" t="inlineStr"/>
       <c r="J155" s="2" t="inlineStr"/>
       <c r="K155" s="2" t="inlineStr"/>
       <c r="L155" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="M155" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N155" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A156" s="2" t="n"/>
+      <c r="B156" s="2" t="n"/>
       <c r="C156" s="2" t="inlineStr">
         <is>
           <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
@@ -7945,12 +7921,12 @@
       </c>
       <c r="D156" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E156" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="F156" s="2" t="inlineStr"/>
@@ -7961,7 +7937,7 @@
       <c r="K156" s="2" t="inlineStr"/>
       <c r="L156" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M156" s="2" t="inlineStr">
@@ -7970,46 +7946,6 @@
         </is>
       </c>
       <c r="N156" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n"/>
-      <c r="B157" s="2" t="n"/>
-      <c r="C157" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D157" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr"/>
-      <c r="G157" s="2" t="inlineStr"/>
-      <c r="H157" s="2" t="inlineStr"/>
-      <c r="I157" s="2" t="inlineStr"/>
-      <c r="J157" s="2" t="inlineStr"/>
-      <c r="K157" s="2" t="inlineStr"/>
-      <c r="L157" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M157" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N157" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -8017,68 +7953,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="A36:A39"/>
     <mergeCell ref="B49"/>
-    <mergeCell ref="A62:A71"/>
-    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="B141:B146"/>
     <mergeCell ref="A97"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="A133:A141"/>
-    <mergeCell ref="B156:B157"/>
-    <mergeCell ref="A55:A61"/>
-    <mergeCell ref="A78:A81"/>
-    <mergeCell ref="B51"/>
-    <mergeCell ref="B104:B113"/>
-    <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B72:B77"/>
-    <mergeCell ref="A82:A87"/>
-    <mergeCell ref="B99:B103"/>
-    <mergeCell ref="B148:B149"/>
-    <mergeCell ref="A151:A155"/>
-    <mergeCell ref="B114"/>
-    <mergeCell ref="A115:A130"/>
+    <mergeCell ref="B155:B156"/>
+    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="A39:A44"/>
+    <mergeCell ref="B130:B131"/>
+    <mergeCell ref="A96"/>
+    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="B77:B80"/>
+    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B2:B18"/>
+    <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="B62:B71"/>
+    <mergeCell ref="B113"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B97"/>
-    <mergeCell ref="A52:A54"/>
-    <mergeCell ref="A114"/>
-    <mergeCell ref="B55:B61"/>
+    <mergeCell ref="A48"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="A88:A95"/>
+    <mergeCell ref="B114:B129"/>
+    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="B39:B44"/>
     <mergeCell ref="A49"/>
-    <mergeCell ref="A51"/>
-    <mergeCell ref="B82:B87"/>
-    <mergeCell ref="A98"/>
-    <mergeCell ref="B133:B141"/>
-    <mergeCell ref="B150"/>
-    <mergeCell ref="A88"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="B78:B81"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A150"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A156:A157"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="B115:B130"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="B28:B35"/>
-    <mergeCell ref="B98"/>
-    <mergeCell ref="B142:B147"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="A103:A112"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B54:B60"/>
+    <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B149"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="B96"/>
+    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="A51:A53"/>
+    <mergeCell ref="B48"/>
+    <mergeCell ref="B88:B95"/>
+    <mergeCell ref="A87"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="A2:A18"/>
+    <mergeCell ref="A98:A102"/>
+    <mergeCell ref="B150:B154"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A155:A156"/>
+    <mergeCell ref="A132:A140"/>
+    <mergeCell ref="A149"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B88"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A104:A113"/>
-    <mergeCell ref="A148:A149"/>
-    <mergeCell ref="A99:A103"/>
-    <mergeCell ref="A72:A77"/>
-    <mergeCell ref="B89:B96"/>
-    <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B151:B155"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A35"/>
-    <mergeCell ref="A142:A147"/>
+    <mergeCell ref="B103:B112"/>
+    <mergeCell ref="A81:A86"/>
+    <mergeCell ref="B87"/>
+    <mergeCell ref="A113"/>
+    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B35:B38"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N156"/>
+  <dimension ref="A1:N150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1073,37 +1073,29 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>uploaded-date</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>File</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>base64-content</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>Base64</t>
-        </is>
-      </c>
+          <t>Uploaded date</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr"/>
+      <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>Base64-encoded content of the file for inline file uploads</t>
+          <t>The date the document was uploaded to the application</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1147,17 +1139,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>filename</t>
+          <t>base64-content</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>Filename</t>
+          <t>Base64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>Name of the file being uploaded</t>
+          <t>Base64-encoded content of the file for inline file uploads</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1167,7 +1159,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1203,17 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>mime-type</t>
+          <t>filename</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>MIME type</t>
+          <t>Filename</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>The file's MIME type such as application/pdf or image/jpeg</t>
+          <t>Name of the file being uploaded</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -1231,7 +1223,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -1275,22 +1267,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>file-size</t>
+          <t>mime-type</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>File size</t>
+          <t>MIME type</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>Size of the file in bytes that can be used to enforce limits</t>
+          <t>The file's MIME type such as application/pdf or image/jpeg</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1319,29 +1311,37 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>fee</t>
+          <t>documents</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>Fee</t>
+          <t>Documents[]</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>file</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+          <t>File</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>file-size</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>File size</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Size of the file in bytes that can be used to enforce limits</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -1385,19 +1385,19 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>amount-paid</t>
+          <t>amount</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>Amount paid</t>
+          <t>Amount</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr"/>
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>The amount paid towards the application fee</t>
+          <t>The total amount due for the application fee</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1441,83 +1441,99 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>transactions</t>
+          <t>amount-paid</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>Transactions[]</t>
+          <t>Amount paid</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr"/>
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>References to payments or financial transactions related to this application</t>
+          <t>The amount paid towards the application fee</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>Access and rights of way</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>access-rights-of-way</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="n"/>
+      <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
+          <t>The details of the application payload to be submitted</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>new-altered-vehicle</t>
+          <t>application</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>New or altered vehicle access</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr"/>
-      <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr"/>
-      <c r="I19" s="2" t="inlineStr"/>
+          <t>Application</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>fee</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>Fee</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>transactions</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>Transactions[]</t>
+        </is>
+      </c>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
+          <t>References to payments or financial transactions related to this application</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="n"/>
-      <c r="B20" s="2" t="n"/>
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Access and rights of way</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>access-rights-of-way</t>
+        </is>
+      </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
           <t>Details of any changes the proposed development would make to existing access arrangements or public rights of way</t>
@@ -1525,12 +1541,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>new-altered-pedestrian</t>
+          <t>new-altered-vehicle</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>New or altered pedestrian access</t>
+          <t>New or altered vehicle access</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr"/>
@@ -1541,7 +1557,7 @@
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
+          <t>Is a new or altered vehicle access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1565,36 +1581,28 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>new-altered-pedestrian</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>New or altered pedestrian access</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr"/>
+      <c r="G21" s="2" t="inlineStr"/>
       <c r="H21" s="2" t="inlineStr"/>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Is a new or altered pedestrian access proposed to/from the public highway</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -1623,12 +1631,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr"/>
@@ -1637,7 +1645,7 @@
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -4392,115 +4400,83 @@
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
-      <c r="D81" s="2" t="inlineStr">
-        <is>
-          <t>involves-hazardous-substances</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>Involves hazardous substances</t>
-        </is>
-      </c>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr"/>
+      <c r="E81" s="2" t="inlineStr"/>
       <c r="F81" s="2" t="inlineStr"/>
       <c r="G81" s="2" t="inlineStr"/>
       <c r="H81" s="2" t="inlineStr"/>
       <c r="I81" s="2" t="inlineStr"/>
       <c r="J81" s="2" t="inlineStr"/>
       <c r="K81" s="2" t="inlineStr"/>
-      <c r="L81" s="2" t="inlineStr">
-        <is>
-          <t>Indicates if hazardous substances are involved in the proposal</t>
-        </is>
-      </c>
-      <c r="M81" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N81" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L81" s="2" t="inlineStr"/>
+      <c r="M81" s="2" t="inlineStr"/>
+      <c r="N81" s="2" t="inlineStr"/>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="n"/>
-      <c r="B82" s="2" t="n"/>
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Hours of operation</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>hrs-operation</t>
+        </is>
+      </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>substance-types</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>Substance types[]</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>hazardous-substance-type</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous substance type</t>
-        </is>
-      </c>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr"/>
+      <c r="E82" s="2" t="inlineStr"/>
+      <c r="F82" s="2" t="inlineStr"/>
+      <c r="G82" s="2" t="inlineStr"/>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
-      <c r="L82" s="2" t="inlineStr">
-        <is>
-          <t>Reference of hazardous substance type from predefined list</t>
-        </is>
-      </c>
-      <c r="M82" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N82" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L82" s="2" t="inlineStr"/>
+      <c r="M82" s="2" t="inlineStr"/>
+      <c r="N82" s="2" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="n"/>
-      <c r="B83" s="2" t="n"/>
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>Materials</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>materials</t>
+        </is>
+      </c>
       <c r="C83" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D83" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E83" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>hazardous-substance-other</t>
+          <t>building-element-type</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance other</t>
+          <t>Building element type</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -4509,17 +4485,17 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>The specific name of the hazardous substance if other is selected</t>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4528,27 +4504,27 @@
       <c r="B84" s="2" t="n"/>
       <c r="C84" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>substance-types</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E84" s="2" t="inlineStr">
         <is>
-          <t>Substance types[]</t>
+          <t>Building elements[]</t>
         </is>
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>amount</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4557,17 +4533,17 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>The total amount due for the application fee</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N84" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4576,38 +4552,46 @@
       <c r="B85" s="2" t="n"/>
       <c r="C85" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D85" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-req</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E85" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent required</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr"/>
-      <c r="G85" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F85" s="2" t="inlineStr">
+        <is>
+          <t>proposed-materials</t>
+        </is>
+      </c>
+      <c r="G85" s="2" t="inlineStr">
+        <is>
+          <t>Proposed materials</t>
+        </is>
+      </c>
       <c r="H85" s="2" t="inlineStr"/>
       <c r="I85" s="2" t="inlineStr"/>
       <c r="J85" s="2" t="inlineStr"/>
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the use or storage of any substances requiring hazardous substances consent</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4616,33 +4600,41 @@
       <c r="B86" s="2" t="n"/>
       <c r="C86" s="2" t="inlineStr">
         <is>
-          <t>What hazardous substances may be used as part of the development</t>
+          <t>What materials are being used for the proposed development</t>
         </is>
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>hazardous-sub-consent-details</t>
+          <t>building-elements</t>
         </is>
       </c>
       <c r="E86" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substance consent details</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr"/>
-      <c r="G86" s="2" t="inlineStr"/>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F86" s="2" t="inlineStr">
+        <is>
+          <t>materials-not-applicable</t>
+        </is>
+      </c>
+      <c r="G86" s="2" t="inlineStr">
+        <is>
+          <t>Materials not applicable</t>
+        </is>
+      </c>
       <c r="H86" s="2" t="inlineStr"/>
       <c r="I86" s="2" t="inlineStr"/>
       <c r="J86" s="2" t="inlineStr"/>
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substance consent requirements</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N86" s="2" t="inlineStr">
@@ -4652,44 +4644,56 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="inlineStr">
-        <is>
-          <t>Hours of operation</t>
-        </is>
-      </c>
-      <c r="B87" s="2" t="inlineStr">
-        <is>
-          <t>hrs-operation</t>
-        </is>
-      </c>
+      <c r="A87" s="2" t="n"/>
+      <c r="B87" s="2" t="n"/>
       <c r="C87" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="D87" s="2" t="inlineStr"/>
-      <c r="E87" s="2" t="inlineStr"/>
-      <c r="F87" s="2" t="inlineStr"/>
-      <c r="G87" s="2" t="inlineStr"/>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>building-elements</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr">
+        <is>
+          <t>materials-not-known</t>
+        </is>
+      </c>
+      <c r="G87" s="2" t="inlineStr">
+        <is>
+          <t>Materials not known</t>
+        </is>
+      </c>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
-      <c r="L87" s="2" t="inlineStr"/>
-      <c r="M87" s="2" t="inlineStr"/>
-      <c r="N87" s="2" t="inlineStr"/>
+      <c r="L87" s="2" t="inlineStr">
+        <is>
+          <t>Indicates the materials for this building element are not yet known</t>
+        </is>
+      </c>
+      <c r="M87" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N87" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B88" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A88" s="2" t="n"/>
+      <c r="B88" s="2" t="n"/>
       <c r="C88" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -4697,36 +4701,28 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>building-element-type</t>
-        </is>
-      </c>
-      <c r="G88" s="2" t="inlineStr">
-        <is>
-          <t>Building element type</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr"/>
+      <c r="G88" s="2" t="inlineStr"/>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -4745,22 +4741,22 @@
       </c>
       <c r="D89" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E89" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
+          <t>Supporting documents[]</t>
         </is>
       </c>
       <c r="F89" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="G89" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="H89" s="2" t="inlineStr"/>
@@ -4769,7 +4765,7 @@
       <c r="K89" s="2" t="inlineStr"/>
       <c r="L89" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M89" s="2" t="inlineStr">
@@ -4779,141 +4775,101 @@
       </c>
       <c r="N89" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="n"/>
-      <c r="B90" s="2" t="n"/>
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
-      <c r="D90" s="2" t="inlineStr">
-        <is>
-          <t>building-elements</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>proposed-materials</t>
-        </is>
-      </c>
-      <c r="G90" s="2" t="inlineStr">
-        <is>
-          <t>Proposed materials</t>
-        </is>
-      </c>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr"/>
+      <c r="E90" s="2" t="inlineStr"/>
+      <c r="F90" s="2" t="inlineStr"/>
+      <c r="G90" s="2" t="inlineStr"/>
       <c r="H90" s="2" t="inlineStr"/>
       <c r="I90" s="2" t="inlineStr"/>
       <c r="J90" s="2" t="inlineStr"/>
       <c r="K90" s="2" t="inlineStr"/>
-      <c r="L90" s="2" t="inlineStr">
-        <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
-        </is>
-      </c>
-      <c r="M90" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N90" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L90" s="2" t="inlineStr"/>
+      <c r="M90" s="2" t="inlineStr"/>
+      <c r="N90" s="2" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="n"/>
-      <c r="B91" s="2" t="n"/>
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>Ownership certificates and agricultural land declaration</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>ownership-certs</t>
+        </is>
+      </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>building-elements</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-applicable</t>
-        </is>
-      </c>
-      <c r="G91" s="2" t="inlineStr">
-        <is>
-          <t>Materials not applicable</t>
-        </is>
-      </c>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr"/>
+      <c r="E91" s="2" t="inlineStr"/>
+      <c r="F91" s="2" t="inlineStr"/>
+      <c r="G91" s="2" t="inlineStr"/>
       <c r="H91" s="2" t="inlineStr"/>
       <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
-      <c r="L91" s="2" t="inlineStr">
-        <is>
-          <t>Indicates this building element is not relevant to the application</t>
-        </is>
-      </c>
-      <c r="M91" s="2" t="inlineStr">
-        <is>
-          <t>boolean</t>
-        </is>
-      </c>
-      <c r="N91" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L91" s="2" t="inlineStr"/>
+      <c r="M91" s="2" t="inlineStr"/>
+      <c r="N91" s="2" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="n"/>
-      <c r="B92" s="2" t="n"/>
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>pre-app-advice</t>
+        </is>
+      </c>
       <c r="C92" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>advice-sought</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G92" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
+      <c r="F92" s="2" t="inlineStr"/>
+      <c r="G92" s="2" t="inlineStr"/>
       <c r="H92" s="2" t="inlineStr"/>
       <c r="I92" s="2" t="inlineStr"/>
       <c r="J92" s="2" t="inlineStr"/>
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
@@ -4923,7 +4879,7 @@
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4932,17 +4888,17 @@
       <c r="B93" s="2" t="n"/>
       <c r="C93" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -4953,17 +4909,17 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N93" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4972,29 +4928,21 @@
       <c r="B94" s="2" t="n"/>
       <c r="C94" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G94" s="2" t="inlineStr">
-        <is>
           <t>Reference</t>
         </is>
       </c>
+      <c r="F94" s="2" t="inlineStr"/>
+      <c r="G94" s="2" t="inlineStr"/>
       <c r="H94" s="2" t="inlineStr"/>
       <c r="I94" s="2" t="inlineStr"/>
       <c r="J94" s="2" t="inlineStr"/>
@@ -5011,7 +4959,7 @@
       </c>
       <c r="N94" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5020,36 +4968,28 @@
       <c r="B95" s="2" t="n"/>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
+          <t>Details of pre-application advice previously received from the planning authority</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>supporting-documents</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="G95" s="2" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
+          <t>Advice date</t>
+        </is>
+      </c>
+      <c r="F95" s="2" t="inlineStr"/>
+      <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr"/>
       <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>A name for the document. For example, The Site Plan</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5059,90 +4999,114 @@
       </c>
       <c r="N95" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>Non residential floorspace</t>
-        </is>
-      </c>
-      <c r="B96" s="2" t="inlineStr">
-        <is>
-          <t>non-res-floorspace</t>
-        </is>
-      </c>
+      <c r="A96" s="2" t="n"/>
+      <c r="B96" s="2" t="n"/>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
-        </is>
-      </c>
-      <c r="D96" s="2" t="inlineStr"/>
-      <c r="E96" s="2" t="inlineStr"/>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>advice-summary</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="inlineStr">
+        <is>
+          <t>Advice summary</t>
+        </is>
+      </c>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr"/>
       <c r="I96" s="2" t="inlineStr"/>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
-      <c r="L96" s="2" t="inlineStr"/>
-      <c r="M96" s="2" t="inlineStr"/>
-      <c r="N96" s="2" t="inlineStr"/>
+      <c r="L96" s="2" t="inlineStr">
+        <is>
+          <t>Summary of the pre-application advice received from the planning authority</t>
+        </is>
+      </c>
+      <c r="M96" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N96" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Processes machinery waste</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>ownership-certs</t>
+          <t>processes-machinery-waste</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D97" s="2" t="inlineStr"/>
-      <c r="E97" s="2" t="inlineStr"/>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="inlineStr">
+        <is>
+          <t>site-activity-details</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="inlineStr">
+        <is>
+          <t>Site activity details</t>
+        </is>
+      </c>
       <c r="F97" s="2" t="inlineStr"/>
       <c r="G97" s="2" t="inlineStr"/>
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr"/>
       <c r="J97" s="2" t="inlineStr"/>
       <c r="K97" s="2" t="inlineStr"/>
-      <c r="L97" s="2" t="inlineStr"/>
-      <c r="M97" s="2" t="inlineStr"/>
-      <c r="N97" s="2" t="inlineStr"/>
+      <c r="L97" s="2" t="inlineStr">
+        <is>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+        </is>
+      </c>
+      <c r="M97" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N97" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B98" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A98" s="2" t="n"/>
+      <c r="B98" s="2" t="n"/>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F98" s="2" t="inlineStr"/>
@@ -5153,7 +5117,7 @@
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
@@ -5172,38 +5136,46 @@
       <c r="B99" s="2" t="n"/>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr"/>
-      <c r="G99" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F99" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G99" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H99" s="2" t="inlineStr"/>
       <c r="I99" s="2" t="inlineStr"/>
       <c r="J99" s="2" t="inlineStr"/>
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5212,33 +5184,41 @@
       <c r="B100" s="2" t="n"/>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D100" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E100" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F100" s="2" t="inlineStr">
+        <is>
+          <t>not-applicable</t>
+        </is>
+      </c>
+      <c r="G100" s="2" t="inlineStr">
+        <is>
+          <t>Not applicable</t>
+        </is>
+      </c>
       <c r="H100" s="2" t="inlineStr"/>
       <c r="I100" s="2" t="inlineStr"/>
       <c r="J100" s="2" t="inlineStr"/>
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5252,33 +5232,41 @@
       <c r="B101" s="2" t="n"/>
       <c r="C101" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D101" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E101" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F101" s="2" t="inlineStr">
+        <is>
+          <t>total-capacity</t>
+        </is>
+      </c>
+      <c r="G101" s="2" t="inlineStr">
+        <is>
+          <t>Total capacity</t>
+        </is>
+      </c>
       <c r="H101" s="2" t="inlineStr"/>
       <c r="I101" s="2" t="inlineStr"/>
       <c r="J101" s="2" t="inlineStr"/>
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
@@ -5292,33 +5280,41 @@
       <c r="B102" s="2" t="n"/>
       <c r="C102" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E102" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F102" s="2" t="inlineStr">
+        <is>
+          <t>annual-throughput</t>
+        </is>
+      </c>
+      <c r="G102" s="2" t="inlineStr">
+        <is>
+          <t>Annual throughput</t>
+        </is>
+      </c>
       <c r="H102" s="2" t="inlineStr"/>
       <c r="I102" s="2" t="inlineStr"/>
       <c r="J102" s="2" t="inlineStr"/>
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5328,16 +5324,8 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B103" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A103" s="2" t="n"/>
+      <c r="B103" s="2" t="n"/>
       <c r="C103" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -5345,33 +5333,41 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr"/>
-      <c r="G103" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F103" s="2" t="inlineStr">
+        <is>
+          <t>municipal</t>
+        </is>
+      </c>
+      <c r="G103" s="2" t="inlineStr">
+        <is>
+          <t>Municipal</t>
+        </is>
+      </c>
       <c r="H103" s="2" t="inlineStr"/>
       <c r="I103" s="2" t="inlineStr"/>
       <c r="J103" s="2" t="inlineStr"/>
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5385,33 +5381,41 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr"/>
-      <c r="G104" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F104" s="2" t="inlineStr">
+        <is>
+          <t>construction-demolition</t>
+        </is>
+      </c>
+      <c r="G104" s="2" t="inlineStr">
+        <is>
+          <t>Construction demolition</t>
+        </is>
+      </c>
       <c r="H104" s="2" t="inlineStr"/>
       <c r="I104" s="2" t="inlineStr"/>
       <c r="J104" s="2" t="inlineStr"/>
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5425,22 +5429,22 @@
       </c>
       <c r="D105" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E105" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5449,17 +5453,17 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N105" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5473,22 +5477,22 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E106" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5497,12 +5501,12 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N106" s="2" t="inlineStr">
@@ -5512,98 +5516,78 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="n"/>
-      <c r="B107" s="2" t="n"/>
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>waste-management</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>Waste management[]</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>total-capacity</t>
-        </is>
-      </c>
-      <c r="G107" s="2" t="inlineStr">
-        <is>
-          <t>Total capacity</t>
-        </is>
-      </c>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr"/>
+      <c r="E107" s="2" t="inlineStr"/>
+      <c r="F107" s="2" t="inlineStr"/>
+      <c r="G107" s="2" t="inlineStr"/>
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
       <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr">
-        <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="M107" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N107" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L107" s="2" t="inlineStr"/>
+      <c r="M107" s="2" t="inlineStr"/>
+      <c r="N107" s="2" t="inlineStr"/>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>annual-throughput</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>Annual throughput</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5612,27 +5596,27 @@
       <c r="B109" s="2" t="n"/>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="F109" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>tenure-type</t>
         </is>
       </c>
       <c r="G109" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Tenure type</t>
         </is>
       </c>
       <c r="H109" s="2" t="inlineStr"/>
@@ -5641,17 +5625,17 @@
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M109" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N109" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5660,27 +5644,27 @@
       <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="F110" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G110" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H110" s="2" t="inlineStr"/>
@@ -5689,17 +5673,17 @@
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5708,46 +5692,54 @@
       <c r="B111" s="2" t="n"/>
       <c r="C111" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I111" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J111" s="2" t="inlineStr"/>
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N111" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5756,88 +5748,132 @@
       <c r="B112" s="2" t="n"/>
       <c r="C112" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Residential unit summary[]</t>
         </is>
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>hazardous</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr"/>
-      <c r="J112" s="2" t="inlineStr"/>
-      <c r="K112" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J112" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K112" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N112" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n"/>
+      <c r="B113" s="2" t="n"/>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>residential-unit-summary</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F113" s="2" t="inlineStr">
+        <is>
+          <t>existing-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G113" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H113" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I113" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
+      <c r="L113" s="2" t="inlineStr">
+        <is>
+          <t>The number of bedrooms in unit</t>
+        </is>
+      </c>
+      <c r="M113" s="2" t="inlineStr">
+        <is>
           <t>number</t>
         </is>
       </c>
-      <c r="N112" s="2" t="inlineStr">
+      <c r="N113" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B113" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
-      <c r="C113" s="2" t="inlineStr">
-        <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="D113" s="2" t="inlineStr"/>
-      <c r="E113" s="2" t="inlineStr"/>
-      <c r="F113" s="2" t="inlineStr"/>
-      <c r="G113" s="2" t="inlineStr"/>
-      <c r="H113" s="2" t="inlineStr"/>
-      <c r="I113" s="2" t="inlineStr"/>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
-      <c r="L113" s="2" t="inlineStr"/>
-      <c r="M113" s="2" t="inlineStr"/>
-      <c r="N113" s="2" t="inlineStr"/>
-    </row>
     <row r="114">
-      <c r="A114" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B114" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A114" s="2" t="n"/>
+      <c r="B114" s="2" t="n"/>
       <c r="C114" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -5845,28 +5881,52 @@
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="2" t="inlineStr"/>
-      <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr"/>
-      <c r="J114" s="2" t="inlineStr"/>
-      <c r="K114" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>existing-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G114" s="2" t="inlineStr">
+        <is>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J114" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K114" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
@@ -5895,31 +5955,39 @@
       </c>
       <c r="F115" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G115" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
-      <c r="H115" s="2" t="inlineStr"/>
-      <c r="I115" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>total-units</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="J115" s="2" t="inlineStr"/>
       <c r="K115" s="2" t="inlineStr"/>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N115" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5943,26 +6011,34 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H116" s="2" t="inlineStr"/>
-      <c r="I116" s="2" t="inlineStr"/>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
@@ -5991,29 +6067,37 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J117" s="2" t="inlineStr"/>
-      <c r="K117" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
@@ -6047,12 +6131,12 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G118" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H118" s="2" t="inlineStr">
@@ -6067,27 +6151,27 @@
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K118" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6111,12 +6195,12 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G119" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H119" s="2" t="inlineStr">
@@ -6131,17 +6215,17 @@
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
@@ -6151,7 +6235,7 @@
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6175,37 +6259,29 @@
       </c>
       <c r="F120" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G120" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr"/>
+      <c r="K120" s="2" t="inlineStr"/>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6215,7 +6291,7 @@
       </c>
       <c r="N120" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6229,39 +6305,23 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>existing-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G121" s="2" t="inlineStr">
-        <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H121" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I121" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
+      <c r="H121" s="2" t="inlineStr"/>
+      <c r="I121" s="2" t="inlineStr"/>
       <c r="J121" s="2" t="inlineStr"/>
       <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6271,7 +6331,7 @@
       </c>
       <c r="N121" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6285,44 +6345,28 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>units-unknown</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Total proposed units</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N122" s="2" t="inlineStr">
@@ -6341,52 +6385,28 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G123" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Net change</t>
+        </is>
+      </c>
+      <c r="F123" s="2" t="inlineStr"/>
+      <c r="G123" s="2" t="inlineStr"/>
+      <c r="H123" s="2" t="inlineStr"/>
+      <c r="I123" s="2" t="inlineStr"/>
+      <c r="J123" s="2" t="inlineStr"/>
+      <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N123" s="2" t="inlineStr">
@@ -6396,56 +6416,40 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="n"/>
-      <c r="B124" s="2" t="n"/>
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G124" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H124" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I124" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J124" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K124" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr"/>
+      <c r="J124" s="2" t="inlineStr"/>
+      <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
@@ -6455,7 +6459,7 @@
       </c>
       <c r="N124" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6464,113 +6468,89 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G125" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H125" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I125" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr"/>
+      <c r="J125" s="2" t="inlineStr"/>
+      <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="n"/>
-      <c r="B126" s="2" t="n"/>
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
+          <t>Site locations[]</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr">
         <is>
-          <t>proposed-unit-breakdown</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G126" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H126" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I126" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Site boundary</t>
+        </is>
+      </c>
+      <c r="H126" s="2" t="inlineStr"/>
+      <c r="I126" s="2" t="inlineStr"/>
       <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N126" s="2" t="inlineStr">
@@ -6584,38 +6564,46 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>address-text</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>Address Text</t>
+        </is>
+      </c>
       <c r="H127" s="2" t="inlineStr"/>
       <c r="I127" s="2" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N127" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6624,38 +6612,46 @@
       <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr"/>
-      <c r="G128" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F128" s="2" t="inlineStr">
+        <is>
+          <t>postcode</t>
+        </is>
+      </c>
+      <c r="G128" s="2" t="inlineStr">
+        <is>
+          <t>Postcode</t>
+        </is>
+      </c>
       <c r="H128" s="2" t="inlineStr"/>
       <c r="I128" s="2" t="inlineStr"/>
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6664,28 +6660,36 @@
       <c r="B129" s="2" t="n"/>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F129" s="2" t="inlineStr">
+        <is>
+          <t>easting</t>
+        </is>
+      </c>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>Easting</t>
+        </is>
+      </c>
       <c r="H129" s="2" t="inlineStr"/>
       <c r="I129" s="2" t="inlineStr"/>
       <c r="J129" s="2" t="inlineStr"/>
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6695,45 +6699,45 @@
       </c>
       <c r="N129" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B130" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A130" s="2" t="n"/>
+      <c r="B130" s="2" t="n"/>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F130" s="2" t="inlineStr">
+        <is>
+          <t>northing</t>
+        </is>
+      </c>
+      <c r="G130" s="2" t="inlineStr">
+        <is>
+          <t>Northing</t>
+        </is>
+      </c>
       <c r="H130" s="2" t="inlineStr"/>
       <c r="I130" s="2" t="inlineStr"/>
       <c r="J130" s="2" t="inlineStr"/>
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
@@ -6743,7 +6747,7 @@
       </c>
       <c r="N130" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6752,33 +6756,41 @@
       <c r="B131" s="2" t="n"/>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr"/>
-      <c r="G131" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F131" s="2" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="G131" s="2" t="inlineStr">
+        <is>
+          <t>Latitude</t>
+        </is>
+      </c>
       <c r="H131" s="2" t="inlineStr"/>
       <c r="I131" s="2" t="inlineStr"/>
       <c r="J131" s="2" t="inlineStr"/>
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N131" s="2" t="inlineStr">
@@ -6788,16 +6800,8 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B132" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A132" s="2" t="n"/>
+      <c r="B132" s="2" t="n"/>
       <c r="C132" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6815,12 +6819,12 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6829,12 +6833,12 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N132" s="2" t="inlineStr">
@@ -6863,12 +6867,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -6877,7 +6881,7 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
@@ -6911,12 +6915,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -6925,7 +6929,7 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
@@ -6940,50 +6944,50 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="n"/>
-      <c r="B135" s="2" t="n"/>
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>easting</t>
-        </is>
-      </c>
-      <c r="G135" s="2" t="inlineStr">
-        <is>
-          <t>Easting</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr"/>
+      <c r="G135" s="2" t="inlineStr"/>
       <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr"/>
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6992,46 +6996,38 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>northing</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>Northing</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr"/>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7040,41 +7036,33 @@
       <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="G137" s="2" t="inlineStr">
-        <is>
-          <t>Latitude</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N137" s="2" t="inlineStr">
@@ -7088,27 +7076,27 @@
       <c r="B138" s="2" t="n"/>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G138" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H138" s="2" t="inlineStr"/>
@@ -7117,17 +7105,17 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N138" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7136,27 +7124,27 @@
       <c r="B139" s="2" t="n"/>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="F139" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G139" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H139" s="2" t="inlineStr"/>
@@ -7165,7 +7153,7 @@
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7175,7 +7163,7 @@
       </c>
       <c r="N139" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7184,27 +7172,27 @@
       <c r="B140" s="2" t="n"/>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D140" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E140" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
+          <t>Other site visit contact</t>
         </is>
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7213,7 +7201,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7223,34 +7211,34 @@
       </c>
       <c r="N140" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>Site Visit Details</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>site-visit</t>
+          <t>trade-effluent</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Disposal required</t>
         </is>
       </c>
       <c r="F141" s="2" t="inlineStr"/>
@@ -7261,7 +7249,7 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
@@ -7280,17 +7268,17 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F142" s="2" t="inlineStr"/>
@@ -7301,86 +7289,82 @@
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="n"/>
-      <c r="B143" s="2" t="n"/>
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr">
-        <is>
-          <t>contact-reference</t>
-        </is>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr"/>
+      <c r="E143" s="2" t="inlineStr"/>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr"/>
       <c r="H143" s="2" t="inlineStr"/>
       <c r="I143" s="2" t="inlineStr"/>
       <c r="J143" s="2" t="inlineStr"/>
       <c r="K143" s="2" t="inlineStr"/>
-      <c r="L143" s="2" t="inlineStr">
-        <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
-        </is>
-      </c>
-      <c r="M143" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N143" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L143" s="2" t="inlineStr"/>
+      <c r="M143" s="2" t="inlineStr"/>
+      <c r="N143" s="2" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>vehicle-parking</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Parking spaces[]</t>
         </is>
       </c>
       <c r="F144" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>parking-space-type</t>
         </is>
       </c>
       <c r="G144" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="H144" s="2" t="inlineStr"/>
@@ -7389,12 +7373,12 @@
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
@@ -7408,27 +7392,27 @@
       <c r="B145" s="2" t="n"/>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E145" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Parking spaces[]</t>
         </is>
       </c>
       <c r="F145" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G145" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H145" s="2" t="inlineStr"/>
@@ -7437,7 +7421,7 @@
       <c r="K145" s="2" t="inlineStr"/>
       <c r="L145" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M145" s="2" t="inlineStr">
@@ -7447,7 +7431,7 @@
       </c>
       <c r="N145" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7456,27 +7440,27 @@
       <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
+          <t>Parking spaces[]</t>
         </is>
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -7485,12 +7469,12 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
@@ -7500,45 +7484,45 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A147" s="2" t="n"/>
+      <c r="B147" s="2" t="n"/>
       <c r="C147" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D147" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E147" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F147" s="2" t="inlineStr">
+        <is>
+          <t>total-proposed</t>
+        </is>
+      </c>
+      <c r="G147" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="H147" s="2" t="inlineStr"/>
       <c r="I147" s="2" t="inlineStr"/>
       <c r="J147" s="2" t="inlineStr"/>
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
@@ -7552,400 +7536,132 @@
       <c r="B148" s="2" t="n"/>
       <c r="C148" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr"/>
-      <c r="G148" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F148" s="2" t="inlineStr">
+        <is>
+          <t>difference-in-spaces</t>
+        </is>
+      </c>
+      <c r="G148" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="H148" s="2" t="inlineStr"/>
       <c r="I148" s="2" t="inlineStr"/>
       <c r="J148" s="2" t="inlineStr"/>
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N148" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Waste storage and collection</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>trees-hedges</t>
+          <t>waste-storage-collection</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr"/>
-      <c r="E149" s="2" t="inlineStr"/>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
+      <c r="D149" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-area-details</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
       <c r="F149" s="2" t="inlineStr"/>
       <c r="G149" s="2" t="inlineStr"/>
       <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
-      <c r="L149" s="2" t="inlineStr"/>
-      <c r="M149" s="2" t="inlineStr"/>
-      <c r="N149" s="2" t="inlineStr"/>
+      <c r="L149" s="2" t="inlineStr">
+        <is>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+        </is>
+      </c>
+      <c r="M149" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N149" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A150" s="2" t="n"/>
+      <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>parking-space-type</t>
-        </is>
-      </c>
-      <c r="G150" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n"/>
-      <c r="B151" s="2" t="n"/>
-      <c r="C151" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
-      <c r="D151" s="2" t="inlineStr">
-        <is>
-          <t>parking-spaces</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-type-other</t>
-        </is>
-      </c>
-      <c r="G151" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr"/>
-      <c r="J151" s="2" t="inlineStr"/>
-      <c r="K151" s="2" t="inlineStr"/>
-      <c r="L151" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type when parking space type is 'other'</t>
-        </is>
-      </c>
-      <c r="M151" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N151" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n"/>
-      <c r="B152" s="2" t="n"/>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>parking-spaces</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>total-existing</t>
-        </is>
-      </c>
-      <c r="G152" s="2" t="inlineStr">
-        <is>
-          <t>Total existing</t>
-        </is>
-      </c>
-      <c r="H152" s="2" t="inlineStr"/>
-      <c r="I152" s="2" t="inlineStr"/>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
-      <c r="L152" s="2" t="inlineStr">
-        <is>
-          <t>Total number of existing parking spaces</t>
-        </is>
-      </c>
-      <c r="M152" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N152" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n"/>
-      <c r="B153" s="2" t="n"/>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>parking-spaces</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr">
-        <is>
-          <t>total-proposed</t>
-        </is>
-      </c>
-      <c r="G153" s="2" t="inlineStr">
-        <is>
-          <t>Total proposed</t>
-        </is>
-      </c>
-      <c r="H153" s="2" t="inlineStr"/>
-      <c r="I153" s="2" t="inlineStr"/>
-      <c r="J153" s="2" t="inlineStr"/>
-      <c r="K153" s="2" t="inlineStr"/>
-      <c r="L153" s="2" t="inlineStr">
-        <is>
-          <t>Total number of proposed parking spaces</t>
-        </is>
-      </c>
-      <c r="M153" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N153" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n"/>
-      <c r="B154" s="2" t="n"/>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="inlineStr">
-        <is>
-          <t>parking-spaces</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G154" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
-      <c r="H154" s="2" t="inlineStr"/>
-      <c r="I154" s="2" t="inlineStr"/>
-      <c r="J154" s="2" t="inlineStr"/>
-      <c r="K154" s="2" t="inlineStr"/>
-      <c r="L154" s="2" t="inlineStr">
-        <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
-        </is>
-      </c>
-      <c r="M154" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N154" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B155" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
-      <c r="C155" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D155" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-area-details</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr"/>
-      <c r="G155" s="2" t="inlineStr"/>
-      <c r="H155" s="2" t="inlineStr"/>
-      <c r="I155" s="2" t="inlineStr"/>
-      <c r="J155" s="2" t="inlineStr"/>
-      <c r="K155" s="2" t="inlineStr"/>
-      <c r="L155" s="2" t="inlineStr">
-        <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
-        </is>
-      </c>
-      <c r="M155" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N155" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n"/>
-      <c r="B156" s="2" t="n"/>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
-      <c r="H156" s="2" t="inlineStr"/>
-      <c r="I156" s="2" t="inlineStr"/>
-      <c r="J156" s="2" t="inlineStr"/>
-      <c r="K156" s="2" t="inlineStr"/>
-      <c r="L156" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M156" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N156" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7954,67 +7670,67 @@
   </sheetData>
   <mergeCells count="62">
     <mergeCell ref="B49"/>
-    <mergeCell ref="B141:B146"/>
-    <mergeCell ref="A97"/>
-    <mergeCell ref="B155:B156"/>
-    <mergeCell ref="B132:B140"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B135:B140"/>
+    <mergeCell ref="B143"/>
     <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B130:B131"/>
-    <mergeCell ref="A96"/>
-    <mergeCell ref="B81:B86"/>
+    <mergeCell ref="A91"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A149:A150"/>
+    <mergeCell ref="A81"/>
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A150:A154"/>
+    <mergeCell ref="A124:A125"/>
     <mergeCell ref="B71:B76"/>
-    <mergeCell ref="B2:B18"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="B113"/>
+    <mergeCell ref="B92:B96"/>
+    <mergeCell ref="B97:B106"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B97"/>
+    <mergeCell ref="A126:A134"/>
     <mergeCell ref="A48"/>
     <mergeCell ref="B51:B53"/>
-    <mergeCell ref="A88:A95"/>
-    <mergeCell ref="B114:B129"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B108:B123"/>
     <mergeCell ref="A61:A70"/>
     <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B91"/>
+    <mergeCell ref="A143"/>
     <mergeCell ref="A49"/>
-    <mergeCell ref="A103:A112"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B81"/>
+    <mergeCell ref="A82"/>
+    <mergeCell ref="A107"/>
+    <mergeCell ref="B90"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="B83:B89"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B149"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="A92:A96"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B61:B70"/>
-    <mergeCell ref="B96"/>
-    <mergeCell ref="A114:A129"/>
+    <mergeCell ref="B144:B148"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="B88:B95"/>
-    <mergeCell ref="A87"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="A2:A18"/>
-    <mergeCell ref="A98:A102"/>
-    <mergeCell ref="B150:B154"/>
-    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="A83:A89"/>
+    <mergeCell ref="A135:A140"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="B107"/>
+    <mergeCell ref="A90"/>
     <mergeCell ref="A54:A60"/>
-    <mergeCell ref="A130:A131"/>
     <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A141:A146"/>
-    <mergeCell ref="A155:A156"/>
-    <mergeCell ref="A132:A140"/>
-    <mergeCell ref="A149"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B103:B112"/>
-    <mergeCell ref="A81:A86"/>
-    <mergeCell ref="B87"/>
-    <mergeCell ref="A113"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B82"/>
     <mergeCell ref="A77:A80"/>
-    <mergeCell ref="B98:B102"/>
+    <mergeCell ref="B2:B19"/>
+    <mergeCell ref="A108:A123"/>
     <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A144:A148"/>
     <mergeCell ref="B35:B38"/>
+    <mergeCell ref="A97:A106"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -861,7 +861,7 @@
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>A reference for the document</t>
+          <t>Unique reference for the document within this application submission, generated by the submitting system</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -4357,23 +4357,31 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>drainage-system-details</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr">
         <is>
-          <t>Drainage system details</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr"/>
-      <c r="G80" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
       <c r="L80" s="2" t="inlineStr">
         <is>
-          <t>Details of the drawings/plans that show the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M80" s="2" t="inlineStr">
@@ -4383,7 +4391,7 @@
       </c>
       <c r="N80" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:N152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5303,12 +5303,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5317,12 +5317,12 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5341,22 +5341,22 @@
       </c>
       <c r="D103" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E103" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5365,7 +5365,7 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
@@ -5389,22 +5389,22 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>waste-streams</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Waste streams throughput</t>
+          <t>Waste management[]</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5413,12 +5413,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5447,12 +5447,12 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5461,7 +5461,7 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
@@ -5495,12 +5495,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>hazardous</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Hazardous</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5509,7 +5509,7 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
@@ -5524,132 +5524,140 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>Description of the proposal</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>proposal-details</t>
-        </is>
-      </c>
+      <c r="A107" s="2" t="n"/>
+      <c r="B107" s="2" t="n"/>
       <c r="C107" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr"/>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
+          <t>How waste will be managed on the site</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="inlineStr">
+        <is>
+          <t>waste-streams</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="inlineStr">
+        <is>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F107" s="2" t="inlineStr">
+        <is>
+          <t>commercial-industrial</t>
+        </is>
+      </c>
+      <c r="G107" s="2" t="inlineStr">
+        <is>
+          <t>Commercial industrial</t>
+        </is>
+      </c>
       <c r="H107" s="2" t="inlineStr"/>
       <c r="I107" s="2" t="inlineStr"/>
       <c r="J107" s="2" t="inlineStr"/>
       <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr"/>
-      <c r="M107" s="2" t="inlineStr"/>
-      <c r="N107" s="2" t="inlineStr"/>
+      <c r="L107" s="2" t="inlineStr">
+        <is>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+        </is>
+      </c>
+      <c r="M107" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="N107" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B108" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A108" s="2" t="n"/>
+      <c r="B108" s="2" t="n"/>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E108" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr"/>
-      <c r="G108" s="2" t="inlineStr"/>
+          <t>Waste streams throughput</t>
+        </is>
+      </c>
+      <c r="F108" s="2" t="inlineStr">
+        <is>
+          <t>hazardous</t>
+        </is>
+      </c>
+      <c r="G108" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous</t>
+        </is>
+      </c>
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
       <c r="L108" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M108" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N108" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="n"/>
-      <c r="B109" s="2" t="n"/>
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr">
-        <is>
-          <t>residential-unit-summary</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>tenure-type</t>
-        </is>
-      </c>
-      <c r="G109" s="2" t="inlineStr">
-        <is>
-          <t>Tenure type</t>
-        </is>
-      </c>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr"/>
+      <c r="E109" s="2" t="inlineStr"/>
+      <c r="F109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr"/>
       <c r="H109" s="2" t="inlineStr"/>
       <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
-      <c r="L109" s="2" t="inlineStr">
-        <is>
-          <t>Category of housing tenure</t>
-        </is>
-      </c>
-      <c r="M109" s="2" t="inlineStr">
-        <is>
-          <t>enum</t>
-        </is>
-      </c>
-      <c r="N109" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L109" s="2" t="inlineStr"/>
+      <c r="M109" s="2" t="inlineStr"/>
+      <c r="N109" s="2" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="n"/>
-      <c r="B110" s="2" t="n"/>
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Residential units</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>res-units</t>
+        </is>
+      </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -5657,36 +5665,28 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>will-residential-units-change</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>housing-type</t>
-        </is>
-      </c>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>Housing type</t>
-        </is>
-      </c>
+          <t>Residential unit change</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr"/>
+      <c r="G110" s="2" t="inlineStr"/>
       <c r="H110" s="2" t="inlineStr"/>
       <c r="I110" s="2" t="inlineStr"/>
       <c r="J110" s="2" t="inlineStr"/>
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
@@ -5715,34 +5715,26 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>tenure-type</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H111" s="2" t="inlineStr">
-        <is>
-          <t>units-unknown</t>
-        </is>
-      </c>
-      <c r="I111" s="2" t="inlineStr">
-        <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
+          <t>Tenure type</t>
+        </is>
+      </c>
+      <c r="H111" s="2" t="inlineStr"/>
+      <c r="I111" s="2" t="inlineStr"/>
       <c r="J111" s="2" t="inlineStr"/>
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N111" s="2" t="inlineStr">
@@ -5771,42 +5763,26 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H112" s="2" t="inlineStr">
-        <is>
-          <t>units-per-bedroom-no</t>
-        </is>
-      </c>
-      <c r="I112" s="2" t="inlineStr">
-        <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J112" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K112" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Housing type</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr"/>
+      <c r="I112" s="2" t="inlineStr"/>
+      <c r="J112" s="2" t="inlineStr"/>
+      <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
@@ -5845,37 +5821,29 @@
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J113" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K113" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr"/>
+      <c r="K113" s="2" t="inlineStr"/>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N113" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -5919,22 +5887,22 @@
       </c>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>no-bedrooms-unknown</t>
         </is>
       </c>
       <c r="K114" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
@@ -5973,19 +5941,27 @@
       </c>
       <c r="H115" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="J115" s="2" t="inlineStr"/>
-      <c r="K115" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -6019,34 +5995,42 @@
       </c>
       <c r="F116" s="2" t="inlineStr">
         <is>
-          <t>proposed-unit-breakdown</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G116" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J116" s="2" t="inlineStr"/>
-      <c r="K116" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N116" s="2" t="inlineStr">
@@ -6075,47 +6059,39 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>proposed-unit-breakdown</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Proposed unit breakdown[]</t>
+          <t>Existing unit breakdown[]</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J117" s="2" t="inlineStr">
-        <is>
-          <t>no-bedrooms-unknown</t>
-        </is>
-      </c>
-      <c r="K117" s="2" t="inlineStr">
-        <is>
-          <t>No bedrooms unknown</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J117" s="2" t="inlineStr"/>
+      <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6149,37 +6125,29 @@
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J118" s="2" t="inlineStr">
-        <is>
-          <t>no-of-bedrooms</t>
-        </is>
-      </c>
-      <c r="K118" s="2" t="inlineStr">
-        <is>
-          <t>Number of bedrooms</t>
-        </is>
-      </c>
+          <t>Units unknown</t>
+        </is>
+      </c>
+      <c r="J118" s="2" t="inlineStr"/>
+      <c r="K118" s="2" t="inlineStr"/>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N118" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6223,22 +6191,22 @@
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>units</t>
+          <t>no-bedrooms-unknown</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
         <is>
-          <t>Units</t>
+          <t>No bedrooms unknown</t>
         </is>
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
@@ -6277,19 +6245,27 @@
       </c>
       <c r="H120" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I120" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
-        </is>
-      </c>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J120" s="2" t="inlineStr">
+        <is>
+          <t>no-of-bedrooms</t>
+        </is>
+      </c>
+      <c r="K120" s="2" t="inlineStr">
+        <is>
+          <t>Number of bedrooms</t>
+        </is>
+      </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6313,23 +6289,47 @@
       </c>
       <c r="D121" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E121" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr"/>
-      <c r="G121" s="2" t="inlineStr"/>
-      <c r="H121" s="2" t="inlineStr"/>
-      <c r="I121" s="2" t="inlineStr"/>
-      <c r="J121" s="2" t="inlineStr"/>
-      <c r="K121" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F121" s="2" t="inlineStr">
+        <is>
+          <t>proposed-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G121" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>units-per-bedroom-no</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr">
+        <is>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>units</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6353,23 +6353,39 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr"/>
-      <c r="G122" s="2" t="inlineStr"/>
-      <c r="H122" s="2" t="inlineStr"/>
-      <c r="I122" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr">
+        <is>
+          <t>proposed-unit-breakdown</t>
+        </is>
+      </c>
+      <c r="G122" s="2" t="inlineStr">
+        <is>
+          <t>Proposed unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H122" s="2" t="inlineStr">
+        <is>
+          <t>total-units</t>
+        </is>
+      </c>
+      <c r="I122" s="2" t="inlineStr">
+        <is>
+          <t>Total units</t>
+        </is>
+      </c>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
@@ -6379,7 +6395,7 @@
       </c>
       <c r="N122" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6393,12 +6409,12 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Total existing units</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
@@ -6409,7 +6425,7 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
@@ -6424,29 +6440,21 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B124" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A124" s="2" t="n"/>
+      <c r="B124" s="2" t="n"/>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6457,7 +6465,7 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
@@ -6476,17 +6484,17 @@
       <c r="B125" s="2" t="n"/>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
@@ -6497,73 +6505,65 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N125" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="inlineStr">
         <is>
-          <t>Site details</t>
+          <t>Site area</t>
         </is>
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>site-details</t>
+          <t>site-area</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>site-boundary</t>
-        </is>
-      </c>
-      <c r="G126" s="2" t="inlineStr">
-        <is>
-          <t>Site boundary</t>
-        </is>
-      </c>
+          <t>Site area in hectares</t>
+        </is>
+      </c>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
       <c r="H126" s="2" t="inlineStr"/>
       <c r="I126" s="2" t="inlineStr"/>
       <c r="J126" s="2" t="inlineStr"/>
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N126" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6572,41 +6572,33 @@
       <c r="B127" s="2" t="n"/>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>address-text</t>
-        </is>
-      </c>
-      <c r="G127" s="2" t="inlineStr">
-        <is>
-          <t>Address Text</t>
-        </is>
-      </c>
+          <t>Site area provided by</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr"/>
+      <c r="G127" s="2" t="inlineStr"/>
       <c r="H127" s="2" t="inlineStr"/>
       <c r="I127" s="2" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N127" s="2" t="inlineStr">
@@ -6616,8 +6608,16 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="n"/>
-      <c r="B128" s="2" t="n"/>
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6635,12 +6635,12 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>site-boundary</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Site boundary</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6649,12 +6649,12 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6683,12 +6683,12 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6697,12 +6697,12 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N129" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6745,12 +6745,12 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
@@ -6779,12 +6779,12 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6793,7 +6793,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6827,12 +6827,12 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6841,7 +6841,7 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -6875,12 +6875,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -6889,12 +6889,12 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N133" s="2" t="inlineStr">
@@ -6923,12 +6923,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>uprns</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>UPRNs[]</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -6937,12 +6937,12 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -6952,50 +6952,50 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A135" s="2" t="n"/>
+      <c r="B135" s="2" t="n"/>
       <c r="C135" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D135" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E135" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F135" s="2" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="G135" s="2" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
       <c r="H135" s="2" t="inlineStr"/>
       <c r="I135" s="2" t="inlineStr"/>
       <c r="J135" s="2" t="inlineStr"/>
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N135" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7004,44 +7004,60 @@
       <c r="B136" s="2" t="n"/>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr">
+        <is>
+          <t>uprns</t>
+        </is>
+      </c>
+      <c r="G136" s="2" t="inlineStr">
+        <is>
+          <t>UPRNs[]</t>
+        </is>
+      </c>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr"/>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="n"/>
-      <c r="B137" s="2" t="n"/>
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -7049,12 +7065,12 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
+          <t>Site seen from public area</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr"/>
@@ -7065,17 +7081,17 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N137" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7089,36 +7105,28 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>fullname</t>
-        </is>
-      </c>
-      <c r="G138" s="2" t="inlineStr">
-        <is>
-          <t>Full name</t>
-        </is>
-      </c>
+          <t>Site visit contact type</t>
+        </is>
+      </c>
+      <c r="F138" s="2" t="inlineStr"/>
+      <c r="G138" s="2" t="inlineStr"/>
       <c r="H138" s="2" t="inlineStr"/>
       <c r="I138" s="2" t="inlineStr"/>
       <c r="J138" s="2" t="inlineStr"/>
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N138" s="2" t="inlineStr">
@@ -7137,31 +7145,23 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="G139" s="2" t="inlineStr">
-        <is>
-          <t>Phone number</t>
-        </is>
-      </c>
+          <t>Contact reference</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr"/>
+      <c r="G139" s="2" t="inlineStr"/>
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="N139" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>email</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Email</t>
+          <t>Full name</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7209,7 +7209,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7224,45 +7224,45 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B141" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A141" s="2" t="n"/>
+      <c r="B141" s="2" t="n"/>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr"/>
-      <c r="G141" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F141" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="G141" s="2" t="inlineStr">
+        <is>
+          <t>Phone number</t>
+        </is>
+      </c>
       <c r="H141" s="2" t="inlineStr"/>
       <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr"/>
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N141" s="2" t="inlineStr">
@@ -7276,28 +7276,36 @@
       <c r="B142" s="2" t="n"/>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr">
+        <is>
+          <t>email</t>
+        </is>
+      </c>
+      <c r="G142" s="2" t="inlineStr">
+        <is>
+          <t>Email</t>
+        </is>
+      </c>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
@@ -7307,145 +7315,137 @@
       </c>
       <c r="N142" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Trade effluent</t>
         </is>
       </c>
       <c r="B143" s="2" t="inlineStr">
         <is>
-          <t>trees-hedges</t>
+          <t>trade-effluent</t>
         </is>
       </c>
       <c r="C143" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D143" s="2" t="inlineStr"/>
-      <c r="E143" s="2" t="inlineStr"/>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="inlineStr">
+        <is>
+          <t>is-disposal-required</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="inlineStr">
+        <is>
+          <t>Disposal required</t>
+        </is>
+      </c>
       <c r="F143" s="2" t="inlineStr"/>
       <c r="G143" s="2" t="inlineStr"/>
       <c r="H143" s="2" t="inlineStr"/>
       <c r="I143" s="2" t="inlineStr"/>
       <c r="J143" s="2" t="inlineStr"/>
       <c r="K143" s="2" t="inlineStr"/>
-      <c r="L143" s="2" t="inlineStr"/>
-      <c r="M143" s="2" t="inlineStr"/>
-      <c r="N143" s="2" t="inlineStr"/>
+      <c r="L143" s="2" t="inlineStr">
+        <is>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+        </is>
+      </c>
+      <c r="M143" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N143" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B144" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A144" s="2" t="n"/>
+      <c r="B144" s="2" t="n"/>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D144" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E144" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>parking-space-type</t>
-        </is>
-      </c>
-      <c r="G144" s="2" t="inlineStr">
-        <is>
-          <t>Parking space type</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F144" s="2" t="inlineStr"/>
+      <c r="G144" s="2" t="inlineStr"/>
       <c r="H144" s="2" t="inlineStr"/>
       <c r="I144" s="2" t="inlineStr"/>
       <c r="J144" s="2" t="inlineStr"/>
       <c r="K144" s="2" t="inlineStr"/>
       <c r="L144" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M144" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N144" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="n"/>
-      <c r="B145" s="2" t="n"/>
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr">
-        <is>
-          <t>parking-spaces</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-type-other</t>
-        </is>
-      </c>
-      <c r="G145" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type other</t>
-        </is>
-      </c>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr"/>
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
       <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr"/>
       <c r="J145" s="2" t="inlineStr"/>
       <c r="K145" s="2" t="inlineStr"/>
-      <c r="L145" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle type when parking space type is 'other'</t>
-        </is>
-      </c>
-      <c r="M145" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N145" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L145" s="2" t="inlineStr"/>
+      <c r="M145" s="2" t="inlineStr"/>
+      <c r="N145" s="2" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="n"/>
-      <c r="B146" s="2" t="n"/>
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Vehicle parking</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>vehicle-parking</t>
+        </is>
+      </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -7463,12 +7463,12 @@
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>parking-space-type</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Parking space type</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -7477,12 +7477,12 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Type of parking space or vehicle type</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
@@ -7511,12 +7511,12 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -7525,17 +7525,17 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7559,12 @@
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>difference-in-spaces</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Difference in spaces</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -7573,7 +7573,7 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
@@ -7588,50 +7588,50 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A149" s="2" t="n"/>
+      <c r="B149" s="2" t="n"/>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F149" s="2" t="inlineStr">
+        <is>
+          <t>total-proposed</t>
+        </is>
+      </c>
+      <c r="G149" s="2" t="inlineStr">
+        <is>
+          <t>Total proposed</t>
+        </is>
+      </c>
       <c r="H149" s="2" t="inlineStr"/>
       <c r="I149" s="2" t="inlineStr"/>
       <c r="J149" s="2" t="inlineStr"/>
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N149" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7640,36 +7640,132 @@
       <c r="B150" s="2" t="n"/>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>separate-recycling-arrangements-details</t>
+          <t>parking-spaces</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr">
+        <is>
+          <t>difference-in-spaces</t>
+        </is>
+      </c>
+      <c r="G150" s="2" t="inlineStr">
+        <is>
+          <t>Difference in spaces</t>
+        </is>
+      </c>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
+          <t>Net change in parking spaces (proposed minus existing)</t>
+        </is>
+      </c>
+      <c r="M150" s="2" t="inlineStr">
+        <is>
+          <t>number</t>
+        </is>
+      </c>
+      <c r="N150" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
+      <c r="C151" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
+      <c r="D151" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-area-details</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr"/>
+      <c r="H151" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr"/>
+      <c r="J151" s="2" t="inlineStr"/>
+      <c r="K151" s="2" t="inlineStr"/>
+      <c r="L151" s="2" t="inlineStr">
+        <is>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+        </is>
+      </c>
+      <c r="M151" s="2" t="inlineStr">
+        <is>
+          <t>string</t>
+        </is>
+      </c>
+      <c r="N151" s="2" t="inlineStr">
+        <is>
+          <t>MAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n"/>
+      <c r="B152" s="2" t="n"/>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>separate-recycling-arrangements-details</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr">
+        <is>
+          <t>Separate recycling arrangements details</t>
+        </is>
+      </c>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr"/>
+      <c r="I152" s="2" t="inlineStr"/>
+      <c r="J152" s="2" t="inlineStr"/>
+      <c r="K152" s="2" t="inlineStr"/>
+      <c r="L152" s="2" t="inlineStr">
+        <is>
           <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
-      <c r="M150" s="2" t="inlineStr">
+      <c r="M152" s="2" t="inlineStr">
         <is>
           <t>string</t>
         </is>
       </c>
-      <c r="N150" s="2" t="inlineStr">
+      <c r="N152" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7678,67 +7774,67 @@
   </sheetData>
   <mergeCells count="62">
     <mergeCell ref="B49"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B135:B140"/>
-    <mergeCell ref="B143"/>
+    <mergeCell ref="A97:A108"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="A91"/>
+    <mergeCell ref="A109"/>
     <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A149:A150"/>
     <mergeCell ref="A81"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="B77:B80"/>
-    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="B146:B150"/>
     <mergeCell ref="B71:B76"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
     <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B97:B106"/>
+    <mergeCell ref="B128:B136"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A126:A134"/>
+    <mergeCell ref="A137:A142"/>
     <mergeCell ref="A48"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B108:B123"/>
+    <mergeCell ref="B151:B152"/>
     <mergeCell ref="A61:A70"/>
     <mergeCell ref="B39:B44"/>
     <mergeCell ref="B91"/>
-    <mergeCell ref="A143"/>
+    <mergeCell ref="B109"/>
+    <mergeCell ref="A126:A127"/>
     <mergeCell ref="A49"/>
     <mergeCell ref="B81"/>
     <mergeCell ref="A82"/>
-    <mergeCell ref="A107"/>
     <mergeCell ref="B90"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B97:B108"/>
+    <mergeCell ref="B110:B125"/>
     <mergeCell ref="B54:B60"/>
     <mergeCell ref="B27:B34"/>
+    <mergeCell ref="A151:A152"/>
     <mergeCell ref="B83:B89"/>
     <mergeCell ref="A71:A76"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A141:A142"/>
     <mergeCell ref="A92:A96"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="B61:B70"/>
-    <mergeCell ref="B144:B148"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="B126:B134"/>
+    <mergeCell ref="A110:A125"/>
     <mergeCell ref="A83:A89"/>
-    <mergeCell ref="A135:A140"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="B107"/>
+    <mergeCell ref="B137:B142"/>
     <mergeCell ref="A90"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="B145"/>
     <mergeCell ref="A54:A60"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="A145"/>
     <mergeCell ref="B82"/>
     <mergeCell ref="A77:A80"/>
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A108:A123"/>
+    <mergeCell ref="A146:A150"/>
     <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A144:A148"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A97:A106"/>
+    <mergeCell ref="A128:A136"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3500,56 +3500,64 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="n"/>
-      <c r="B60" s="2" t="n"/>
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Existing use</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>existing-use</t>
+        </is>
+      </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>How the proposed development will impact existing and proposed employee numbers</t>
+          <t>How the site is currently being used.</t>
         </is>
       </c>
       <c r="D60" s="2" t="inlineStr">
         <is>
-          <t>employment-impact</t>
+          <t>existing-use-details</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>Employment impact</t>
-        </is>
-      </c>
-      <c r="F60" s="2" t="inlineStr"/>
-      <c r="G60" s="2" t="inlineStr"/>
+          <t>Existing use details[]</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>use</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>Use</t>
+        </is>
+      </c>
       <c r="H60" s="2" t="inlineStr"/>
       <c r="I60" s="2" t="inlineStr"/>
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Summary of net employment change (gain/loss)</t>
+          <t>A use class or type of use</t>
         </is>
       </c>
       <c r="M60" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N60" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>Existing use</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>existing-use</t>
-        </is>
-      </c>
+      <c r="A61" s="2" t="n"/>
+      <c r="B61" s="2" t="n"/>
       <c r="C61" s="2" t="inlineStr">
         <is>
           <t>How the site is currently being used.</t>
@@ -3567,12 +3575,12 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>use</t>
+          <t>use-details</t>
         </is>
       </c>
       <c r="G61" s="2" t="inlineStr">
         <is>
-          <t>Use</t>
+          <t>Use details</t>
         </is>
       </c>
       <c r="H61" s="2" t="inlineStr"/>
@@ -3581,17 +3589,17 @@
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>A use class or type of use</t>
+          <t>Further detail of the use</t>
         </is>
       </c>
       <c r="M61" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N61" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3615,12 +3623,12 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>use-details</t>
+          <t>land-part</t>
         </is>
       </c>
       <c r="G62" s="2" t="inlineStr">
         <is>
-          <t>Use details</t>
+          <t>Land part</t>
         </is>
       </c>
       <c r="H62" s="2" t="inlineStr"/>
@@ -3629,7 +3637,7 @@
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Further detail of the use</t>
+          <t>Which part of the land the use relates to</t>
         </is>
       </c>
       <c r="M62" s="2" t="inlineStr">
@@ -3639,7 +3647,7 @@
       </c>
       <c r="N62" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3653,36 +3661,28 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>existing-use-details</t>
+          <t>site-vacant</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>Existing use details[]</t>
-        </is>
-      </c>
-      <c r="F63" s="2" t="inlineStr">
-        <is>
-          <t>land-part</t>
-        </is>
-      </c>
-      <c r="G63" s="2" t="inlineStr">
-        <is>
-          <t>Land part</t>
-        </is>
-      </c>
+          <t>Site vacant</t>
+        </is>
+      </c>
+      <c r="F63" s="2" t="inlineStr"/>
+      <c r="G63" s="2" t="inlineStr"/>
       <c r="H63" s="2" t="inlineStr"/>
       <c r="I63" s="2" t="inlineStr"/>
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr">
         <is>
-          <t>Which part of the land the use relates to</t>
+          <t>Is the site currently vacant</t>
         </is>
       </c>
       <c r="M63" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N63" s="2" t="inlineStr">
@@ -3701,12 +3701,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>site-vacant</t>
+          <t>last-use-details</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>Site vacant</t>
+          <t>Last use details</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr"/>
@@ -3717,17 +3717,17 @@
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr">
         <is>
-          <t>Is the site currently vacant</t>
+          <t>Description of the last use of the site</t>
         </is>
       </c>
       <c r="M64" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N64" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -3741,12 +3741,12 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>last-use-details</t>
+          <t>last-use-end-date</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>Last use details</t>
+          <t>Last use end date</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr"/>
@@ -3757,12 +3757,12 @@
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr">
         <is>
-          <t>Description of the last use of the site</t>
+          <t>Date the last use ended (YYYY-MM-DD format)</t>
         </is>
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>last-use-end-date</t>
+          <t>is-contaminated-land</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>Last use end date</t>
+          <t>Is contaminated land</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr"/>
@@ -3797,17 +3797,17 @@
       <c r="K66" s="2" t="inlineStr"/>
       <c r="L66" s="2" t="inlineStr">
         <is>
-          <t>Date the last use ended (YYYY-MM-DD format)</t>
+          <t>Is the site known to be contaminated?</t>
         </is>
       </c>
       <c r="M66" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N66" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -3821,12 +3821,12 @@
       </c>
       <c r="D67" s="2" t="inlineStr">
         <is>
-          <t>is-contaminated-land</t>
+          <t>is-suspected-contaminated-land</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>Is contaminated land</t>
+          <t>Is suspected contaminated land</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr"/>
@@ -3837,7 +3837,7 @@
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr">
         <is>
-          <t>Is the site known to be contaminated?</t>
+          <t>Is the site suspected of contamination?</t>
         </is>
       </c>
       <c r="M67" s="2" t="inlineStr">
@@ -3861,12 +3861,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>is-suspected-contaminated-land</t>
+          <t>proposed-use-contamination-risk</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>Is suspected contaminated land</t>
+          <t>Proposed use contamination risk</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr"/>
@@ -3877,7 +3877,7 @@
       <c r="K68" s="2" t="inlineStr"/>
       <c r="L68" s="2" t="inlineStr">
         <is>
-          <t>Is the site suspected of contamination?</t>
+          <t>Is the proposed use vulnerable to the presence of contamination?</t>
         </is>
       </c>
       <c r="M68" s="2" t="inlineStr">
@@ -3901,12 +3901,12 @@
       </c>
       <c r="D69" s="2" t="inlineStr">
         <is>
-          <t>proposed-use-contamination-risk</t>
+          <t>contamination-assessment</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>Proposed use contamination risk</t>
+          <t>Contamination assessment</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr"/>
@@ -3917,36 +3917,44 @@
       <c r="K69" s="2" t="inlineStr"/>
       <c r="L69" s="2" t="inlineStr">
         <is>
-          <t>Is the proposed use vulnerable to the presence of contamination?</t>
+          <t>Reference to contamination assessment document</t>
         </is>
       </c>
       <c r="M69" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N69" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="n"/>
-      <c r="B70" s="2" t="n"/>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Flood risk assessment</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>flood-risk-assessment</t>
+        </is>
+      </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>How the site is currently being used.</t>
+          <t>Results of any flood risk assessments made for the development site</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>contamination-assessment</t>
+          <t>flood-risk-area</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr">
         <is>
-          <t>Contamination assessment</t>
+          <t>Flood risk area</t>
         </is>
       </c>
       <c r="F70" s="2" t="inlineStr"/>
@@ -3957,31 +3965,23 @@
       <c r="K70" s="2" t="inlineStr"/>
       <c r="L70" s="2" t="inlineStr">
         <is>
-          <t>Reference to contamination assessment document</t>
+          <t>Is the site within an area at risk of flooding?</t>
         </is>
       </c>
       <c r="M70" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N70" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="inlineStr">
-        <is>
-          <t>Flood risk assessment</t>
-        </is>
-      </c>
-      <c r="B71" s="2" t="inlineStr">
-        <is>
-          <t>flood-risk-assessment</t>
-        </is>
-      </c>
+      <c r="A71" s="2" t="n"/>
+      <c r="B71" s="2" t="n"/>
       <c r="C71" s="2" t="inlineStr">
         <is>
           <t>Results of any flood risk assessments made for the development site</t>
@@ -3989,12 +3989,12 @@
       </c>
       <c r="D71" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-area</t>
+          <t>data-provided-by</t>
         </is>
       </c>
       <c r="E71" s="2" t="inlineStr">
         <is>
-          <t>Flood risk area</t>
+          <t>Data provided by</t>
         </is>
       </c>
       <c r="F71" s="2" t="inlineStr"/>
@@ -4005,17 +4005,17 @@
       <c r="K71" s="2" t="inlineStr"/>
       <c r="L71" s="2" t="inlineStr">
         <is>
-          <t>Is the site within an area at risk of flooding?</t>
+          <t>Who provided the data: Applicant or System/Service?</t>
         </is>
       </c>
       <c r="M71" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N71" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4029,12 +4029,12 @@
       </c>
       <c r="D72" s="2" t="inlineStr">
         <is>
-          <t>data-provided-by</t>
+          <t>flood-risk-assessment</t>
         </is>
       </c>
       <c r="E72" s="2" t="inlineStr">
         <is>
-          <t>Data provided by</t>
+          <t>Flood risk assessment</t>
         </is>
       </c>
       <c r="F72" s="2" t="inlineStr"/>
@@ -4045,12 +4045,12 @@
       <c r="K72" s="2" t="inlineStr"/>
       <c r="L72" s="2" t="inlineStr">
         <is>
-          <t>Who provided the data: Applicant or System/Service?</t>
+          <t>Reference of the flood risk assessment document</t>
         </is>
       </c>
       <c r="M72" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N72" s="2" t="inlineStr">
@@ -4069,12 +4069,12 @@
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>flood-risk-assessment</t>
+          <t>within-20m-watercourse</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr">
         <is>
-          <t>Flood risk assessment</t>
+          <t>Within 20m watercourse</t>
         </is>
       </c>
       <c r="F73" s="2" t="inlineStr"/>
@@ -4085,17 +4085,17 @@
       <c r="K73" s="2" t="inlineStr"/>
       <c r="L73" s="2" t="inlineStr">
         <is>
-          <t>Reference of the flood risk assessment document</t>
+          <t>Whether the development is within 20 metres of a watercourse</t>
         </is>
       </c>
       <c r="M73" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N73" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4109,12 +4109,12 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>within-20m-watercourse</t>
+          <t>increases-flood-risk</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr">
         <is>
-          <t>Within 20m watercourse</t>
+          <t>Increases flood risk</t>
         </is>
       </c>
       <c r="F74" s="2" t="inlineStr"/>
@@ -4125,7 +4125,7 @@
       <c r="K74" s="2" t="inlineStr"/>
       <c r="L74" s="2" t="inlineStr">
         <is>
-          <t>Whether the development is within 20 metres of a watercourse</t>
+          <t>Whether the development increases flood risk</t>
         </is>
       </c>
       <c r="M74" s="2" t="inlineStr">
@@ -4149,12 +4149,12 @@
       </c>
       <c r="D75" s="2" t="inlineStr">
         <is>
-          <t>increases-flood-risk</t>
+          <t>surface-water-disposal</t>
         </is>
       </c>
       <c r="E75" s="2" t="inlineStr">
         <is>
-          <t>Increases flood risk</t>
+          <t>Surface water disposal[]</t>
         </is>
       </c>
       <c r="F75" s="2" t="inlineStr"/>
@@ -4165,12 +4165,12 @@
       <c r="K75" s="2" t="inlineStr"/>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Whether the development increases flood risk</t>
+          <t>Method for disposing of surface water</t>
         </is>
       </c>
       <c r="M75" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N75" s="2" t="inlineStr">
@@ -4180,21 +4180,29 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="n"/>
-      <c r="B76" s="2" t="n"/>
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Foul sewage disposal</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>foul-sewage</t>
+        </is>
+      </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>Results of any flood risk assessments made for the development site</t>
+          <t>How waste water will leave the property as part of the proposed development</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
         <is>
-          <t>surface-water-disposal</t>
+          <t>has-new-disposal-arrangements</t>
         </is>
       </c>
       <c r="E76" s="2" t="inlineStr">
         <is>
-          <t>Surface water disposal[]</t>
+          <t>Has new disposal arrangements</t>
         </is>
       </c>
       <c r="F76" s="2" t="inlineStr"/>
@@ -4205,12 +4213,12 @@
       <c r="K76" s="2" t="inlineStr"/>
       <c r="L76" s="2" t="inlineStr">
         <is>
-          <t>Method for disposing of surface water</t>
+          <t>Does the proposal include any new foul sewage disposal arrangments</t>
         </is>
       </c>
       <c r="M76" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N76" s="2" t="inlineStr">
@@ -4220,16 +4228,8 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>Foul sewage disposal</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>foul-sewage</t>
-        </is>
-      </c>
+      <c r="A77" s="2" t="n"/>
+      <c r="B77" s="2" t="n"/>
       <c r="C77" s="2" t="inlineStr">
         <is>
           <t>How waste water will leave the property as part of the proposed development</t>
@@ -4237,12 +4237,12 @@
       </c>
       <c r="D77" s="2" t="inlineStr">
         <is>
-          <t>has-new-disposal-arrangements</t>
+          <t>foul-sewage-disposal-types</t>
         </is>
       </c>
       <c r="E77" s="2" t="inlineStr">
         <is>
-          <t>Has new disposal arrangements</t>
+          <t>Foul sewage disposal types[]</t>
         </is>
       </c>
       <c r="F77" s="2" t="inlineStr"/>
@@ -4253,17 +4253,17 @@
       <c r="K77" s="2" t="inlineStr"/>
       <c r="L77" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal include any new foul sewage disposal arrangments</t>
+          <t>List of ways foul sewage will be disposed of</t>
         </is>
       </c>
       <c r="M77" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N77" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4277,12 +4277,12 @@
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>foul-sewage-disposal-types</t>
+          <t>connect-to-drainage-system</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr">
         <is>
-          <t>Foul sewage disposal types[]</t>
+          <t>Connect to drainage system</t>
         </is>
       </c>
       <c r="F78" s="2" t="inlineStr"/>
@@ -4293,17 +4293,17 @@
       <c r="K78" s="2" t="inlineStr"/>
       <c r="L78" s="2" t="inlineStr">
         <is>
-          <t>List of ways foul sewage will be disposed of</t>
+          <t>Whether the proposal needs to connect to the existing drainage system</t>
         </is>
       </c>
       <c r="M78" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N78" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4317,28 +4317,36 @@
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>connect-to-drainage-system</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr">
         <is>
-          <t>Connect to drainage system</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H79" s="2" t="inlineStr"/>
       <c r="I79" s="2" t="inlineStr"/>
       <c r="J79" s="2" t="inlineStr"/>
       <c r="K79" s="2" t="inlineStr"/>
       <c r="L79" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal needs to connect to the existing drainage system</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M79" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N79" s="2" t="inlineStr">
@@ -4348,67 +4356,47 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="n"/>
-      <c r="B80" s="2" t="n"/>
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Hazardous substances</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>haz-substances</t>
+        </is>
+      </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>How waste water will leave the property as part of the proposed development</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Details of hazardous substances requiring consent used as part of the development</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr"/>
+      <c r="E80" s="2" t="inlineStr"/>
+      <c r="F80" s="2" t="inlineStr"/>
+      <c r="G80" s="2" t="inlineStr"/>
       <c r="H80" s="2" t="inlineStr"/>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr"/>
       <c r="K80" s="2" t="inlineStr"/>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>A unique reference for the data item</t>
-        </is>
-      </c>
-      <c r="M80" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N80" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L80" s="2" t="inlineStr"/>
+      <c r="M80" s="2" t="inlineStr"/>
+      <c r="N80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>Hazardous substances</t>
+          <t>Hours of operation</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>haz-substances</t>
+          <t>hrs-operation</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr">
         <is>
-          <t>Details of hazardous substances requiring consent used as part of the development</t>
+          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
         </is>
       </c>
       <c r="D81" s="2" t="inlineStr"/>
@@ -4426,42 +4414,62 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>Hours of operation</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>hrs-operation</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
         <is>
-          <t>Proposed operating hours if the proposed development is intended for non-residential use.</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr"/>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr"/>
-      <c r="G82" s="2" t="inlineStr"/>
+          <t>What materials are being used for the proposed development</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>building-elements</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="inlineStr">
+        <is>
+          <t>Building elements[]</t>
+        </is>
+      </c>
+      <c r="F82" s="2" t="inlineStr">
+        <is>
+          <t>building-element-type</t>
+        </is>
+      </c>
+      <c r="G82" s="2" t="inlineStr">
+        <is>
+          <t>Building element type</t>
+        </is>
+      </c>
       <c r="H82" s="2" t="inlineStr"/>
       <c r="I82" s="2" t="inlineStr"/>
       <c r="J82" s="2" t="inlineStr"/>
       <c r="K82" s="2" t="inlineStr"/>
-      <c r="L82" s="2" t="inlineStr"/>
-      <c r="M82" s="2" t="inlineStr"/>
-      <c r="N82" s="2" t="inlineStr"/>
+      <c r="L82" s="2" t="inlineStr">
+        <is>
+          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+        </is>
+      </c>
+      <c r="M82" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N82" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="inlineStr">
-        <is>
-          <t>Materials</t>
-        </is>
-      </c>
-      <c r="B83" s="2" t="inlineStr">
-        <is>
-          <t>materials</t>
-        </is>
-      </c>
+      <c r="A83" s="2" t="n"/>
+      <c r="B83" s="2" t="n"/>
       <c r="C83" s="2" t="inlineStr">
         <is>
           <t>What materials are being used for the proposed development</t>
@@ -4479,12 +4487,12 @@
       </c>
       <c r="F83" s="2" t="inlineStr">
         <is>
-          <t>building-element-type</t>
+          <t>existing-materials</t>
         </is>
       </c>
       <c r="G83" s="2" t="inlineStr">
         <is>
-          <t>Building element type</t>
+          <t>Existing materials</t>
         </is>
       </c>
       <c r="H83" s="2" t="inlineStr"/>
@@ -4493,17 +4501,17 @@
       <c r="K83" s="2" t="inlineStr"/>
       <c r="L83" s="2" t="inlineStr">
         <is>
-          <t>The part of building the materials relate to, such as walls, roofs, windows, or doors</t>
+          <t>Description of the materials currently used for this building element</t>
         </is>
       </c>
       <c r="M83" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N83" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4527,12 +4535,12 @@
       </c>
       <c r="F84" s="2" t="inlineStr">
         <is>
-          <t>existing-materials</t>
+          <t>proposed-materials</t>
         </is>
       </c>
       <c r="G84" s="2" t="inlineStr">
         <is>
-          <t>Existing materials</t>
+          <t>Proposed materials</t>
         </is>
       </c>
       <c r="H84" s="2" t="inlineStr"/>
@@ -4541,7 +4549,7 @@
       <c r="K84" s="2" t="inlineStr"/>
       <c r="L84" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials currently used for this building element</t>
+          <t>Description of the materials proposed for this building element as part of the development</t>
         </is>
       </c>
       <c r="M84" s="2" t="inlineStr">
@@ -4575,12 +4583,12 @@
       </c>
       <c r="F85" s="2" t="inlineStr">
         <is>
-          <t>proposed-materials</t>
+          <t>materials-not-applicable</t>
         </is>
       </c>
       <c r="G85" s="2" t="inlineStr">
         <is>
-          <t>Proposed materials</t>
+          <t>Materials not applicable</t>
         </is>
       </c>
       <c r="H85" s="2" t="inlineStr"/>
@@ -4589,12 +4597,12 @@
       <c r="K85" s="2" t="inlineStr"/>
       <c r="L85" s="2" t="inlineStr">
         <is>
-          <t>Description of the materials proposed for this building element as part of the development</t>
+          <t>Indicates this building element is not relevant to the application</t>
         </is>
       </c>
       <c r="M85" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N85" s="2" t="inlineStr">
@@ -4623,12 +4631,12 @@
       </c>
       <c r="F86" s="2" t="inlineStr">
         <is>
-          <t>materials-not-applicable</t>
+          <t>materials-not-known</t>
         </is>
       </c>
       <c r="G86" s="2" t="inlineStr">
         <is>
-          <t>Materials not applicable</t>
+          <t>Materials not known</t>
         </is>
       </c>
       <c r="H86" s="2" t="inlineStr"/>
@@ -4637,7 +4645,7 @@
       <c r="K86" s="2" t="inlineStr"/>
       <c r="L86" s="2" t="inlineStr">
         <is>
-          <t>Indicates this building element is not relevant to the application</t>
+          <t>Indicates the materials for this building element are not yet known</t>
         </is>
       </c>
       <c r="M86" s="2" t="inlineStr">
@@ -4661,31 +4669,23 @@
       </c>
       <c r="D87" s="2" t="inlineStr">
         <is>
-          <t>building-elements</t>
+          <t>providing-additional-material-information</t>
         </is>
       </c>
       <c r="E87" s="2" t="inlineStr">
         <is>
-          <t>Building elements[]</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>materials-not-known</t>
-        </is>
-      </c>
-      <c r="G87" s="2" t="inlineStr">
-        <is>
-          <t>Materials not known</t>
-        </is>
-      </c>
+          <t>Providing additional material information</t>
+        </is>
+      </c>
+      <c r="F87" s="2" t="inlineStr"/>
+      <c r="G87" s="2" t="inlineStr"/>
       <c r="H87" s="2" t="inlineStr"/>
       <c r="I87" s="2" t="inlineStr"/>
       <c r="J87" s="2" t="inlineStr"/>
       <c r="K87" s="2" t="inlineStr"/>
       <c r="L87" s="2" t="inlineStr">
         <is>
-          <t>Indicates the materials for this building element are not yet known</t>
+          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
         </is>
       </c>
       <c r="M87" s="2" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="N87" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -4709,28 +4709,36 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>providing-additional-material-information</t>
+          <t>supporting-documents</t>
         </is>
       </c>
       <c r="E88" s="2" t="inlineStr">
         <is>
-          <t>Providing additional material information</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr"/>
-      <c r="G88" s="2" t="inlineStr"/>
+          <t>Supporting documents[]</t>
+        </is>
+      </c>
+      <c r="F88" s="2" t="inlineStr">
+        <is>
+          <t>reference</t>
+        </is>
+      </c>
+      <c r="G88" s="2" t="inlineStr">
+        <is>
+          <t>Reference</t>
+        </is>
+      </c>
       <c r="H88" s="2" t="inlineStr"/>
       <c r="I88" s="2" t="inlineStr"/>
       <c r="J88" s="2" t="inlineStr"/>
       <c r="K88" s="2" t="inlineStr"/>
       <c r="L88" s="2" t="inlineStr">
         <is>
-          <t>Is the applicant providing additional materials information on submitted plan(s)/drawing(s)/design and access statement?</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M88" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N88" s="2" t="inlineStr">
@@ -4740,67 +4748,47 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="n"/>
-      <c r="B89" s="2" t="n"/>
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>Non residential floorspace</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>non-res-floorspace</t>
+        </is>
+      </c>
       <c r="C89" s="2" t="inlineStr">
         <is>
-          <t>What materials are being used for the proposed development</t>
-        </is>
-      </c>
-      <c r="D89" s="2" t="inlineStr">
-        <is>
-          <t>supporting-documents</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>Supporting documents[]</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="G89" s="2" t="inlineStr">
-        <is>
-          <t>Reference</t>
-        </is>
-      </c>
+          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="inlineStr"/>
+      <c r="E89" s="2" t="inlineStr"/>
+      <c r="F89" s="2" t="inlineStr"/>
+      <c r="G89" s="2" t="inlineStr"/>
       <c r="H89" s="2" t="inlineStr"/>
       <c r="I89" s="2" t="inlineStr"/>
       <c r="J89" s="2" t="inlineStr"/>
       <c r="K89" s="2" t="inlineStr"/>
-      <c r="L89" s="2" t="inlineStr">
-        <is>
-          <t>A unique reference for the data item</t>
-        </is>
-      </c>
-      <c r="M89" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N89" s="2" t="inlineStr">
-        <is>
-          <t>MUST</t>
-        </is>
-      </c>
+      <c r="L89" s="2" t="inlineStr"/>
+      <c r="M89" s="2" t="inlineStr"/>
+      <c r="N89" s="2" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>Non residential floorspace</t>
+          <t>Ownership certificates and agricultural land declaration</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>non-res-floorspace</t>
+          <t>ownership-certs</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t>Details of changes to non-residential floorspace in the proposed development.</t>
+          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr"/>
@@ -4818,42 +4806,54 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>Ownership certificates and agricultural land declaration</t>
+          <t>Pre-application advice</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>ownership-certs</t>
+          <t>pre-app-advice</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr">
         <is>
-          <t>Who will be affected by the proposal and whether they have been notified, such as agricultural tenants</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr"/>
-      <c r="E91" s="2" t="inlineStr"/>
+          <t>Details of pre-application advice previously received from the planning authority</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="inlineStr">
+        <is>
+          <t>advice-sought</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="inlineStr">
+        <is>
+          <t>Pre-application advice sought</t>
+        </is>
+      </c>
       <c r="F91" s="2" t="inlineStr"/>
       <c r="G91" s="2" t="inlineStr"/>
       <c r="H91" s="2" t="inlineStr"/>
       <c r="I91" s="2" t="inlineStr"/>
       <c r="J91" s="2" t="inlineStr"/>
       <c r="K91" s="2" t="inlineStr"/>
-      <c r="L91" s="2" t="inlineStr"/>
-      <c r="M91" s="2" t="inlineStr"/>
-      <c r="N91" s="2" t="inlineStr"/>
+      <c r="L91" s="2" t="inlineStr">
+        <is>
+          <t>Whether pre-application advice has been sought from the planning authority</t>
+        </is>
+      </c>
+      <c r="M91" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N91" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>Pre-application advice</t>
-        </is>
-      </c>
-      <c r="B92" s="2" t="inlineStr">
-        <is>
-          <t>pre-app-advice</t>
-        </is>
-      </c>
+      <c r="A92" s="2" t="n"/>
+      <c r="B92" s="2" t="n"/>
       <c r="C92" s="2" t="inlineStr">
         <is>
           <t>Details of pre-application advice previously received from the planning authority</t>
@@ -4861,12 +4861,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>advice-sought</t>
+          <t>officer-name</t>
         </is>
       </c>
       <c r="E92" s="2" t="inlineStr">
         <is>
-          <t>Pre-application advice sought</t>
+          <t>Officer name</t>
         </is>
       </c>
       <c r="F92" s="2" t="inlineStr"/>
@@ -4877,17 +4877,17 @@
       <c r="K92" s="2" t="inlineStr"/>
       <c r="L92" s="2" t="inlineStr">
         <is>
-          <t>Whether pre-application advice has been sought from the planning authority</t>
+          <t>Name of the planning officer who provided the pre-application advice</t>
         </is>
       </c>
       <c r="M92" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N92" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -4901,12 +4901,12 @@
       </c>
       <c r="D93" s="2" t="inlineStr">
         <is>
-          <t>officer-name</t>
+          <t>reference</t>
         </is>
       </c>
       <c r="E93" s="2" t="inlineStr">
         <is>
-          <t>Officer name</t>
+          <t>Reference</t>
         </is>
       </c>
       <c r="F93" s="2" t="inlineStr"/>
@@ -4917,7 +4917,7 @@
       <c r="K93" s="2" t="inlineStr"/>
       <c r="L93" s="2" t="inlineStr">
         <is>
-          <t>Name of the planning officer who provided the pre-application advice</t>
+          <t>A unique reference for the data item</t>
         </is>
       </c>
       <c r="M93" s="2" t="inlineStr">
@@ -4941,12 +4941,12 @@
       </c>
       <c r="D94" s="2" t="inlineStr">
         <is>
-          <t>reference</t>
+          <t>advice-date</t>
         </is>
       </c>
       <c r="E94" s="2" t="inlineStr">
         <is>
-          <t>Reference</t>
+          <t>Advice date</t>
         </is>
       </c>
       <c r="F94" s="2" t="inlineStr"/>
@@ -4957,7 +4957,7 @@
       <c r="K94" s="2" t="inlineStr"/>
       <c r="L94" s="2" t="inlineStr">
         <is>
-          <t>A unique reference for the data item</t>
+          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
         </is>
       </c>
       <c r="M94" s="2" t="inlineStr">
@@ -4981,12 +4981,12 @@
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t>advice-date</t>
+          <t>advice-summary</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr">
         <is>
-          <t>Advice date</t>
+          <t>Advice summary</t>
         </is>
       </c>
       <c r="F95" s="2" t="inlineStr"/>
@@ -4997,7 +4997,7 @@
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr">
         <is>
-          <t>Date when pre-application advice was received, in YYYY-MM-DD format</t>
+          <t>Summary of the pre-application advice received from the planning authority</t>
         </is>
       </c>
       <c r="M95" s="2" t="inlineStr">
@@ -5012,21 +5012,29 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="n"/>
-      <c r="B96" s="2" t="n"/>
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Processes machinery waste</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>processes-machinery-waste</t>
+        </is>
+      </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>Details of pre-application advice previously received from the planning authority</t>
+          <t>How waste will be managed on the site</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>advice-summary</t>
+          <t>site-activity-details</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr">
         <is>
-          <t>Advice summary</t>
+          <t>Site activity details</t>
         </is>
       </c>
       <c r="F96" s="2" t="inlineStr"/>
@@ -5037,7 +5045,7 @@
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr">
         <is>
-          <t>Summary of the pre-application advice received from the planning authority</t>
+          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
         </is>
       </c>
       <c r="M96" s="2" t="inlineStr">
@@ -5047,21 +5055,13 @@
       </c>
       <c r="N96" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>Processes machinery waste</t>
-        </is>
-      </c>
-      <c r="B97" s="2" t="inlineStr">
-        <is>
-          <t>processes-machinery-waste</t>
-        </is>
-      </c>
+      <c r="A97" s="2" t="n"/>
+      <c r="B97" s="2" t="n"/>
       <c r="C97" s="2" t="inlineStr">
         <is>
           <t>How waste will be managed on the site</t>
@@ -5069,12 +5069,12 @@
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>site-activity-details</t>
+          <t>proposal-waste-management</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr">
         <is>
-          <t>Site activity details</t>
+          <t>Proposal waste management</t>
         </is>
       </c>
       <c r="F97" s="2" t="inlineStr"/>
@@ -5085,12 +5085,12 @@
       <c r="K97" s="2" t="inlineStr"/>
       <c r="L97" s="2" t="inlineStr">
         <is>
-          <t>Description of activities, processes, and end products including site operations, plant, ventilation, and machinery</t>
+          <t>Whether the proposal involves waste management development</t>
         </is>
       </c>
       <c r="M97" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N97" s="2" t="inlineStr">
@@ -5109,28 +5109,36 @@
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>proposal-waste-management</t>
+          <t>waste-management</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr">
         <is>
-          <t>Proposal waste management</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr"/>
-      <c r="G98" s="2" t="inlineStr"/>
+          <t>Waste management[]</t>
+        </is>
+      </c>
+      <c r="F98" s="2" t="inlineStr">
+        <is>
+          <t>waste-management-facility-type</t>
+        </is>
+      </c>
+      <c r="G98" s="2" t="inlineStr">
+        <is>
+          <t>Waste management facility type</t>
+        </is>
+      </c>
       <c r="H98" s="2" t="inlineStr"/>
       <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr">
         <is>
-          <t>Whether the proposal involves waste management development</t>
+          <t>Type of waste management facility</t>
         </is>
       </c>
       <c r="M98" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N98" s="2" t="inlineStr">
@@ -5159,12 +5167,12 @@
       </c>
       <c r="F99" s="2" t="inlineStr">
         <is>
-          <t>waste-management-facility-type</t>
+          <t>not-applicable</t>
         </is>
       </c>
       <c r="G99" s="2" t="inlineStr">
         <is>
-          <t>Waste management facility type</t>
+          <t>Not applicable</t>
         </is>
       </c>
       <c r="H99" s="2" t="inlineStr"/>
@@ -5173,17 +5181,17 @@
       <c r="K99" s="2" t="inlineStr"/>
       <c r="L99" s="2" t="inlineStr">
         <is>
-          <t>Type of waste management facility</t>
+          <t>Whether the facility is not applicable</t>
         </is>
       </c>
       <c r="M99" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N99" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5207,12 +5215,12 @@
       </c>
       <c r="F100" s="2" t="inlineStr">
         <is>
-          <t>not-applicable</t>
+          <t>total-capacity</t>
         </is>
       </c>
       <c r="G100" s="2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>Total capacity</t>
         </is>
       </c>
       <c r="H100" s="2" t="inlineStr"/>
@@ -5221,12 +5229,12 @@
       <c r="K100" s="2" t="inlineStr"/>
       <c r="L100" s="2" t="inlineStr">
         <is>
-          <t>Whether the facility is not applicable</t>
+          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
         </is>
       </c>
       <c r="M100" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N100" s="2" t="inlineStr">
@@ -5255,12 +5263,12 @@
       </c>
       <c r="F101" s="2" t="inlineStr">
         <is>
-          <t>total-capacity</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G101" s="2" t="inlineStr">
         <is>
-          <t>Total capacity</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H101" s="2" t="inlineStr"/>
@@ -5269,12 +5277,12 @@
       <c r="K101" s="2" t="inlineStr"/>
       <c r="L101" s="2" t="inlineStr">
         <is>
-          <t>Total capacity of void in cubic metres (or tonnes/litres)</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M101" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N101" s="2" t="inlineStr">
@@ -5303,12 +5311,12 @@
       </c>
       <c r="F102" s="2" t="inlineStr">
         <is>
-          <t>unit-type</t>
+          <t>annual-throughput</t>
         </is>
       </c>
       <c r="G102" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Annual throughput</t>
         </is>
       </c>
       <c r="H102" s="2" t="inlineStr"/>
@@ -5317,12 +5325,12 @@
       <c r="K102" s="2" t="inlineStr"/>
       <c r="L102" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum annual operational throughput in tonnes/litres</t>
         </is>
       </c>
       <c r="M102" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N102" s="2" t="inlineStr">
@@ -5351,12 +5359,12 @@
       </c>
       <c r="F103" s="2" t="inlineStr">
         <is>
-          <t>annual-throughput</t>
+          <t>unit-type</t>
         </is>
       </c>
       <c r="G103" s="2" t="inlineStr">
         <is>
-          <t>Annual throughput</t>
+          <t>Unit type</t>
         </is>
       </c>
       <c r="H103" s="2" t="inlineStr"/>
@@ -5365,12 +5373,12 @@
       <c r="K103" s="2" t="inlineStr"/>
       <c r="L103" s="2" t="inlineStr">
         <is>
-          <t>Maximum annual operational throughput in tonnes/litres</t>
+          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
         </is>
       </c>
       <c r="M103" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N103" s="2" t="inlineStr">
@@ -5389,22 +5397,22 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>waste-management</t>
+          <t>waste-streams</t>
         </is>
       </c>
       <c r="E104" s="2" t="inlineStr">
         <is>
-          <t>Waste management[]</t>
+          <t>Waste streams throughput</t>
         </is>
       </c>
       <c r="F104" s="2" t="inlineStr">
         <is>
-          <t>unit-type</t>
+          <t>municipal</t>
         </is>
       </c>
       <c r="G104" s="2" t="inlineStr">
         <is>
-          <t>Unit type</t>
+          <t>Municipal</t>
         </is>
       </c>
       <c r="H104" s="2" t="inlineStr"/>
@@ -5413,12 +5421,12 @@
       <c r="K104" s="2" t="inlineStr"/>
       <c r="L104" s="2" t="inlineStr">
         <is>
-          <t>Unit for capacity/throughput (e.g. cubic metres, tonnes, litres)</t>
+          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M104" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N104" s="2" t="inlineStr">
@@ -5447,12 +5455,12 @@
       </c>
       <c r="F105" s="2" t="inlineStr">
         <is>
-          <t>municipal</t>
+          <t>construction-demolition</t>
         </is>
       </c>
       <c r="G105" s="2" t="inlineStr">
         <is>
-          <t>Municipal</t>
+          <t>Construction demolition</t>
         </is>
       </c>
       <c r="H105" s="2" t="inlineStr"/>
@@ -5461,7 +5469,7 @@
       <c r="K105" s="2" t="inlineStr"/>
       <c r="L105" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for municipal waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M105" s="2" t="inlineStr">
@@ -5495,12 +5503,12 @@
       </c>
       <c r="F106" s="2" t="inlineStr">
         <is>
-          <t>construction-demolition</t>
+          <t>commercial-industrial</t>
         </is>
       </c>
       <c r="G106" s="2" t="inlineStr">
         <is>
-          <t>Construction demolition</t>
+          <t>Commercial industrial</t>
         </is>
       </c>
       <c r="H106" s="2" t="inlineStr"/>
@@ -5509,7 +5517,7 @@
       <c r="K106" s="2" t="inlineStr"/>
       <c r="L106" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for construction and demolition waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M106" s="2" t="inlineStr">
@@ -5543,12 +5551,12 @@
       </c>
       <c r="F107" s="2" t="inlineStr">
         <is>
-          <t>commercial-industrial</t>
+          <t>hazardous</t>
         </is>
       </c>
       <c r="G107" s="2" t="inlineStr">
         <is>
-          <t>Commercial industrial</t>
+          <t>Hazardous</t>
         </is>
       </c>
       <c r="H107" s="2" t="inlineStr"/>
@@ -5557,7 +5565,7 @@
       <c r="K107" s="2" t="inlineStr"/>
       <c r="L107" s="2" t="inlineStr">
         <is>
-          <t>Maximum throughput for commercial and industrial waste (annual throughput in tonnes/litres)</t>
+          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
         </is>
       </c>
       <c r="M107" s="2" t="inlineStr">
@@ -5572,92 +5580,84 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="n"/>
-      <c r="B108" s="2" t="n"/>
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Description of the proposal</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>proposal-details</t>
+        </is>
+      </c>
       <c r="C108" s="2" t="inlineStr">
         <is>
-          <t>How waste will be managed on the site</t>
-        </is>
-      </c>
-      <c r="D108" s="2" t="inlineStr">
-        <is>
-          <t>waste-streams</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>Waste streams throughput</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t>hazardous</t>
-        </is>
-      </c>
-      <c r="G108" s="2" t="inlineStr">
-        <is>
-          <t>Hazardous</t>
-        </is>
-      </c>
+          <t>What development, works or change of use is proposed</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr"/>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
       <c r="H108" s="2" t="inlineStr"/>
       <c r="I108" s="2" t="inlineStr"/>
       <c r="J108" s="2" t="inlineStr"/>
       <c r="K108" s="2" t="inlineStr"/>
-      <c r="L108" s="2" t="inlineStr">
-        <is>
-          <t>Maximum throughput for hazardous waste (annual throughput in tonnes/litres)</t>
-        </is>
-      </c>
-      <c r="M108" s="2" t="inlineStr">
-        <is>
-          <t>number</t>
-        </is>
-      </c>
-      <c r="N108" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L108" s="2" t="inlineStr"/>
+      <c r="M108" s="2" t="inlineStr"/>
+      <c r="N108" s="2" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>Description of the proposal</t>
+          <t>Residential units</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>proposal-details</t>
+          <t>res-units</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>What development, works or change of use is proposed</t>
-        </is>
-      </c>
-      <c r="D109" s="2" t="inlineStr"/>
-      <c r="E109" s="2" t="inlineStr"/>
+          <t>Details of the residential units that make up both the current and proposed development.</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>will-residential-units-change</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="inlineStr">
+        <is>
+          <t>Residential unit change</t>
+        </is>
+      </c>
       <c r="F109" s="2" t="inlineStr"/>
       <c r="G109" s="2" t="inlineStr"/>
       <c r="H109" s="2" t="inlineStr"/>
       <c r="I109" s="2" t="inlineStr"/>
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
-      <c r="L109" s="2" t="inlineStr"/>
-      <c r="M109" s="2" t="inlineStr"/>
-      <c r="N109" s="2" t="inlineStr"/>
+      <c r="L109" s="2" t="inlineStr">
+        <is>
+          <t>Proposal includes the gain, loss or change of use of residential units</t>
+        </is>
+      </c>
+      <c r="M109" s="2" t="inlineStr">
+        <is>
+          <t>boolean</t>
+        </is>
+      </c>
+      <c r="N109" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="inlineStr">
-        <is>
-          <t>Residential units</t>
-        </is>
-      </c>
-      <c r="B110" s="2" t="inlineStr">
-        <is>
-          <t>res-units</t>
-        </is>
-      </c>
+      <c r="A110" s="2" t="n"/>
+      <c r="B110" s="2" t="n"/>
       <c r="C110" s="2" t="inlineStr">
         <is>
           <t>Details of the residential units that make up both the current and proposed development.</t>
@@ -5665,28 +5665,36 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>will-residential-units-change</t>
+          <t>residential-unit-summary</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr">
         <is>
-          <t>Residential unit change</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr"/>
+          <t>Residential unit summary[]</t>
+        </is>
+      </c>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>tenure-type</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr">
+        <is>
+          <t>Tenure type</t>
+        </is>
+      </c>
       <c r="H110" s="2" t="inlineStr"/>
       <c r="I110" s="2" t="inlineStr"/>
       <c r="J110" s="2" t="inlineStr"/>
       <c r="K110" s="2" t="inlineStr"/>
       <c r="L110" s="2" t="inlineStr">
         <is>
-          <t>Proposal includes the gain, loss or change of use of residential units</t>
+          <t>Category of housing tenure</t>
         </is>
       </c>
       <c r="M110" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N110" s="2" t="inlineStr">
@@ -5715,12 +5723,12 @@
       </c>
       <c r="F111" s="2" t="inlineStr">
         <is>
-          <t>tenure-type</t>
+          <t>housing-type</t>
         </is>
       </c>
       <c r="G111" s="2" t="inlineStr">
         <is>
-          <t>Tenure type</t>
+          <t>Housing type</t>
         </is>
       </c>
       <c r="H111" s="2" t="inlineStr"/>
@@ -5729,7 +5737,7 @@
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr">
         <is>
-          <t>Category of housing tenure</t>
+          <t>Type of housing</t>
         </is>
       </c>
       <c r="M111" s="2" t="inlineStr">
@@ -5763,26 +5771,34 @@
       </c>
       <c r="F112" s="2" t="inlineStr">
         <is>
-          <t>housing-type</t>
+          <t>existing-unit-breakdown</t>
         </is>
       </c>
       <c r="G112" s="2" t="inlineStr">
         <is>
-          <t>Housing type</t>
-        </is>
-      </c>
-      <c r="H112" s="2" t="inlineStr"/>
-      <c r="I112" s="2" t="inlineStr"/>
+          <t>Existing unit breakdown[]</t>
+        </is>
+      </c>
+      <c r="H112" s="2" t="inlineStr">
+        <is>
+          <t>units-unknown</t>
+        </is>
+      </c>
+      <c r="I112" s="2" t="inlineStr">
+        <is>
+          <t>Units unknown</t>
+        </is>
+      </c>
       <c r="J112" s="2" t="inlineStr"/>
       <c r="K112" s="2" t="inlineStr"/>
       <c r="L112" s="2" t="inlineStr">
         <is>
-          <t>Type of housing</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M112" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N112" s="2" t="inlineStr">
@@ -5821,19 +5837,27 @@
       </c>
       <c r="H113" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I113" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J113" s="2" t="inlineStr"/>
-      <c r="K113" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L113" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M113" s="2" t="inlineStr">
@@ -5887,27 +5911,27 @@
       </c>
       <c r="J114" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K114" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L114" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M114" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N114" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -5951,17 +5975,17 @@
       </c>
       <c r="J115" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K115" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L115" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M115" s="2" t="inlineStr">
@@ -5971,7 +5995,7 @@
       </c>
       <c r="N115" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6005,27 +6029,19 @@
       </c>
       <c r="H116" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I116" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J116" s="2" t="inlineStr"/>
+      <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M116" s="2" t="inlineStr">
@@ -6035,7 +6051,7 @@
       </c>
       <c r="N116" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6059,39 +6075,39 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>existing-unit-breakdown</t>
+          <t>proposed-unit-breakdown</t>
         </is>
       </c>
       <c r="G117" s="2" t="inlineStr">
         <is>
-          <t>Existing unit breakdown[]</t>
+          <t>Proposed unit breakdown[]</t>
         </is>
       </c>
       <c r="H117" s="2" t="inlineStr">
         <is>
-          <t>total-units</t>
+          <t>units-unknown</t>
         </is>
       </c>
       <c r="I117" s="2" t="inlineStr">
         <is>
-          <t>Total units</t>
+          <t>Units unknown</t>
         </is>
       </c>
       <c r="J117" s="2" t="inlineStr"/>
       <c r="K117" s="2" t="inlineStr"/>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>Whether the number of units is unknown</t>
         </is>
       </c>
       <c r="M117" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N117" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6125,19 +6141,27 @@
       </c>
       <c r="H118" s="2" t="inlineStr">
         <is>
-          <t>units-unknown</t>
+          <t>units-per-bedroom-no</t>
         </is>
       </c>
       <c r="I118" s="2" t="inlineStr">
         <is>
-          <t>Units unknown</t>
-        </is>
-      </c>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
+          <t>Units per bedroom number[]</t>
+        </is>
+      </c>
+      <c r="J118" s="2" t="inlineStr">
+        <is>
+          <t>no-bedrooms-unknown</t>
+        </is>
+      </c>
+      <c r="K118" s="2" t="inlineStr">
+        <is>
+          <t>No bedrooms unknown</t>
+        </is>
+      </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Whether the number of units is unknown</t>
+          <t>Set to true when counting units where bedroom number is unknown</t>
         </is>
       </c>
       <c r="M118" s="2" t="inlineStr">
@@ -6191,27 +6215,27 @@
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>no-bedrooms-unknown</t>
+          <t>no-of-bedrooms</t>
         </is>
       </c>
       <c r="K119" s="2" t="inlineStr">
         <is>
-          <t>No bedrooms unknown</t>
+          <t>Number of bedrooms</t>
         </is>
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Set to true when counting units where bedroom number is unknown</t>
+          <t>The number of bedrooms in unit</t>
         </is>
       </c>
       <c r="M119" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N119" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6255,17 +6279,17 @@
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>no-of-bedrooms</t>
+          <t>units</t>
         </is>
       </c>
       <c r="K120" s="2" t="inlineStr">
         <is>
-          <t>Number of bedrooms</t>
+          <t>Units</t>
         </is>
       </c>
       <c r="L120" s="2" t="inlineStr">
         <is>
-          <t>The number of bedrooms in unit</t>
+          <t>The number of units of that bedroom count</t>
         </is>
       </c>
       <c r="M120" s="2" t="inlineStr">
@@ -6275,7 +6299,7 @@
       </c>
       <c r="N120" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6309,27 +6333,19 @@
       </c>
       <c r="H121" s="2" t="inlineStr">
         <is>
-          <t>units-per-bedroom-no</t>
+          <t>total-units</t>
         </is>
       </c>
       <c r="I121" s="2" t="inlineStr">
         <is>
-          <t>Units per bedroom number[]</t>
-        </is>
-      </c>
-      <c r="J121" s="2" t="inlineStr">
-        <is>
-          <t>units</t>
-        </is>
-      </c>
-      <c r="K121" s="2" t="inlineStr">
-        <is>
-          <t>Units</t>
-        </is>
-      </c>
+          <t>Total units</t>
+        </is>
+      </c>
+      <c r="J121" s="2" t="inlineStr"/>
+      <c r="K121" s="2" t="inlineStr"/>
       <c r="L121" s="2" t="inlineStr">
         <is>
-          <t>The number of units of that bedroom count</t>
+          <t>Total number of units</t>
         </is>
       </c>
       <c r="M121" s="2" t="inlineStr">
@@ -6339,7 +6355,7 @@
       </c>
       <c r="N121" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -6353,39 +6369,23 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>residential-unit-summary</t>
+          <t>total-existing-units</t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr">
         <is>
-          <t>Residential unit summary[]</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>proposed-unit-breakdown</t>
-        </is>
-      </c>
-      <c r="G122" s="2" t="inlineStr">
-        <is>
-          <t>Proposed unit breakdown[]</t>
-        </is>
-      </c>
-      <c r="H122" s="2" t="inlineStr">
-        <is>
-          <t>total-units</t>
-        </is>
-      </c>
-      <c r="I122" s="2" t="inlineStr">
-        <is>
-          <t>Total units</t>
-        </is>
-      </c>
+          <t>Total existing units</t>
+        </is>
+      </c>
+      <c r="F122" s="2" t="inlineStr"/>
+      <c r="G122" s="2" t="inlineStr"/>
+      <c r="H122" s="2" t="inlineStr"/>
+      <c r="I122" s="2" t="inlineStr"/>
       <c r="J122" s="2" t="inlineStr"/>
       <c r="K122" s="2" t="inlineStr"/>
       <c r="L122" s="2" t="inlineStr">
         <is>
-          <t>Total number of units</t>
+          <t>The total number of existing units</t>
         </is>
       </c>
       <c r="M122" s="2" t="inlineStr">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="N122" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -6409,12 +6409,12 @@
       </c>
       <c r="D123" s="2" t="inlineStr">
         <is>
-          <t>total-existing-units</t>
+          <t>total-proposed-units</t>
         </is>
       </c>
       <c r="E123" s="2" t="inlineStr">
         <is>
-          <t>Total existing units</t>
+          <t>Total proposed units</t>
         </is>
       </c>
       <c r="F123" s="2" t="inlineStr"/>
@@ -6425,7 +6425,7 @@
       <c r="K123" s="2" t="inlineStr"/>
       <c r="L123" s="2" t="inlineStr">
         <is>
-          <t>The total number of existing units</t>
+          <t>The total number of proposed units</t>
         </is>
       </c>
       <c r="M123" s="2" t="inlineStr">
@@ -6449,12 +6449,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>total-proposed-units</t>
+          <t>net-change</t>
         </is>
       </c>
       <c r="E124" s="2" t="inlineStr">
         <is>
-          <t>Total proposed units</t>
+          <t>Net change</t>
         </is>
       </c>
       <c r="F124" s="2" t="inlineStr"/>
@@ -6465,7 +6465,7 @@
       <c r="K124" s="2" t="inlineStr"/>
       <c r="L124" s="2" t="inlineStr">
         <is>
-          <t>The total number of proposed units</t>
+          <t>Calculated net change in units</t>
         </is>
       </c>
       <c r="M124" s="2" t="inlineStr">
@@ -6480,21 +6480,29 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="n"/>
-      <c r="B125" s="2" t="n"/>
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>Site area</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>site-area</t>
+        </is>
+      </c>
       <c r="C125" s="2" t="inlineStr">
         <is>
-          <t>Details of the residential units that make up both the current and proposed development.</t>
+          <t>How big the site is including relevant measurements</t>
         </is>
       </c>
       <c r="D125" s="2" t="inlineStr">
         <is>
-          <t>net-change</t>
+          <t>site-area-in-hectares</t>
         </is>
       </c>
       <c r="E125" s="2" t="inlineStr">
         <is>
-          <t>Net change</t>
+          <t>Site area in hectares</t>
         </is>
       </c>
       <c r="F125" s="2" t="inlineStr"/>
@@ -6505,7 +6513,7 @@
       <c r="K125" s="2" t="inlineStr"/>
       <c r="L125" s="2" t="inlineStr">
         <is>
-          <t>Calculated net change in units</t>
+          <t>The size of the site in hectares</t>
         </is>
       </c>
       <c r="M125" s="2" t="inlineStr">
@@ -6520,16 +6528,8 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>Site area</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>site-area</t>
-        </is>
-      </c>
+      <c r="A126" s="2" t="n"/>
+      <c r="B126" s="2" t="n"/>
       <c r="C126" s="2" t="inlineStr">
         <is>
           <t>How big the site is including relevant measurements</t>
@@ -6537,12 +6537,12 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>site-area-in-hectares</t>
+          <t>site-area-provided-by</t>
         </is>
       </c>
       <c r="E126" s="2" t="inlineStr">
         <is>
-          <t>Site area in hectares</t>
+          <t>Site area provided by</t>
         </is>
       </c>
       <c r="F126" s="2" t="inlineStr"/>
@@ -6553,52 +6553,68 @@
       <c r="K126" s="2" t="inlineStr"/>
       <c r="L126" s="2" t="inlineStr">
         <is>
-          <t>The size of the site in hectares</t>
+          <t>Who provided the site area value</t>
         </is>
       </c>
       <c r="M126" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N126" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="n"/>
-      <c r="B127" s="2" t="n"/>
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>Site details</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>site-details</t>
+        </is>
+      </c>
       <c r="C127" s="2" t="inlineStr">
         <is>
-          <t>How big the site is including relevant measurements</t>
+          <t>Where the proposed development will be built.</t>
         </is>
       </c>
       <c r="D127" s="2" t="inlineStr">
         <is>
-          <t>site-area-provided-by</t>
+          <t>site-locations</t>
         </is>
       </c>
       <c r="E127" s="2" t="inlineStr">
         <is>
-          <t>Site area provided by</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
+          <t>Site locations[]</t>
+        </is>
+      </c>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>site-boundary</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr">
+        <is>
+          <t>Site boundary</t>
+        </is>
+      </c>
       <c r="H127" s="2" t="inlineStr"/>
       <c r="I127" s="2" t="inlineStr"/>
       <c r="J127" s="2" t="inlineStr"/>
       <c r="K127" s="2" t="inlineStr"/>
       <c r="L127" s="2" t="inlineStr">
         <is>
-          <t>Who provided the site area value</t>
+          <t>Geometry of the site of the development, typically in GeoJSON format</t>
         </is>
       </c>
       <c r="M127" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>wkt</t>
         </is>
       </c>
       <c r="N127" s="2" t="inlineStr">
@@ -6608,16 +6624,8 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="inlineStr">
-        <is>
-          <t>Site details</t>
-        </is>
-      </c>
-      <c r="B128" s="2" t="inlineStr">
-        <is>
-          <t>site-details</t>
-        </is>
-      </c>
+      <c r="A128" s="2" t="n"/>
+      <c r="B128" s="2" t="n"/>
       <c r="C128" s="2" t="inlineStr">
         <is>
           <t>Where the proposed development will be built.</t>
@@ -6635,12 +6643,12 @@
       </c>
       <c r="F128" s="2" t="inlineStr">
         <is>
-          <t>site-boundary</t>
+          <t>address-text</t>
         </is>
       </c>
       <c r="G128" s="2" t="inlineStr">
         <is>
-          <t>Site boundary</t>
+          <t>Address Text</t>
         </is>
       </c>
       <c r="H128" s="2" t="inlineStr"/>
@@ -6649,12 +6657,12 @@
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr">
         <is>
-          <t>Geometry of the site of the development, typically in GeoJSON format</t>
+          <t>Flexible field for capturing addresses</t>
         </is>
       </c>
       <c r="M128" s="2" t="inlineStr">
         <is>
-          <t>wkt</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N128" s="2" t="inlineStr">
@@ -6683,12 +6691,12 @@
       </c>
       <c r="F129" s="2" t="inlineStr">
         <is>
-          <t>address-text</t>
+          <t>postcode</t>
         </is>
       </c>
       <c r="G129" s="2" t="inlineStr">
         <is>
-          <t>Address Text</t>
+          <t>Postcode</t>
         </is>
       </c>
       <c r="H129" s="2" t="inlineStr"/>
@@ -6697,7 +6705,7 @@
       <c r="K129" s="2" t="inlineStr"/>
       <c r="L129" s="2" t="inlineStr">
         <is>
-          <t>Flexible field for capturing addresses</t>
+          <t>The postal code</t>
         </is>
       </c>
       <c r="M129" s="2" t="inlineStr">
@@ -6731,12 +6739,12 @@
       </c>
       <c r="F130" s="2" t="inlineStr">
         <is>
-          <t>postcode</t>
+          <t>easting</t>
         </is>
       </c>
       <c r="G130" s="2" t="inlineStr">
         <is>
-          <t>Postcode</t>
+          <t>Easting</t>
         </is>
       </c>
       <c r="H130" s="2" t="inlineStr"/>
@@ -6745,12 +6753,12 @@
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr">
         <is>
-          <t>The postal code</t>
+          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M130" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N130" s="2" t="inlineStr">
@@ -6779,12 +6787,12 @@
       </c>
       <c r="F131" s="2" t="inlineStr">
         <is>
-          <t>easting</t>
+          <t>northing</t>
         </is>
       </c>
       <c r="G131" s="2" t="inlineStr">
         <is>
-          <t>Easting</t>
+          <t>Northing</t>
         </is>
       </c>
       <c r="H131" s="2" t="inlineStr"/>
@@ -6793,7 +6801,7 @@
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr">
         <is>
-          <t>Easting coordinate in British National Grid (EPSG:27700)</t>
+          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
         </is>
       </c>
       <c r="M131" s="2" t="inlineStr">
@@ -6827,12 +6835,12 @@
       </c>
       <c r="F132" s="2" t="inlineStr">
         <is>
-          <t>northing</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G132" s="2" t="inlineStr">
         <is>
-          <t>Northing</t>
+          <t>Latitude</t>
         </is>
       </c>
       <c r="H132" s="2" t="inlineStr"/>
@@ -6841,7 +6849,7 @@
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr">
         <is>
-          <t>Northing coordinate in British National Grid (EPSG:27700)</t>
+          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M132" s="2" t="inlineStr">
@@ -6875,12 +6883,12 @@
       </c>
       <c r="F133" s="2" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="G133" s="2" t="inlineStr">
         <is>
-          <t>Latitude</t>
+          <t>Longitude</t>
         </is>
       </c>
       <c r="H133" s="2" t="inlineStr"/>
@@ -6889,7 +6897,7 @@
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr">
         <is>
-          <t>Latitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
         </is>
       </c>
       <c r="M133" s="2" t="inlineStr">
@@ -6923,12 +6931,12 @@
       </c>
       <c r="F134" s="2" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>description</t>
         </is>
       </c>
       <c r="G134" s="2" t="inlineStr">
         <is>
-          <t>Longitude</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="H134" s="2" t="inlineStr"/>
@@ -6937,12 +6945,12 @@
       <c r="K134" s="2" t="inlineStr"/>
       <c r="L134" s="2" t="inlineStr">
         <is>
-          <t>Longitude coordinate in WGS84 (EPSG:4326)</t>
+          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
         </is>
       </c>
       <c r="M134" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N134" s="2" t="inlineStr">
@@ -6971,12 +6979,12 @@
       </c>
       <c r="F135" s="2" t="inlineStr">
         <is>
-          <t>description</t>
+          <t>uprns</t>
         </is>
       </c>
       <c r="G135" s="2" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>UPRNs[]</t>
         </is>
       </c>
       <c r="H135" s="2" t="inlineStr"/>
@@ -6985,7 +6993,7 @@
       <c r="K135" s="2" t="inlineStr"/>
       <c r="L135" s="2" t="inlineStr">
         <is>
-          <t>A text description providing details about the subject. For parking changes, this describes how the proposed works affect existing car parking arrangements.</t>
+          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
         </is>
       </c>
       <c r="M135" s="2" t="inlineStr">
@@ -7000,64 +7008,56 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="n"/>
-      <c r="B136" s="2" t="n"/>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Site Visit Details</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>site-visit</t>
+        </is>
+      </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>Where the proposed development will be built.</t>
+          <t>Information to help the planning authority arrange a site visit</t>
         </is>
       </c>
       <c r="D136" s="2" t="inlineStr">
         <is>
-          <t>site-locations</t>
+          <t>can-be-seen-from</t>
         </is>
       </c>
       <c r="E136" s="2" t="inlineStr">
         <is>
-          <t>Site locations[]</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>uprns</t>
-        </is>
-      </c>
-      <c r="G136" s="2" t="inlineStr">
-        <is>
-          <t>UPRNs[]</t>
-        </is>
-      </c>
+          <t>Site seen from public area</t>
+        </is>
+      </c>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr"/>
       <c r="J136" s="2" t="inlineStr"/>
       <c r="K136" s="2" t="inlineStr"/>
       <c r="L136" s="2" t="inlineStr">
         <is>
-          <t>Unique Property Reference Numbers (UPRNs) for properties within the site boundary</t>
+          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
         </is>
       </c>
       <c r="M136" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N136" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="inlineStr">
-        <is>
-          <t>Site Visit Details</t>
-        </is>
-      </c>
-      <c r="B137" s="2" t="inlineStr">
-        <is>
-          <t>site-visit</t>
-        </is>
-      </c>
+      <c r="A137" s="2" t="n"/>
+      <c r="B137" s="2" t="n"/>
       <c r="C137" s="2" t="inlineStr">
         <is>
           <t>Information to help the planning authority arrange a site visit</t>
@@ -7065,12 +7065,12 @@
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>can-be-seen-from</t>
+          <t>contact-type</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr">
         <is>
-          <t>Site seen from public area</t>
+          <t>Site visit contact type</t>
         </is>
       </c>
       <c r="F137" s="2" t="inlineStr"/>
@@ -7081,12 +7081,12 @@
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr">
         <is>
-          <t>Can site be seen from a public road, public footpath, bridleway or other public land</t>
+          <t>Indicates who the authority should contact to arrange a site visit</t>
         </is>
       </c>
       <c r="M137" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>enum</t>
         </is>
       </c>
       <c r="N137" s="2" t="inlineStr">
@@ -7105,12 +7105,12 @@
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>contact-type</t>
+          <t>contact-reference</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr">
         <is>
-          <t>Site visit contact type</t>
+          <t>Contact reference</t>
         </is>
       </c>
       <c r="F138" s="2" t="inlineStr"/>
@@ -7121,17 +7121,17 @@
       <c r="K138" s="2" t="inlineStr"/>
       <c r="L138" s="2" t="inlineStr">
         <is>
-          <t>Indicates who the authority should contact to arrange a site visit</t>
+          <t>The reference of the applicant or agent who should be contacted for site visits</t>
         </is>
       </c>
       <c r="M138" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N138" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7145,23 +7145,31 @@
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>contact-reference</t>
+          <t>other-contact</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr">
         <is>
-          <t>Contact reference</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr"/>
-      <c r="G139" s="2" t="inlineStr"/>
+          <t>Other site visit contact</t>
+        </is>
+      </c>
+      <c r="F139" s="2" t="inlineStr">
+        <is>
+          <t>fullname</t>
+        </is>
+      </c>
+      <c r="G139" s="2" t="inlineStr">
+        <is>
+          <t>Full name</t>
+        </is>
+      </c>
       <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr"/>
       <c r="K139" s="2" t="inlineStr"/>
       <c r="L139" s="2" t="inlineStr">
         <is>
-          <t>The reference of the applicant or agent who should be contacted for site visits</t>
+          <t>The complete name of a person</t>
         </is>
       </c>
       <c r="M139" s="2" t="inlineStr">
@@ -7171,7 +7179,7 @@
       </c>
       <c r="N139" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7203,12 @@
       </c>
       <c r="F140" s="2" t="inlineStr">
         <is>
-          <t>fullname</t>
+          <t>number</t>
         </is>
       </c>
       <c r="G140" s="2" t="inlineStr">
         <is>
-          <t>Full name</t>
+          <t>Phone number</t>
         </is>
       </c>
       <c r="H140" s="2" t="inlineStr"/>
@@ -7209,7 +7217,7 @@
       <c r="K140" s="2" t="inlineStr"/>
       <c r="L140" s="2" t="inlineStr">
         <is>
-          <t>The complete name of a person</t>
+          <t>A phone number</t>
         </is>
       </c>
       <c r="M140" s="2" t="inlineStr">
@@ -7243,12 +7251,12 @@
       </c>
       <c r="F141" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>email</t>
         </is>
       </c>
       <c r="G141" s="2" t="inlineStr">
         <is>
-          <t>Phone number</t>
+          <t>Email</t>
         </is>
       </c>
       <c r="H141" s="2" t="inlineStr"/>
@@ -7257,7 +7265,7 @@
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr">
         <is>
-          <t>A phone number</t>
+          <t>The email address that can be used for electronic correspondence with the individual</t>
         </is>
       </c>
       <c r="M141" s="2" t="inlineStr">
@@ -7272,45 +7280,45 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="n"/>
-      <c r="B142" s="2" t="n"/>
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Trade effluent</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>trade-effluent</t>
+        </is>
+      </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>Information to help the planning authority arrange a site visit</t>
+          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>other-contact</t>
+          <t>is-disposal-required</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr">
         <is>
-          <t>Other site visit contact</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>email</t>
-        </is>
-      </c>
-      <c r="G142" s="2" t="inlineStr">
-        <is>
-          <t>Email</t>
-        </is>
-      </c>
+          <t>Disposal required</t>
+        </is>
+      </c>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
       <c r="H142" s="2" t="inlineStr"/>
       <c r="I142" s="2" t="inlineStr"/>
       <c r="J142" s="2" t="inlineStr"/>
       <c r="K142" s="2" t="inlineStr"/>
       <c r="L142" s="2" t="inlineStr">
         <is>
-          <t>The email address that can be used for electronic correspondence with the individual</t>
+          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
         </is>
       </c>
       <c r="M142" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>boolean</t>
         </is>
       </c>
       <c r="N142" s="2" t="inlineStr">
@@ -7320,16 +7328,8 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="inlineStr">
-        <is>
-          <t>Trade effluent</t>
-        </is>
-      </c>
-      <c r="B143" s="2" t="inlineStr">
-        <is>
-          <t>trade-effluent</t>
-        </is>
-      </c>
+      <c r="A143" s="2" t="n"/>
+      <c r="B143" s="2" t="n"/>
       <c r="C143" s="2" t="inlineStr">
         <is>
           <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
@@ -7337,12 +7337,12 @@
       </c>
       <c r="D143" s="2" t="inlineStr">
         <is>
-          <t>is-disposal-required</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E143" s="2" t="inlineStr">
         <is>
-          <t>Disposal required</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F143" s="2" t="inlineStr"/>
@@ -7353,99 +7353,107 @@
       <c r="K143" s="2" t="inlineStr"/>
       <c r="L143" s="2" t="inlineStr">
         <is>
-          <t>Does the proposal involve the disposal of trade effluents or waste (true/false)</t>
+          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
         </is>
       </c>
       <c r="M143" s="2" t="inlineStr">
         <is>
-          <t>boolean</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N143" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="n"/>
-      <c r="B144" s="2" t="n"/>
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Trees and hedges information</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>trees-hedges</t>
+        </is>
+      </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>Details of any liquid waste produced by industial processes on the proposed site, and how it will be diposed of.</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr"/>
+      <c r="E144" s="2" t="inlineStr"/>
       <c r="F144" s="2" t="inlineStr"/>
       <c r="G144" s="2" t="inlineStr"/>
       <c r="H144" s="2" t="inlineStr"/>
       <c r="I144" s="2" t="inlineStr"/>
       <c r="J144" s="2" t="inlineStr"/>
       <c r="K144" s="2" t="inlineStr"/>
-      <c r="L144" s="2" t="inlineStr">
-        <is>
-          <t>describe the nature, volume and means of disposal of trade effluents or waste</t>
-        </is>
-      </c>
-      <c r="M144" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N144" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
+      <c r="L144" s="2" t="inlineStr"/>
+      <c r="M144" s="2" t="inlineStr"/>
+      <c r="N144" s="2" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="inlineStr">
         <is>
-          <t>Trees and hedges information</t>
+          <t>Vehicle parking</t>
         </is>
       </c>
       <c r="B145" s="2" t="inlineStr">
         <is>
-          <t>trees-hedges</t>
+          <t>vehicle-parking</t>
         </is>
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>Details of trees and/or hedges that will be affected by the proposed development</t>
-        </is>
-      </c>
-      <c r="D145" s="2" t="inlineStr"/>
-      <c r="E145" s="2" t="inlineStr"/>
-      <c r="F145" s="2" t="inlineStr"/>
-      <c r="G145" s="2" t="inlineStr"/>
+          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>parking-spaces</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr">
+        <is>
+          <t>Parking spaces[]</t>
+        </is>
+      </c>
+      <c r="F145" s="2" t="inlineStr">
+        <is>
+          <t>parking-space-type</t>
+        </is>
+      </c>
+      <c r="G145" s="2" t="inlineStr">
+        <is>
+          <t>Parking space type</t>
+        </is>
+      </c>
       <c r="H145" s="2" t="inlineStr"/>
       <c r="I145" s="2" t="inlineStr"/>
       <c r="J145" s="2" t="inlineStr"/>
       <c r="K145" s="2" t="inlineStr"/>
-      <c r="L145" s="2" t="inlineStr"/>
-      <c r="M145" s="2" t="inlineStr"/>
-      <c r="N145" s="2" t="inlineStr"/>
+      <c r="L145" s="2" t="inlineStr">
+        <is>
+          <t>Type of parking space or vehicle type</t>
+        </is>
+      </c>
+      <c r="M145" s="2" t="inlineStr">
+        <is>
+          <t>enum</t>
+        </is>
+      </c>
+      <c r="N145" s="2" t="inlineStr">
+        <is>
+          <t>MUST</t>
+        </is>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="inlineStr">
-        <is>
-          <t>Vehicle parking</t>
-        </is>
-      </c>
-      <c r="B146" s="2" t="inlineStr">
-        <is>
-          <t>vehicle-parking</t>
-        </is>
-      </c>
+      <c r="A146" s="2" t="n"/>
+      <c r="B146" s="2" t="n"/>
       <c r="C146" s="2" t="inlineStr">
         <is>
           <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
@@ -7463,12 +7471,12 @@
       </c>
       <c r="F146" s="2" t="inlineStr">
         <is>
-          <t>parking-space-type</t>
+          <t>vehicle-type-other</t>
         </is>
       </c>
       <c r="G146" s="2" t="inlineStr">
         <is>
-          <t>Parking space type</t>
+          <t>Vehicle type other</t>
         </is>
       </c>
       <c r="H146" s="2" t="inlineStr"/>
@@ -7477,17 +7485,17 @@
       <c r="K146" s="2" t="inlineStr"/>
       <c r="L146" s="2" t="inlineStr">
         <is>
-          <t>Type of parking space or vehicle type</t>
+          <t>Vehicle type when parking space type is 'other'</t>
         </is>
       </c>
       <c r="M146" s="2" t="inlineStr">
         <is>
-          <t>enum</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N146" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
@@ -7511,12 +7519,12 @@
       </c>
       <c r="F147" s="2" t="inlineStr">
         <is>
-          <t>vehicle-type-other</t>
+          <t>total-existing</t>
         </is>
       </c>
       <c r="G147" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type other</t>
+          <t>Total existing</t>
         </is>
       </c>
       <c r="H147" s="2" t="inlineStr"/>
@@ -7525,17 +7533,17 @@
       <c r="K147" s="2" t="inlineStr"/>
       <c r="L147" s="2" t="inlineStr">
         <is>
-          <t>Vehicle type when parking space type is 'other'</t>
+          <t>Total number of existing parking spaces</t>
         </is>
       </c>
       <c r="M147" s="2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>number</t>
         </is>
       </c>
       <c r="N147" s="2" t="inlineStr">
         <is>
-          <t>MAY</t>
+          <t>MUST</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7567,12 @@
       </c>
       <c r="F148" s="2" t="inlineStr">
         <is>
-          <t>total-existing</t>
+          <t>total-proposed</t>
         </is>
       </c>
       <c r="G148" s="2" t="inlineStr">
         <is>
-          <t>Total existing</t>
+          <t>Total proposed</t>
         </is>
       </c>
       <c r="H148" s="2" t="inlineStr"/>
@@ -7573,7 +7581,7 @@
       <c r="K148" s="2" t="inlineStr"/>
       <c r="L148" s="2" t="inlineStr">
         <is>
-          <t>Total number of existing parking spaces</t>
+          <t>Total number of proposed parking spaces</t>
         </is>
       </c>
       <c r="M148" s="2" t="inlineStr">
@@ -7607,12 +7615,12 @@
       </c>
       <c r="F149" s="2" t="inlineStr">
         <is>
-          <t>total-proposed</t>
+          <t>difference-in-spaces</t>
         </is>
       </c>
       <c r="G149" s="2" t="inlineStr">
         <is>
-          <t>Total proposed</t>
+          <t>Difference in spaces</t>
         </is>
       </c>
       <c r="H149" s="2" t="inlineStr"/>
@@ -7621,7 +7629,7 @@
       <c r="K149" s="2" t="inlineStr"/>
       <c r="L149" s="2" t="inlineStr">
         <is>
-          <t>Total number of proposed parking spaces</t>
+          <t>Net change in parking spaces (proposed minus existing)</t>
         </is>
       </c>
       <c r="M149" s="2" t="inlineStr">
@@ -7636,64 +7644,56 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="n"/>
-      <c r="B150" s="2" t="n"/>
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Waste storage and collection</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>waste-storage-collection</t>
+        </is>
+      </c>
       <c r="C150" s="2" t="inlineStr">
         <is>
-          <t>Details of current parking facilities at the site and any changes that would be made by the proposed development.</t>
+          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
         </is>
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>parking-spaces</t>
+          <t>waste-storage-area-details</t>
         </is>
       </c>
       <c r="E150" s="2" t="inlineStr">
         <is>
-          <t>Parking spaces[]</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>difference-in-spaces</t>
-        </is>
-      </c>
-      <c r="G150" s="2" t="inlineStr">
-        <is>
-          <t>Difference in spaces</t>
-        </is>
-      </c>
+          <t>Waste storage area details</t>
+        </is>
+      </c>
+      <c r="F150" s="2" t="inlineStr"/>
+      <c r="G150" s="2" t="inlineStr"/>
       <c r="H150" s="2" t="inlineStr"/>
       <c r="I150" s="2" t="inlineStr"/>
       <c r="J150" s="2" t="inlineStr"/>
       <c r="K150" s="2" t="inlineStr"/>
       <c r="L150" s="2" t="inlineStr">
         <is>
-          <t>Net change in parking spaces (proposed minus existing)</t>
+          <t>Details of the waste storage area including location, size, design and access arrangements</t>
         </is>
       </c>
       <c r="M150" s="2" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>string</t>
         </is>
       </c>
       <c r="N150" s="2" t="inlineStr">
         <is>
-          <t>MUST</t>
+          <t>MAY</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="inlineStr">
-        <is>
-          <t>Waste storage and collection</t>
-        </is>
-      </c>
-      <c r="B151" s="2" t="inlineStr">
-        <is>
-          <t>waste-storage-collection</t>
-        </is>
-      </c>
+      <c r="A151" s="2" t="n"/>
+      <c r="B151" s="2" t="n"/>
       <c r="C151" s="2" t="inlineStr">
         <is>
           <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
@@ -7701,12 +7701,12 @@
       </c>
       <c r="D151" s="2" t="inlineStr">
         <is>
-          <t>waste-storage-area-details</t>
+          <t>separate-recycling-arrangements-details</t>
         </is>
       </c>
       <c r="E151" s="2" t="inlineStr">
         <is>
-          <t>Waste storage area details</t>
+          <t>Separate recycling arrangements details</t>
         </is>
       </c>
       <c r="F151" s="2" t="inlineStr"/>
@@ -7717,7 +7717,7 @@
       <c r="K151" s="2" t="inlineStr"/>
       <c r="L151" s="2" t="inlineStr">
         <is>
-          <t>Details of the waste storage area including location, size, design and access arrangements</t>
+          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
         </is>
       </c>
       <c r="M151" s="2" t="inlineStr">
@@ -7726,46 +7726,6 @@
         </is>
       </c>
       <c r="N151" s="2" t="inlineStr">
-        <is>
-          <t>MAY</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n"/>
-      <c r="B152" s="2" t="n"/>
-      <c r="C152" s="2" t="inlineStr">
-        <is>
-          <t>Any waste storage or recycling arrangements are in place, such as waste storage areas</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>separate-recycling-arrangements-details</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>Separate recycling arrangements details</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
-      <c r="H152" s="2" t="inlineStr"/>
-      <c r="I152" s="2" t="inlineStr"/>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
-      <c r="L152" s="2" t="inlineStr">
-        <is>
-          <t>Details of the recycling arrangements including types of materials, collection methods and storage facilities</t>
-        </is>
-      </c>
-      <c r="M152" s="2" t="inlineStr">
-        <is>
-          <t>string</t>
-        </is>
-      </c>
-      <c r="N152" s="2" t="inlineStr">
         <is>
           <t>MAY</t>
         </is>
@@ -7773,68 +7733,68 @@
     </row>
   </sheetData>
   <mergeCells count="62">
+    <mergeCell ref="A144"/>
     <mergeCell ref="B49"/>
-    <mergeCell ref="A97:A108"/>
     <mergeCell ref="A39:A44"/>
-    <mergeCell ref="A91"/>
-    <mergeCell ref="A109"/>
+    <mergeCell ref="B82:B88"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A81"/>
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="B77:B80"/>
-    <mergeCell ref="B146:B150"/>
-    <mergeCell ref="B71:B76"/>
+    <mergeCell ref="B89"/>
+    <mergeCell ref="B80"/>
     <mergeCell ref="B45:B47"/>
     <mergeCell ref="B50"/>
-    <mergeCell ref="B92:B96"/>
-    <mergeCell ref="B128:B136"/>
+    <mergeCell ref="A96:A107"/>
+    <mergeCell ref="A70:A75"/>
     <mergeCell ref="B23:B26"/>
-    <mergeCell ref="A137:A142"/>
+    <mergeCell ref="A91:A95"/>
     <mergeCell ref="A48"/>
     <mergeCell ref="B51:B53"/>
     <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B151:B152"/>
-    <mergeCell ref="A61:A70"/>
+    <mergeCell ref="B70:B75"/>
+    <mergeCell ref="A109:A124"/>
     <mergeCell ref="B39:B44"/>
-    <mergeCell ref="B91"/>
-    <mergeCell ref="B109"/>
-    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="B127:B135"/>
+    <mergeCell ref="B136:B141"/>
+    <mergeCell ref="B144"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A69"/>
     <mergeCell ref="A49"/>
     <mergeCell ref="B81"/>
-    <mergeCell ref="A82"/>
     <mergeCell ref="B90"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B97:B108"/>
-    <mergeCell ref="B110:B125"/>
-    <mergeCell ref="B54:B60"/>
     <mergeCell ref="B27:B34"/>
-    <mergeCell ref="A151:A152"/>
-    <mergeCell ref="B83:B89"/>
-    <mergeCell ref="A71:A76"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="B142:B143"/>
     <mergeCell ref="A45:A47"/>
-    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A150:A151"/>
     <mergeCell ref="A23:A26"/>
-    <mergeCell ref="B61:B70"/>
+    <mergeCell ref="B96:B107"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="A136:A141"/>
     <mergeCell ref="A51:A53"/>
     <mergeCell ref="B48"/>
-    <mergeCell ref="A110:A125"/>
-    <mergeCell ref="A83:A89"/>
-    <mergeCell ref="B137:B142"/>
+    <mergeCell ref="B91:B95"/>
+    <mergeCell ref="B109:B124"/>
+    <mergeCell ref="A127:A135"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="B60:B69"/>
     <mergeCell ref="A90"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="B145"/>
-    <mergeCell ref="A54:A60"/>
+    <mergeCell ref="A108"/>
     <mergeCell ref="A27:A34"/>
+    <mergeCell ref="A80"/>
+    <mergeCell ref="A89"/>
+    <mergeCell ref="A142:A143"/>
+    <mergeCell ref="B150:B151"/>
     <mergeCell ref="A50"/>
-    <mergeCell ref="B126:B127"/>
-    <mergeCell ref="A145"/>
-    <mergeCell ref="B82"/>
-    <mergeCell ref="A77:A80"/>
+    <mergeCell ref="A82:A88"/>
+    <mergeCell ref="A145:A149"/>
+    <mergeCell ref="B145:B149"/>
     <mergeCell ref="B2:B19"/>
-    <mergeCell ref="A146:A150"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="B125:B126"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A128:A136"/>
+    <mergeCell ref="B108"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
+++ b/generated/spreadsheet/verbose/technical-details-consent-technical-details-consent-verbose.xlsx
@@ -762,7 +762,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="M65" s="2" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>datetime</t>
         </is>
       </c>
       <c r="N65" s="2" t="inlineStr">
